--- a/data/backend/order-client_structure.xlsx
+++ b/data/backend/order-client_structure.xlsx
@@ -793,58 +793,61 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>$assertionsDisabled</t>
+  </si>
+  <si>
     <t>serialVersionUID</t>
   </si>
   <si>
-    <t>$assertionsDisabled</t>
-  </si>
-  <si>
     <t>rsqlQuery</t>
   </si>
   <si>
+    <t>sortingOrder</t>
+  </si>
+  <si>
     <t>pageSize</t>
   </si>
   <si>
-    <t>sortingOrder</t>
-  </si>
-  <si>
     <t>pageNumber</t>
   </si>
   <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>deliveryCost</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>paymentCost</t>
+  </si>
+  <si>
+    <t>paymentMethod</t>
+  </si>
+  <si>
+    <t>totalCost</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>deliveryLocation</t>
+  </si>
+  <si>
+    <t>orderEntriesIds</t>
+  </si>
+  <si>
     <t>creationTimestamp</t>
   </si>
   <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>deliveryLocation</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>orderEntriesIds</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>client</t>
   </si>
   <si>
-    <t>deliveryCost</t>
-  </si>
-  <si>
-    <t>paymentMethod</t>
-  </si>
-  <si>
-    <t>totalCost</t>
-  </si>
-  <si>
     <t>deliveryMethod</t>
   </si>
   <si>
-    <t>paymentCost</t>
+    <t>emailAddress</t>
   </si>
   <si>
     <t>surname</t>
@@ -853,39 +856,36 @@
     <t>phoneNumber</t>
   </si>
   <si>
-    <t>emailAddress</t>
-  </si>
-  <si>
     <t>orderIds</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>operationType</t>
+  </si>
+  <si>
     <t>orderEntries</t>
   </si>
   <si>
-    <t>operationType</t>
+    <t>NEWEST_FIRST</t>
+  </si>
+  <si>
+    <t>OLDEST_FIRST</t>
   </si>
   <si>
     <t>$VALUES</t>
   </si>
   <si>
-    <t>OLDEST_FIRST</t>
-  </si>
-  <si>
-    <t>NEWEST_FIRST</t>
-  </si>
-  <si>
     <t>COMPLETED</t>
   </si>
   <si>
+    <t>NEW</t>
+  </si>
+  <si>
     <t>CANCELED</t>
   </si>
   <si>
-    <t>NEW</t>
-  </si>
-  <si>
     <t>COURIER</t>
   </si>
   <si>
@@ -901,42 +901,42 @@
     <t>productVariant</t>
   </si>
   <si>
+    <t>deliveryOrdersIds</t>
+  </si>
+  <si>
+    <t>street</t>
+  </si>
+  <si>
+    <t>flatNumber</t>
+  </si>
+  <si>
+    <t>streetNumber</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
     <t>country</t>
   </si>
   <si>
-    <t>flatNumber</t>
-  </si>
-  <si>
     <t>postCode</t>
   </si>
   <si>
-    <t>street</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>streetNumber</t>
-  </si>
-  <si>
-    <t>deliveryOrdersIds</t>
+    <t>clientId</t>
+  </si>
+  <si>
+    <t>deliveryLocationId</t>
   </si>
   <si>
     <t>locationId</t>
   </si>
   <si>
-    <t>deliveryLocationId</t>
-  </si>
-  <si>
-    <t>clientId</t>
+    <t>variantId</t>
   </si>
   <si>
     <t>orderedQuantityChange</t>
   </si>
   <si>
-    <t>variantId</t>
-  </si>
-  <si>
     <t>orderId</t>
   </si>
   <si>
@@ -961,10 +961,10 @@
     <t>GOOGLE_PAY</t>
   </si>
   <si>
+    <t>PAY_U</t>
+  </si>
+  <si>
     <t>VISA</t>
-  </si>
-  <si>
-    <t>PAY_U</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -14405,7 +14405,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>193</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -14413,7 +14413,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>25</v>
@@ -14433,7 +14433,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>7</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5">
@@ -14461,7 +14461,7 @@
         <v>98</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7">
@@ -14475,7 +14475,7 @@
         <v>98</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8">
@@ -14503,7 +14503,7 @@
         <v>98</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>224</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10">
@@ -14517,7 +14517,7 @@
         <v>98</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>115</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11">
@@ -14545,7 +14545,7 @@
         <v>98</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13">
@@ -14559,7 +14559,7 @@
         <v>98</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>78</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14">
@@ -14573,7 +14573,7 @@
         <v>98</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>193</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15">
@@ -14587,7 +14587,7 @@
         <v>98</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>72</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16">
@@ -14601,7 +14601,7 @@
         <v>98</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>222</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17">
@@ -14615,7 +14615,7 @@
         <v>98</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>155</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
@@ -14629,7 +14629,7 @@
         <v>98</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19">
@@ -14643,7 +14643,7 @@
         <v>98</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>118</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20">
@@ -14657,7 +14657,7 @@
         <v>98</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>151</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21">
@@ -14671,7 +14671,7 @@
         <v>25</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>193</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -14679,7 +14679,7 @@
         <v>70</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>25</v>
@@ -14699,7 +14699,7 @@
         <v>25</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>7</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24">
@@ -14713,7 +14713,7 @@
         <v>25</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>193</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -14721,7 +14721,7 @@
         <v>71</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>25</v>
@@ -14741,7 +14741,7 @@
         <v>25</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>7</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27">
@@ -14763,13 +14763,13 @@
         <v>72</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>75</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
@@ -14777,7 +14777,7 @@
         <v>72</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>98</v>
@@ -14791,13 +14791,13 @@
         <v>72</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>13</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31">
@@ -14839,7 +14839,7 @@
         <v>98</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34">
@@ -14853,7 +14853,7 @@
         <v>98</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35">
@@ -14867,7 +14867,7 @@
         <v>25</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>193</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
@@ -14875,7 +14875,7 @@
         <v>92</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>25</v>
@@ -14895,7 +14895,7 @@
         <v>25</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>7</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38">
@@ -14906,10 +14906,10 @@
         <v>282</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>101</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39">
@@ -14934,10 +14934,10 @@
         <v>284</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>46</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41">
@@ -14951,7 +14951,7 @@
         <v>98</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42">
@@ -14965,7 +14965,7 @@
         <v>98</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43">
@@ -14979,7 +14979,7 @@
         <v>25</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>193</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
@@ -14987,7 +14987,7 @@
         <v>114</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>25</v>
@@ -15007,7 +15007,7 @@
         <v>25</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>7</v>
+        <v>193</v>
       </c>
     </row>
     <row r="46">
@@ -15043,7 +15043,7 @@
         <v>115</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>98</v>
@@ -15071,13 +15071,13 @@
         <v>118</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51">
@@ -15085,7 +15085,7 @@
         <v>118</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>6</v>
@@ -15099,13 +15099,13 @@
         <v>118</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53">
@@ -15119,7 +15119,7 @@
         <v>25</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>193</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
@@ -15127,7 +15127,7 @@
         <v>121</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>25</v>
@@ -15147,7 +15147,7 @@
         <v>25</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>7</v>
+        <v>193</v>
       </c>
     </row>
     <row r="56">
@@ -15169,7 +15169,7 @@
         <v>122</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>98</v>
@@ -15217,7 +15217,7 @@
         <v>98</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61">
@@ -15231,7 +15231,7 @@
         <v>98</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>75</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62">
@@ -15245,7 +15245,7 @@
         <v>98</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>13</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63">
@@ -15267,7 +15267,7 @@
         <v>126</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>98</v>
@@ -15329,7 +15329,7 @@
         <v>98</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69">
@@ -15337,13 +15337,13 @@
         <v>142</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>300</v>
+        <v>271</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70">
@@ -15351,7 +15351,7 @@
         <v>142</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>98</v>
@@ -15365,7 +15365,7 @@
         <v>142</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>98</v>
@@ -15379,13 +15379,13 @@
         <v>142</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73">
@@ -15393,7 +15393,7 @@
         <v>142</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>98</v>
@@ -15407,13 +15407,13 @@
         <v>142</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>75</v>
+        <v>118</v>
       </c>
     </row>
     <row r="75">
@@ -15421,13 +15421,13 @@
         <v>142</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>151</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76">
@@ -15435,13 +15435,13 @@
         <v>142</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C76" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>118</v>
+        <v>151</v>
       </c>
     </row>
     <row r="77">
@@ -15449,13 +15449,13 @@
         <v>142</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="C77" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>155</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78">
@@ -15463,13 +15463,13 @@
         <v>142</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="C78" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D78" t="s" s="0">
-        <v>75</v>
+        <v>155</v>
       </c>
     </row>
     <row r="79">
@@ -15483,7 +15483,7 @@
         <v>98</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>43</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80">
@@ -15497,7 +15497,7 @@
         <v>98</v>
       </c>
       <c r="D80" t="s" s="0">
-        <v>75</v>
+        <v>43</v>
       </c>
     </row>
     <row r="81">
@@ -15505,13 +15505,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C81" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D81" t="s" s="0">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82">
@@ -15519,7 +15519,7 @@
         <v>79</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C82" t="s" s="0">
         <v>98</v>
@@ -15533,7 +15533,7 @@
         <v>79</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>98</v>
@@ -15547,13 +15547,13 @@
         <v>79</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D84" t="s" s="0">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="85">
@@ -15561,13 +15561,13 @@
         <v>79</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D85" t="s" s="0">
-        <v>13</v>
+        <v>75</v>
       </c>
     </row>
     <row r="86">
@@ -15575,13 +15575,13 @@
         <v>79</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="C86" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D86" t="s" s="0">
-        <v>75</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87">
@@ -15595,7 +15595,7 @@
         <v>25</v>
       </c>
       <c r="D87" t="s" s="0">
-        <v>193</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88">
@@ -15603,7 +15603,7 @@
         <v>174</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>25</v>
@@ -15623,7 +15623,7 @@
         <v>25</v>
       </c>
       <c r="D89" t="s" s="0">
-        <v>7</v>
+        <v>193</v>
       </c>
     </row>
     <row r="90">
@@ -15631,7 +15631,7 @@
         <v>148</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="C90" t="s" s="0">
         <v>98</v>
@@ -15645,13 +15645,13 @@
         <v>148</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>302</v>
+        <v>274</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D91" t="s" s="0">
-        <v>75</v>
+        <v>118</v>
       </c>
     </row>
     <row r="92">
@@ -15659,13 +15659,13 @@
         <v>148</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D92" t="s" s="0">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="93">
@@ -15673,13 +15673,13 @@
         <v>148</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="C93" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D93" t="s" s="0">
-        <v>118</v>
+        <v>75</v>
       </c>
     </row>
     <row r="94">
@@ -15693,7 +15693,7 @@
         <v>98</v>
       </c>
       <c r="D94" t="s" s="0">
-        <v>115</v>
+        <v>151</v>
       </c>
     </row>
     <row r="95">
@@ -15701,13 +15701,13 @@
         <v>148</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>301</v>
+        <v>263</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D95" t="s" s="0">
-        <v>75</v>
+        <v>115</v>
       </c>
     </row>
     <row r="96">
@@ -15721,7 +15721,7 @@
         <v>98</v>
       </c>
       <c r="D96" t="s" s="0">
-        <v>155</v>
+        <v>78</v>
       </c>
     </row>
     <row r="97">
@@ -15729,13 +15729,13 @@
         <v>148</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D97" t="s" s="0">
-        <v>151</v>
+        <v>75</v>
       </c>
     </row>
     <row r="98">
@@ -15743,7 +15743,7 @@
         <v>148</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>98</v>
@@ -15757,13 +15757,13 @@
         <v>148</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C99" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D99" t="s" s="0">
-        <v>78</v>
+        <v>151</v>
       </c>
     </row>
     <row r="100">
@@ -15777,7 +15777,7 @@
         <v>25</v>
       </c>
       <c r="D100" t="s" s="0">
-        <v>193</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101">
@@ -15785,7 +15785,7 @@
         <v>179</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C101" t="s" s="0">
         <v>25</v>
@@ -15805,7 +15805,7 @@
         <v>25</v>
       </c>
       <c r="D102" t="s" s="0">
-        <v>7</v>
+        <v>193</v>
       </c>
     </row>
     <row r="103">
@@ -15819,7 +15819,7 @@
         <v>25</v>
       </c>
       <c r="D103" t="s" s="0">
-        <v>193</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104">
@@ -15827,7 +15827,7 @@
         <v>180</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C104" t="s" s="0">
         <v>25</v>
@@ -15847,7 +15847,7 @@
         <v>25</v>
       </c>
       <c r="D105" t="s" s="0">
-        <v>7</v>
+        <v>193</v>
       </c>
     </row>
     <row r="106">
@@ -15925,13 +15925,13 @@
         <v>111</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="C111" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D111" t="s" s="0">
-        <v>193</v>
+        <v>61</v>
       </c>
     </row>
     <row r="112">
@@ -15953,13 +15953,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="C113" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D113" t="s" s="0">
-        <v>61</v>
+        <v>193</v>
       </c>
     </row>
     <row r="114">
@@ -15967,7 +15967,7 @@
         <v>165</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C114" t="s" s="0">
         <v>98</v>
@@ -15981,7 +15981,7 @@
         <v>165</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C115" t="s" s="0">
         <v>98</v>
@@ -16001,7 +16001,7 @@
         <v>25</v>
       </c>
       <c r="D116" t="s" s="0">
-        <v>193</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117">
@@ -16009,7 +16009,7 @@
         <v>198</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C117" t="s" s="0">
         <v>25</v>
@@ -16029,7 +16029,7 @@
         <v>25</v>
       </c>
       <c r="D118" t="s" s="0">
-        <v>7</v>
+        <v>193</v>
       </c>
     </row>
     <row r="119">
@@ -16037,13 +16037,13 @@
         <v>199</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="C119" t="s" s="0">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="D119" t="s" s="0">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="120">
@@ -16051,7 +16051,7 @@
         <v>199</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C120" t="s" s="0">
         <v>6</v>
@@ -16065,13 +16065,13 @@
         <v>199</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="C121" t="s" s="0">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="D121" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="122">
@@ -16079,7 +16079,7 @@
         <v>202</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C122" t="s" s="0">
         <v>98</v>
@@ -16113,7 +16113,7 @@
         <v>98</v>
       </c>
       <c r="D124" t="s" s="0">
-        <v>43</v>
+        <v>199</v>
       </c>
     </row>
     <row r="125">
@@ -16121,13 +16121,13 @@
         <v>205</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C125" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D125" t="s" s="0">
-        <v>13</v>
+        <v>43</v>
       </c>
     </row>
     <row r="126">
@@ -16149,13 +16149,13 @@
         <v>205</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C127" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D127" t="s" s="0">
-        <v>199</v>
+        <v>13</v>
       </c>
     </row>
     <row r="128">
@@ -16169,7 +16169,7 @@
         <v>25</v>
       </c>
       <c r="D128" t="s" s="0">
-        <v>193</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129">
@@ -16177,7 +16177,7 @@
         <v>211</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C129" t="s" s="0">
         <v>25</v>
@@ -16197,7 +16197,7 @@
         <v>25</v>
       </c>
       <c r="D130" t="s" s="0">
-        <v>7</v>
+        <v>193</v>
       </c>
     </row>
     <row r="131">
@@ -16211,7 +16211,7 @@
         <v>25</v>
       </c>
       <c r="D131" t="s" s="0">
-        <v>193</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132">
@@ -16219,7 +16219,7 @@
         <v>212</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C132" t="s" s="0">
         <v>25</v>
@@ -16239,7 +16239,7 @@
         <v>25</v>
       </c>
       <c r="D133" t="s" s="0">
-        <v>7</v>
+        <v>193</v>
       </c>
     </row>
     <row r="134">
@@ -16253,7 +16253,7 @@
         <v>25</v>
       </c>
       <c r="D134" t="s" s="0">
-        <v>193</v>
+        <v>7</v>
       </c>
     </row>
     <row r="135">
@@ -16261,7 +16261,7 @@
         <v>213</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C135" t="s" s="0">
         <v>25</v>
@@ -16281,7 +16281,7 @@
         <v>25</v>
       </c>
       <c r="D136" t="s" s="0">
-        <v>7</v>
+        <v>193</v>
       </c>
     </row>
     <row r="137">
@@ -16289,13 +16289,13 @@
         <v>61</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C137" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D137" t="s" s="0">
-        <v>126</v>
+        <v>155</v>
       </c>
     </row>
     <row r="138">
@@ -16303,13 +16303,13 @@
         <v>61</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C138" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D138" t="s" s="0">
-        <v>118</v>
+        <v>78</v>
       </c>
     </row>
     <row r="139">
@@ -16317,13 +16317,13 @@
         <v>61</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C139" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D139" t="s" s="0">
-        <v>126</v>
+        <v>193</v>
       </c>
     </row>
     <row r="140">
@@ -16331,13 +16331,13 @@
         <v>61</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="C140" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D140" t="s" s="0">
-        <v>115</v>
+        <v>72</v>
       </c>
     </row>
     <row r="141">
@@ -16345,13 +16345,13 @@
         <v>61</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C141" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D141" t="s" s="0">
-        <v>224</v>
+        <v>126</v>
       </c>
     </row>
     <row r="142">
@@ -16359,13 +16359,13 @@
         <v>61</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C142" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D142" t="s" s="0">
-        <v>78</v>
+        <v>126</v>
       </c>
     </row>
     <row r="143">
@@ -16373,13 +16373,13 @@
         <v>61</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C143" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D143" t="s" s="0">
-        <v>155</v>
+        <v>115</v>
       </c>
     </row>
     <row r="144">
@@ -16387,13 +16387,13 @@
         <v>61</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C144" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D144" t="s" s="0">
-        <v>151</v>
+        <v>224</v>
       </c>
     </row>
     <row r="145">
@@ -16401,13 +16401,13 @@
         <v>61</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C145" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D145" t="s" s="0">
-        <v>72</v>
+        <v>118</v>
       </c>
     </row>
     <row r="146">
@@ -16415,7 +16415,7 @@
         <v>61</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C146" t="s" s="0">
         <v>98</v>
@@ -16429,13 +16429,13 @@
         <v>61</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C147" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D147" t="s" s="0">
-        <v>193</v>
+        <v>151</v>
       </c>
     </row>
     <row r="148">
@@ -16443,7 +16443,7 @@
         <v>61</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C148" t="s" s="0">
         <v>98</v>
@@ -16457,7 +16457,7 @@
         <v>208</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C149" t="s" s="0">
         <v>98</v>
@@ -16471,7 +16471,7 @@
         <v>208</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C150" t="s" s="0">
         <v>98</v>
@@ -16485,7 +16485,7 @@
         <v>208</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C151" t="s" s="0">
         <v>98</v>
@@ -16527,7 +16527,7 @@
         <v>203</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C154" t="s" s="0">
         <v>98</v>
@@ -16547,7 +16547,7 @@
         <v>25</v>
       </c>
       <c r="D155" t="s" s="0">
-        <v>193</v>
+        <v>7</v>
       </c>
     </row>
     <row r="156">
@@ -16555,7 +16555,7 @@
         <v>230</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C156" t="s" s="0">
         <v>25</v>
@@ -16575,7 +16575,7 @@
         <v>25</v>
       </c>
       <c r="D157" t="s" s="0">
-        <v>7</v>
+        <v>193</v>
       </c>
     </row>
     <row r="158">
@@ -16589,7 +16589,7 @@
         <v>25</v>
       </c>
       <c r="D158" t="s" s="0">
-        <v>193</v>
+        <v>7</v>
       </c>
     </row>
     <row r="159">
@@ -16597,7 +16597,7 @@
         <v>231</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C159" t="s" s="0">
         <v>25</v>
@@ -16617,7 +16617,7 @@
         <v>25</v>
       </c>
       <c r="D160" t="s" s="0">
-        <v>7</v>
+        <v>193</v>
       </c>
     </row>
     <row r="161">
@@ -16625,13 +16625,13 @@
         <v>131</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C161" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D161" t="s" s="0">
-        <v>75</v>
+        <v>13</v>
       </c>
     </row>
     <row r="162">
@@ -16639,13 +16639,13 @@
         <v>131</v>
       </c>
       <c r="B162" t="s" s="0">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C162" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D162" t="s" s="0">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="163">
@@ -16653,7 +16653,7 @@
         <v>131</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C163" t="s" s="0">
         <v>98</v>
@@ -16667,13 +16667,13 @@
         <v>131</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="C164" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D164" t="s" s="0">
-        <v>13</v>
+        <v>75</v>
       </c>
     </row>
     <row r="165">
@@ -16681,7 +16681,7 @@
         <v>131</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="C165" t="s" s="0">
         <v>98</v>
@@ -16695,13 +16695,13 @@
         <v>131</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C166" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D166" t="s" s="0">
-        <v>13</v>
+        <v>75</v>
       </c>
     </row>
     <row r="167">
@@ -16709,13 +16709,13 @@
         <v>131</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="C167" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D167" t="s" s="0">
-        <v>75</v>
+        <v>13</v>
       </c>
     </row>
     <row r="168">
@@ -16723,7 +16723,7 @@
         <v>131</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C168" t="s" s="0">
         <v>98</v>
@@ -16737,13 +16737,13 @@
         <v>131</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="C169" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D169" t="s" s="0">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="170">
@@ -16757,7 +16757,7 @@
         <v>98</v>
       </c>
       <c r="D170" t="s" s="0">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="171">
@@ -16765,13 +16765,13 @@
         <v>52</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C171" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D171" t="s" s="0">
-        <v>13</v>
+        <v>43</v>
       </c>
     </row>
     <row r="172">
@@ -16793,13 +16793,13 @@
         <v>52</v>
       </c>
       <c r="B173" t="s" s="0">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C173" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D173" t="s" s="0">
-        <v>46</v>
+        <v>13</v>
       </c>
     </row>
     <row r="174">
@@ -16807,13 +16807,13 @@
         <v>240</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="C174" t="s" s="0">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="D174" t="s" s="0">
-        <v>193</v>
+        <v>78</v>
       </c>
     </row>
     <row r="175">
@@ -16827,7 +16827,7 @@
         <v>25</v>
       </c>
       <c r="D175" t="s" s="0">
-        <v>193</v>
+        <v>7</v>
       </c>
     </row>
     <row r="176">
@@ -16835,13 +16835,13 @@
         <v>240</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>311</v>
+        <v>258</v>
       </c>
       <c r="C176" t="s" s="0">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="D176" t="s" s="0">
-        <v>78</v>
+        <v>193</v>
       </c>
     </row>
     <row r="177">
@@ -16855,7 +16855,7 @@
         <v>25</v>
       </c>
       <c r="D177" t="s" s="0">
-        <v>7</v>
+        <v>193</v>
       </c>
     </row>
     <row r="178">
@@ -16863,13 +16863,13 @@
         <v>183</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="C178" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D178" t="s" s="0">
-        <v>75</v>
+        <v>43</v>
       </c>
     </row>
     <row r="179">
@@ -16877,7 +16877,7 @@
         <v>183</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C179" t="s" s="0">
         <v>98</v>
@@ -16891,13 +16891,13 @@
         <v>183</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="C180" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D180" t="s" s="0">
-        <v>43</v>
+        <v>75</v>
       </c>
     </row>
     <row r="181">
@@ -16905,7 +16905,7 @@
         <v>183</v>
       </c>
       <c r="B181" t="s" s="0">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C181" t="s" s="0">
         <v>98</v>
@@ -16919,13 +16919,13 @@
         <v>155</v>
       </c>
       <c r="B182" t="s" s="0">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="C182" t="s" s="0">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="D182" t="s" s="0">
-        <v>155</v>
+        <v>250</v>
       </c>
     </row>
     <row r="183">
@@ -16933,7 +16933,7 @@
         <v>155</v>
       </c>
       <c r="B183" t="s" s="0">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C183" t="s" s="0">
         <v>6</v>
@@ -16947,7 +16947,7 @@
         <v>155</v>
       </c>
       <c r="B184" t="s" s="0">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C184" t="s" s="0">
         <v>6</v>
@@ -16961,13 +16961,13 @@
         <v>155</v>
       </c>
       <c r="B185" t="s" s="0">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="C185" t="s" s="0">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="D185" t="s" s="0">
-        <v>250</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/data/backend/order-client_structure.xlsx
+++ b/data/backend/order-client_structure.xlsx
@@ -15,12 +15,14 @@
     <sheet name="interfaceToInterfaceRelations" r:id="rId9" sheetId="7"/>
     <sheet name="fieldClassRelations" r:id="rId10" sheetId="8"/>
     <sheet name="fieldInterfaceRelations" r:id="rId11" sheetId="9"/>
+    <sheet name="classNumberOfLines" r:id="rId12" sheetId="10"/>
+    <sheet name="methodNumberOfLines" r:id="rId13" sheetId="11"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5455" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6362" uniqueCount="353">
   <si>
     <t>Class Name</t>
   </si>
@@ -793,88 +795,91 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>serialVersionUID</t>
+  </si>
+  <si>
     <t>$assertionsDisabled</t>
   </si>
   <si>
-    <t>serialVersionUID</t>
-  </si>
-  <si>
     <t>rsqlQuery</t>
   </si>
   <si>
+    <t>pageSize</t>
+  </si>
+  <si>
     <t>sortingOrder</t>
   </si>
   <si>
-    <t>pageSize</t>
-  </si>
-  <si>
     <t>pageNumber</t>
   </si>
   <si>
+    <t>deliveryLocation</t>
+  </si>
+  <si>
     <t>status</t>
   </si>
   <si>
+    <t>deliveryMethod</t>
+  </si>
+  <si>
+    <t>paymentCost</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
     <t>deliveryCost</t>
   </si>
   <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>paymentCost</t>
+    <t>client</t>
+  </si>
+  <si>
+    <t>orderEntriesIds</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>totalCost</t>
+  </si>
+  <si>
+    <t>creationTimestamp</t>
   </si>
   <si>
     <t>paymentMethod</t>
   </si>
   <si>
-    <t>totalCost</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>deliveryLocation</t>
-  </si>
-  <si>
-    <t>orderEntriesIds</t>
-  </si>
-  <si>
-    <t>creationTimestamp</t>
-  </si>
-  <si>
-    <t>client</t>
-  </si>
-  <si>
-    <t>deliveryMethod</t>
-  </si>
-  <si>
     <t>emailAddress</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>phoneNumber</t>
+  </si>
+  <si>
     <t>surname</t>
   </si>
   <si>
-    <t>phoneNumber</t>
-  </si>
-  <si>
     <t>orderIds</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>operationType</t>
   </si>
   <si>
     <t>orderEntries</t>
   </si>
   <si>
+    <t>OLDEST_FIRST</t>
+  </si>
+  <si>
+    <t>$VALUES</t>
+  </si>
+  <si>
     <t>NEWEST_FIRST</t>
   </si>
   <si>
-    <t>OLDEST_FIRST</t>
-  </si>
-  <si>
-    <t>$VALUES</t>
+    <t>CANCELED</t>
   </si>
   <si>
     <t>COMPLETED</t>
@@ -883,58 +888,58 @@
     <t>NEW</t>
   </si>
   <si>
-    <t>CANCELED</t>
-  </si>
-  <si>
     <t>COURIER</t>
   </si>
   <si>
     <t>PICKUP_POINT</t>
   </si>
   <si>
+    <t>order</t>
+  </si>
+  <si>
     <t>quantity</t>
   </si>
   <si>
-    <t>order</t>
-  </si>
-  <si>
     <t>productVariant</t>
   </si>
   <si>
+    <t>street</t>
+  </si>
+  <si>
     <t>deliveryOrdersIds</t>
   </si>
   <si>
-    <t>street</t>
+    <t>streetNumber</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>city</t>
   </si>
   <si>
     <t>flatNumber</t>
   </si>
   <si>
-    <t>streetNumber</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
     <t>postCode</t>
   </si>
   <si>
+    <t>deliveryLocationId</t>
+  </si>
+  <si>
     <t>clientId</t>
   </si>
   <si>
-    <t>deliveryLocationId</t>
-  </si>
-  <si>
     <t>locationId</t>
   </si>
   <si>
+    <t>orderedQuantityChange</t>
+  </si>
+  <si>
     <t>variantId</t>
   </si>
   <si>
-    <t>orderedQuantityChange</t>
+    <t>identifier</t>
   </si>
   <si>
     <t>orderId</t>
@@ -943,15 +948,12 @@
     <t>productVariantId</t>
   </si>
   <si>
-    <t>identifier</t>
+    <t>ALPHABETICAL_POSTCODE</t>
   </si>
   <si>
     <t>ALPHABETICAL_STREET</t>
   </si>
   <si>
-    <t>ALPHABETICAL_POSTCODE</t>
-  </si>
-  <si>
     <t>orders</t>
   </si>
   <si>
@@ -1004,6 +1006,81 @@
   </si>
   <si>
     <t>Target Field Name</t>
+  </si>
+  <si>
+    <t>Number of Lines</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>294</t>
+  </si>
+  <si>
+    <t>322</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>357</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>28</t>
   </si>
 </sst>
 </file>
@@ -14345,6 +14422,3387 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>336</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C273"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C61" t="s" s="0">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C62" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C63" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="C64" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="C65" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="C66" t="s" s="0">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="C67" t="s" s="0">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C68" t="s" s="0">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C69" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C70" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="C71" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="C72" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="C73" t="s" s="0">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="C74" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="C75" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="C76" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="C77" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B78" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C78" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B79" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C79" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="B80" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C80" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="B81" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C81" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="B82" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="C82" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="B83" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="C83" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="B84" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="C84" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="B85" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="C85" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="B86" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C86" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="B87" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="C87" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="B88" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="C88" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="B89" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="C89" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="B90" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="C90" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="B91" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="C91" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="B92" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="C92" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="B93" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="C93" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="B94" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="C94" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="B95" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="C95" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="B96" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="C96" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="B97" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="C97" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="B98" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="C98" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="B99" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C99" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="B100" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C100" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="B101" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C101" t="s" s="0">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="B102" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C102" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B103" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C103" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B104" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C104" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B105" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="C105" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B106" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="C106" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B107" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="C107" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B108" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="C108" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B109" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="C109" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B110" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="C110" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B111" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C111" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B112" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="C112" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B113" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="C113" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B114" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="C114" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B115" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="C115" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B116" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C116" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B117" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="C117" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B118" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="C118" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B119" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="C119" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B120" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="C120" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B121" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="C121" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B122" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C122" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B123" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="C123" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B124" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C124" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B125" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C125" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B126" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C126" t="s" s="0">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B127" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C127" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="B128" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="C128" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="B129" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="C129" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="B130" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C130" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="B131" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C131" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B132" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="C132" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B133" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="C133" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B134" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="C134" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B135" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="C135" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B136" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="C136" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B137" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="C137" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B138" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C138" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B139" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C139" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="B140" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="C140" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="B141" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="C141" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="B142" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="C142" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="B143" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C143" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="B144" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="C144" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="B145" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="C145" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="B146" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="C146" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="B147" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C147" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="B148" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="C148" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="C149" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C150" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="B151" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C151" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="B152" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="C152" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="B153" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="C153" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="B154" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="C154" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="B155" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="C155" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="B156" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C156" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="B157" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C157" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B158" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C158" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B159" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C159" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B160" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="C160" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B161" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="C161" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B162" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="C162" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B163" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="C163" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B164" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="C164" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B165" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="C165" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B166" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="C166" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B167" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C167" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B168" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C168" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B169" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C169" t="s" s="0">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B170" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C170" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="B171" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C171" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="B172" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="C172" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="B173" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="C173" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="B174" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="C174" t="s" s="0">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="B175" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C175" t="s" s="0">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="B176" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C176" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="B177" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C177" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="B178" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="C178" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="B179" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="C179" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="B180" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="C180" t="s" s="0">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B181" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="C181" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B182" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="C182" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B183" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C183" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B184" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C184" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="B185" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="C185" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="B186" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="C186" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="B187" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="C187" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="B188" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="C188" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="B189" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C189" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="B190" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C190" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B191" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C191" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B192" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C192" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B193" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="C193" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B194" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="C194" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B195" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="C195" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B196" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="C196" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B197" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="C197" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B198" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="C198" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B199" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="C199" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B200" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C200" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B201" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="C201" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B202" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="C202" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B203" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="C203" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B204" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="C204" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B205" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="C205" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B206" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="C206" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B207" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C207" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B208" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="C208" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B209" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="C209" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B210" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="C210" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B211" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="C211" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B212" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="C212" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B213" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C213" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B214" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="C214" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B215" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="C215" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B216" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C216" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B217" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C217" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B218" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C218" t="s" s="0">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B219" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C219" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B220" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C220" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B221" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="C221" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B222" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C222" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B223" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C223" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B224" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="C224" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B225" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C225" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B226" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C226" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B227" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C227" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B228" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="C228" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B229" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C229" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B230" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C230" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B231" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C231" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B232" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C232" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="B233" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C233" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="B234" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="C234" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="B235" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="C235" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="B236" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="C236" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="B237" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="C237" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="B238" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="C238" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="B239" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="C239" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="B240" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="C240" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="B241" t="s" s="0">
+        <v>237</v>
+      </c>
+      <c r="C241" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="B242" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="C242" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="B243" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="C243" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="B244" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="C244" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="B245" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C245" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="B246" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C246" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B247" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="C247" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B248" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="C248" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B249" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="C249" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B250" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="C250" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B251" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C251" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B252" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C252" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="B253" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="C253" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B254" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C254" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B255" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="C255" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B256" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="C256" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B257" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="C257" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B258" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="C258" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B259" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="C259" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B260" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C260" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B261" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="C261" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B262" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="C262" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B263" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C263" t="s" s="0">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B264" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C264" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B265" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C265" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B266" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C266" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B267" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="C267" t="s" s="0">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B268" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C268" t="s" s="0">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B269" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C269" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B270" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C270" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B271" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="C271" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B272" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C272" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B273" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="C273" t="s" s="0">
+        <v>320</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D1"/>
@@ -14405,7 +17863,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>7</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3">
@@ -14413,7 +17871,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>25</v>
@@ -14433,7 +17891,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>193</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -14461,7 +17919,7 @@
         <v>98</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7">
@@ -14475,7 +17933,7 @@
         <v>98</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8">
@@ -14503,7 +17961,7 @@
         <v>98</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>115</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
@@ -14517,7 +17975,7 @@
         <v>98</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>222</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11">
@@ -14531,7 +17989,7 @@
         <v>98</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12">
@@ -14559,7 +18017,7 @@
         <v>98</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>155</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
@@ -14573,7 +18031,7 @@
         <v>98</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15">
@@ -14587,7 +18045,7 @@
         <v>98</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>193</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16">
@@ -14601,7 +18059,7 @@
         <v>98</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>126</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17">
@@ -14615,7 +18073,7 @@
         <v>98</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>78</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18">
@@ -14629,7 +18087,7 @@
         <v>98</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19">
@@ -14643,7 +18101,7 @@
         <v>98</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>72</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20">
@@ -14657,7 +18115,7 @@
         <v>98</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>118</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21">
@@ -14671,7 +18129,7 @@
         <v>25</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>7</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22">
@@ -14679,7 +18137,7 @@
         <v>70</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>25</v>
@@ -14699,7 +18157,7 @@
         <v>25</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>193</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -14713,7 +18171,7 @@
         <v>25</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>7</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25">
@@ -14721,7 +18179,7 @@
         <v>71</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>25</v>
@@ -14741,7 +18199,7 @@
         <v>25</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>193</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -14749,13 +18207,13 @@
         <v>72</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>13</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28">
@@ -14763,7 +18221,7 @@
         <v>72</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>98</v>
@@ -14777,7 +18235,7 @@
         <v>72</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>98</v>
@@ -14791,13 +18249,13 @@
         <v>72</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>75</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31">
@@ -14811,7 +18269,7 @@
         <v>98</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32">
@@ -14825,7 +18283,7 @@
         <v>98</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33">
@@ -14867,7 +18325,7 @@
         <v>25</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>7</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36">
@@ -14875,7 +18333,7 @@
         <v>92</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>25</v>
@@ -14895,7 +18353,7 @@
         <v>25</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>193</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
@@ -14920,10 +18378,10 @@
         <v>283</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>46</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40">
@@ -14934,10 +18392,10 @@
         <v>284</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>101</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41">
@@ -14945,13 +18403,13 @@
         <v>90</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42">
@@ -14959,13 +18417,13 @@
         <v>90</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43">
@@ -14979,7 +18437,7 @@
         <v>25</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>7</v>
+        <v>193</v>
       </c>
     </row>
     <row r="44">
@@ -14987,7 +18445,7 @@
         <v>114</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>25</v>
@@ -15007,7 +18465,7 @@
         <v>25</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>193</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
@@ -15015,13 +18473,13 @@
         <v>115</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47">
@@ -15029,7 +18487,7 @@
         <v>115</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>6</v>
@@ -15043,13 +18501,13 @@
         <v>115</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49">
@@ -15071,13 +18529,13 @@
         <v>118</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51">
@@ -15085,7 +18543,7 @@
         <v>118</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>6</v>
@@ -15099,13 +18557,13 @@
         <v>118</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53">
@@ -15119,7 +18577,7 @@
         <v>25</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>7</v>
+        <v>193</v>
       </c>
     </row>
     <row r="54">
@@ -15127,7 +18585,7 @@
         <v>121</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>25</v>
@@ -15147,7 +18605,7 @@
         <v>25</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>193</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56">
@@ -15155,13 +18613,13 @@
         <v>122</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>21</v>
+        <v>193</v>
       </c>
     </row>
     <row r="57">
@@ -15169,13 +18627,13 @@
         <v>122</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>193</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58">
@@ -15189,7 +18647,7 @@
         <v>98</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59">
@@ -15217,7 +18675,7 @@
         <v>98</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61">
@@ -15225,13 +18683,13 @@
         <v>126</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62">
@@ -15239,13 +18697,13 @@
         <v>126</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63">
@@ -15253,7 +18711,7 @@
         <v>126</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>98</v>
@@ -15267,13 +18725,13 @@
         <v>126</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>75</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65">
@@ -15281,13 +18739,13 @@
         <v>126</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66">
@@ -15295,13 +18753,13 @@
         <v>126</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>13</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67">
@@ -15315,7 +18773,7 @@
         <v>98</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>13</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68">
@@ -15337,13 +18795,13 @@
         <v>142</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>78</v>
+        <v>118</v>
       </c>
     </row>
     <row r="70">
@@ -15351,13 +18809,13 @@
         <v>142</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71">
@@ -15365,13 +18823,13 @@
         <v>142</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="72">
@@ -15379,13 +18837,13 @@
         <v>142</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>75</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73">
@@ -15393,13 +18851,13 @@
         <v>142</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D73" t="s" s="0">
-        <v>115</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74">
@@ -15407,13 +18865,13 @@
         <v>142</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>118</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75">
@@ -15421,13 +18879,13 @@
         <v>142</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>75</v>
+        <v>151</v>
       </c>
     </row>
     <row r="76">
@@ -15435,13 +18893,13 @@
         <v>142</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="C76" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>151</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77">
@@ -15463,13 +18921,13 @@
         <v>142</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C78" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D78" t="s" s="0">
-        <v>155</v>
+        <v>115</v>
       </c>
     </row>
     <row r="79">
@@ -15483,7 +18941,7 @@
         <v>98</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>75</v>
+        <v>43</v>
       </c>
     </row>
     <row r="80">
@@ -15497,7 +18955,7 @@
         <v>98</v>
       </c>
       <c r="D80" t="s" s="0">
-        <v>43</v>
+        <v>75</v>
       </c>
     </row>
     <row r="81">
@@ -15505,7 +18963,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C81" t="s" s="0">
         <v>98</v>
@@ -15519,7 +18977,7 @@
         <v>79</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C82" t="s" s="0">
         <v>98</v>
@@ -15553,7 +19011,7 @@
         <v>98</v>
       </c>
       <c r="D84" t="s" s="0">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85">
@@ -15561,13 +19019,13 @@
         <v>79</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D85" t="s" s="0">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="86">
@@ -15575,13 +19033,13 @@
         <v>79</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C86" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D86" t="s" s="0">
-        <v>13</v>
+        <v>75</v>
       </c>
     </row>
     <row r="87">
@@ -15595,7 +19053,7 @@
         <v>25</v>
       </c>
       <c r="D87" t="s" s="0">
-        <v>7</v>
+        <v>193</v>
       </c>
     </row>
     <row r="88">
@@ -15603,7 +19061,7 @@
         <v>174</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>25</v>
@@ -15623,7 +19081,7 @@
         <v>25</v>
       </c>
       <c r="D89" t="s" s="0">
-        <v>193</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90">
@@ -15631,13 +19089,13 @@
         <v>148</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="C90" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D90" t="s" s="0">
-        <v>75</v>
+        <v>118</v>
       </c>
     </row>
     <row r="91">
@@ -15645,13 +19103,13 @@
         <v>148</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D91" t="s" s="0">
-        <v>118</v>
+        <v>75</v>
       </c>
     </row>
     <row r="92">
@@ -15659,13 +19117,13 @@
         <v>148</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D92" t="s" s="0">
-        <v>155</v>
+        <v>115</v>
       </c>
     </row>
     <row r="93">
@@ -15673,13 +19131,13 @@
         <v>148</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>302</v>
+        <v>266</v>
       </c>
       <c r="C93" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D93" t="s" s="0">
-        <v>75</v>
+        <v>151</v>
       </c>
     </row>
     <row r="94">
@@ -15687,13 +19145,13 @@
         <v>148</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D94" t="s" s="0">
-        <v>151</v>
+        <v>75</v>
       </c>
     </row>
     <row r="95">
@@ -15701,13 +19159,13 @@
         <v>148</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D95" t="s" s="0">
-        <v>115</v>
+        <v>155</v>
       </c>
     </row>
     <row r="96">
@@ -15715,7 +19173,7 @@
         <v>148</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C96" t="s" s="0">
         <v>98</v>
@@ -15729,13 +19187,13 @@
         <v>148</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D97" t="s" s="0">
-        <v>75</v>
+        <v>151</v>
       </c>
     </row>
     <row r="98">
@@ -15743,7 +19201,7 @@
         <v>148</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>98</v>
@@ -15757,13 +19215,13 @@
         <v>148</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C99" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D99" t="s" s="0">
-        <v>151</v>
+        <v>75</v>
       </c>
     </row>
     <row r="100">
@@ -15777,7 +19235,7 @@
         <v>25</v>
       </c>
       <c r="D100" t="s" s="0">
-        <v>7</v>
+        <v>193</v>
       </c>
     </row>
     <row r="101">
@@ -15785,7 +19243,7 @@
         <v>179</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C101" t="s" s="0">
         <v>25</v>
@@ -15805,7 +19263,7 @@
         <v>25</v>
       </c>
       <c r="D102" t="s" s="0">
-        <v>193</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103">
@@ -15819,7 +19277,7 @@
         <v>25</v>
       </c>
       <c r="D103" t="s" s="0">
-        <v>7</v>
+        <v>193</v>
       </c>
     </row>
     <row r="104">
@@ -15827,7 +19285,7 @@
         <v>180</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C104" t="s" s="0">
         <v>25</v>
@@ -15847,7 +19305,7 @@
         <v>25</v>
       </c>
       <c r="D105" t="s" s="0">
-        <v>193</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106">
@@ -15855,13 +19313,13 @@
         <v>181</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="C106" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D106" t="s" s="0">
-        <v>43</v>
+        <v>75</v>
       </c>
     </row>
     <row r="107">
@@ -15869,7 +19327,7 @@
         <v>181</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C107" t="s" s="0">
         <v>98</v>
@@ -15883,13 +19341,13 @@
         <v>181</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="C108" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D108" t="s" s="0">
-        <v>75</v>
+        <v>43</v>
       </c>
     </row>
     <row r="109">
@@ -15911,13 +19369,13 @@
         <v>111</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C110" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D110" t="s" s="0">
-        <v>189</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111">
@@ -15925,13 +19383,13 @@
         <v>111</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C111" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D111" t="s" s="0">
-        <v>61</v>
+        <v>189</v>
       </c>
     </row>
     <row r="112">
@@ -15939,13 +19397,13 @@
         <v>111</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="C112" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D112" t="s" s="0">
-        <v>21</v>
+        <v>193</v>
       </c>
     </row>
     <row r="113">
@@ -15953,13 +19411,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="C113" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D113" t="s" s="0">
-        <v>193</v>
+        <v>61</v>
       </c>
     </row>
     <row r="114">
@@ -15973,7 +19431,7 @@
         <v>98</v>
       </c>
       <c r="D114" t="s" s="0">
-        <v>43</v>
+        <v>75</v>
       </c>
     </row>
     <row r="115">
@@ -15987,7 +19445,7 @@
         <v>98</v>
       </c>
       <c r="D115" t="s" s="0">
-        <v>75</v>
+        <v>43</v>
       </c>
     </row>
     <row r="116">
@@ -16001,7 +19459,7 @@
         <v>25</v>
       </c>
       <c r="D116" t="s" s="0">
-        <v>7</v>
+        <v>193</v>
       </c>
     </row>
     <row r="117">
@@ -16009,7 +19467,7 @@
         <v>198</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C117" t="s" s="0">
         <v>25</v>
@@ -16029,7 +19487,7 @@
         <v>25</v>
       </c>
       <c r="D118" t="s" s="0">
-        <v>193</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119">
@@ -16037,13 +19495,13 @@
         <v>199</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="C119" t="s" s="0">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="D119" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="120">
@@ -16051,7 +19509,7 @@
         <v>199</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C120" t="s" s="0">
         <v>6</v>
@@ -16065,13 +19523,13 @@
         <v>199</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>284</v>
+        <v>309</v>
       </c>
       <c r="C121" t="s" s="0">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="D121" t="s" s="0">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="122">
@@ -16113,7 +19571,7 @@
         <v>98</v>
       </c>
       <c r="D124" t="s" s="0">
-        <v>199</v>
+        <v>43</v>
       </c>
     </row>
     <row r="125">
@@ -16127,7 +19585,7 @@
         <v>98</v>
       </c>
       <c r="D125" t="s" s="0">
-        <v>43</v>
+        <v>199</v>
       </c>
     </row>
     <row r="126">
@@ -16135,13 +19593,13 @@
         <v>205</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C126" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D126" t="s" s="0">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="127">
@@ -16149,13 +19607,13 @@
         <v>205</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C127" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D127" t="s" s="0">
-        <v>13</v>
+        <v>43</v>
       </c>
     </row>
     <row r="128">
@@ -16169,7 +19627,7 @@
         <v>25</v>
       </c>
       <c r="D128" t="s" s="0">
-        <v>7</v>
+        <v>193</v>
       </c>
     </row>
     <row r="129">
@@ -16177,7 +19635,7 @@
         <v>211</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C129" t="s" s="0">
         <v>25</v>
@@ -16197,7 +19655,7 @@
         <v>25</v>
       </c>
       <c r="D130" t="s" s="0">
-        <v>193</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131">
@@ -16211,7 +19669,7 @@
         <v>25</v>
       </c>
       <c r="D131" t="s" s="0">
-        <v>7</v>
+        <v>193</v>
       </c>
     </row>
     <row r="132">
@@ -16219,7 +19677,7 @@
         <v>212</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C132" t="s" s="0">
         <v>25</v>
@@ -16239,7 +19697,7 @@
         <v>25</v>
       </c>
       <c r="D133" t="s" s="0">
-        <v>193</v>
+        <v>7</v>
       </c>
     </row>
     <row r="134">
@@ -16253,7 +19711,7 @@
         <v>25</v>
       </c>
       <c r="D134" t="s" s="0">
-        <v>7</v>
+        <v>193</v>
       </c>
     </row>
     <row r="135">
@@ -16261,7 +19719,7 @@
         <v>213</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C135" t="s" s="0">
         <v>25</v>
@@ -16281,7 +19739,7 @@
         <v>25</v>
       </c>
       <c r="D136" t="s" s="0">
-        <v>193</v>
+        <v>7</v>
       </c>
     </row>
     <row r="137">
@@ -16289,13 +19747,13 @@
         <v>61</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C137" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D137" t="s" s="0">
-        <v>155</v>
+        <v>78</v>
       </c>
     </row>
     <row r="138">
@@ -16303,13 +19761,13 @@
         <v>61</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C138" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D138" t="s" s="0">
-        <v>78</v>
+        <v>224</v>
       </c>
     </row>
     <row r="139">
@@ -16317,13 +19775,13 @@
         <v>61</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C139" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D139" t="s" s="0">
-        <v>193</v>
+        <v>222</v>
       </c>
     </row>
     <row r="140">
@@ -16331,7 +19789,7 @@
         <v>61</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C140" t="s" s="0">
         <v>98</v>
@@ -16345,13 +19803,13 @@
         <v>61</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="C141" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D141" t="s" s="0">
-        <v>126</v>
+        <v>219</v>
       </c>
     </row>
     <row r="142">
@@ -16359,13 +19817,13 @@
         <v>61</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C142" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D142" t="s" s="0">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="143">
@@ -16373,7 +19831,7 @@
         <v>61</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C143" t="s" s="0">
         <v>98</v>
@@ -16387,13 +19845,13 @@
         <v>61</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="C144" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D144" t="s" s="0">
-        <v>224</v>
+        <v>126</v>
       </c>
     </row>
     <row r="145">
@@ -16407,7 +19865,7 @@
         <v>98</v>
       </c>
       <c r="D145" t="s" s="0">
-        <v>118</v>
+        <v>155</v>
       </c>
     </row>
     <row r="146">
@@ -16415,13 +19873,13 @@
         <v>61</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C146" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D146" t="s" s="0">
-        <v>219</v>
+        <v>193</v>
       </c>
     </row>
     <row r="147">
@@ -16429,13 +19887,13 @@
         <v>61</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C147" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D147" t="s" s="0">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="148">
@@ -16443,13 +19901,13 @@
         <v>61</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C148" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D148" t="s" s="0">
-        <v>222</v>
+        <v>151</v>
       </c>
     </row>
     <row r="149">
@@ -16477,7 +19935,7 @@
         <v>98</v>
       </c>
       <c r="D150" t="s" s="0">
-        <v>43</v>
+        <v>199</v>
       </c>
     </row>
     <row r="151">
@@ -16485,13 +19943,13 @@
         <v>208</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C151" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D151" t="s" s="0">
-        <v>199</v>
+        <v>13</v>
       </c>
     </row>
     <row r="152">
@@ -16499,13 +19957,13 @@
         <v>208</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C152" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D152" t="s" s="0">
-        <v>13</v>
+        <v>43</v>
       </c>
     </row>
     <row r="153">
@@ -16513,13 +19971,13 @@
         <v>203</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="C153" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D153" t="s" s="0">
-        <v>61</v>
+        <v>113</v>
       </c>
     </row>
     <row r="154">
@@ -16527,13 +19985,13 @@
         <v>203</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="C154" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D154" t="s" s="0">
-        <v>113</v>
+        <v>61</v>
       </c>
     </row>
     <row r="155">
@@ -16547,7 +20005,7 @@
         <v>25</v>
       </c>
       <c r="D155" t="s" s="0">
-        <v>7</v>
+        <v>193</v>
       </c>
     </row>
     <row r="156">
@@ -16555,7 +20013,7 @@
         <v>230</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C156" t="s" s="0">
         <v>25</v>
@@ -16575,7 +20033,7 @@
         <v>25</v>
       </c>
       <c r="D157" t="s" s="0">
-        <v>193</v>
+        <v>7</v>
       </c>
     </row>
     <row r="158">
@@ -16589,7 +20047,7 @@
         <v>25</v>
       </c>
       <c r="D158" t="s" s="0">
-        <v>7</v>
+        <v>193</v>
       </c>
     </row>
     <row r="159">
@@ -16597,7 +20055,7 @@
         <v>231</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C159" t="s" s="0">
         <v>25</v>
@@ -16617,7 +20075,7 @@
         <v>25</v>
       </c>
       <c r="D160" t="s" s="0">
-        <v>193</v>
+        <v>7</v>
       </c>
     </row>
     <row r="161">
@@ -16625,7 +20083,7 @@
         <v>131</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C161" t="s" s="0">
         <v>98</v>
@@ -16639,7 +20097,7 @@
         <v>131</v>
       </c>
       <c r="B162" t="s" s="0">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C162" t="s" s="0">
         <v>98</v>
@@ -16653,13 +20111,13 @@
         <v>131</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C163" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D163" t="s" s="0">
-        <v>13</v>
+        <v>75</v>
       </c>
     </row>
     <row r="164">
@@ -16667,13 +20125,13 @@
         <v>131</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="C164" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D164" t="s" s="0">
-        <v>75</v>
+        <v>13</v>
       </c>
     </row>
     <row r="165">
@@ -16681,13 +20139,13 @@
         <v>131</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="C165" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D165" t="s" s="0">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="166">
@@ -16701,7 +20159,7 @@
         <v>98</v>
       </c>
       <c r="D166" t="s" s="0">
-        <v>75</v>
+        <v>13</v>
       </c>
     </row>
     <row r="167">
@@ -16709,7 +20167,7 @@
         <v>131</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C167" t="s" s="0">
         <v>98</v>
@@ -16723,13 +20181,13 @@
         <v>131</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="C168" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D168" t="s" s="0">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="169">
@@ -16737,7 +20195,7 @@
         <v>131</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="C169" t="s" s="0">
         <v>98</v>
@@ -16751,13 +20209,13 @@
         <v>52</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C170" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D170" t="s" s="0">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="171">
@@ -16765,7 +20223,7 @@
         <v>52</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C171" t="s" s="0">
         <v>98</v>
@@ -16779,13 +20237,13 @@
         <v>52</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C172" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D172" t="s" s="0">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="173">
@@ -16793,13 +20251,13 @@
         <v>52</v>
       </c>
       <c r="B173" t="s" s="0">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C173" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D173" t="s" s="0">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="174">
@@ -16807,13 +20265,13 @@
         <v>240</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>311</v>
+        <v>257</v>
       </c>
       <c r="C174" t="s" s="0">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="D174" t="s" s="0">
-        <v>78</v>
+        <v>193</v>
       </c>
     </row>
     <row r="175">
@@ -16827,7 +20285,7 @@
         <v>25</v>
       </c>
       <c r="D175" t="s" s="0">
-        <v>7</v>
+        <v>193</v>
       </c>
     </row>
     <row r="176">
@@ -16835,13 +20293,13 @@
         <v>240</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>258</v>
+        <v>311</v>
       </c>
       <c r="C176" t="s" s="0">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="D176" t="s" s="0">
-        <v>193</v>
+        <v>78</v>
       </c>
     </row>
     <row r="177">
@@ -16855,7 +20313,7 @@
         <v>25</v>
       </c>
       <c r="D177" t="s" s="0">
-        <v>193</v>
+        <v>7</v>
       </c>
     </row>
     <row r="178">
@@ -16863,7 +20321,7 @@
         <v>183</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C178" t="s" s="0">
         <v>98</v>
@@ -16891,7 +20349,7 @@
         <v>183</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C180" t="s" s="0">
         <v>98</v>
@@ -16905,7 +20363,7 @@
         <v>183</v>
       </c>
       <c r="B181" t="s" s="0">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C181" t="s" s="0">
         <v>98</v>
@@ -16919,13 +20377,13 @@
         <v>155</v>
       </c>
       <c r="B182" t="s" s="0">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="C182" t="s" s="0">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="D182" t="s" s="0">
-        <v>250</v>
+        <v>155</v>
       </c>
     </row>
     <row r="183">
@@ -16933,13 +20391,13 @@
         <v>155</v>
       </c>
       <c r="B183" t="s" s="0">
-        <v>312</v>
+        <v>283</v>
       </c>
       <c r="C183" t="s" s="0">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="D183" t="s" s="0">
-        <v>155</v>
+        <v>250</v>
       </c>
     </row>
     <row r="184">

--- a/data/backend/order-client_structure.xlsx
+++ b/data/backend/order-client_structure.xlsx
@@ -795,88 +795,91 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>$assertionsDisabled</t>
+  </si>
+  <si>
     <t>serialVersionUID</t>
   </si>
   <si>
-    <t>$assertionsDisabled</t>
-  </si>
-  <si>
     <t>rsqlQuery</t>
   </si>
   <si>
+    <t>pageNumber</t>
+  </si>
+  <si>
+    <t>sortingOrder</t>
+  </si>
+  <si>
     <t>pageSize</t>
   </si>
   <si>
-    <t>sortingOrder</t>
-  </si>
-  <si>
-    <t>pageNumber</t>
+    <t>id</t>
+  </si>
+  <si>
+    <t>deliveryCost</t>
+  </si>
+  <si>
+    <t>paymentCost</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>deliveryMethod</t>
   </si>
   <si>
     <t>deliveryLocation</t>
   </si>
   <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>deliveryMethod</t>
-  </si>
-  <si>
-    <t>paymentCost</t>
+    <t>client</t>
   </si>
   <si>
     <t>location</t>
   </si>
   <si>
-    <t>deliveryCost</t>
-  </si>
-  <si>
-    <t>client</t>
+    <t>totalCost</t>
+  </si>
+  <si>
+    <t>paymentMethod</t>
   </si>
   <si>
     <t>orderEntriesIds</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>totalCost</t>
-  </si>
-  <si>
     <t>creationTimestamp</t>
   </si>
   <si>
-    <t>paymentMethod</t>
-  </si>
-  <si>
     <t>emailAddress</t>
   </si>
   <si>
+    <t>phoneNumber</t>
+  </si>
+  <si>
+    <t>orderIds</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
-    <t>phoneNumber</t>
-  </si>
-  <si>
     <t>surname</t>
   </si>
   <si>
-    <t>orderIds</t>
-  </si>
-  <si>
     <t>operationType</t>
   </si>
   <si>
     <t>orderEntries</t>
   </si>
   <si>
+    <t>$VALUES</t>
+  </si>
+  <si>
+    <t>NEWEST_FIRST</t>
+  </si>
+  <si>
     <t>OLDEST_FIRST</t>
   </si>
   <si>
-    <t>$VALUES</t>
-  </si>
-  <si>
-    <t>NEWEST_FIRST</t>
+    <t>NEW</t>
   </si>
   <si>
     <t>CANCELED</t>
@@ -885,43 +888,43 @@
     <t>COMPLETED</t>
   </si>
   <si>
-    <t>NEW</t>
-  </si>
-  <si>
     <t>COURIER</t>
   </si>
   <si>
     <t>PICKUP_POINT</t>
   </si>
   <si>
+    <t>productVariant</t>
+  </si>
+  <si>
     <t>order</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
-    <t>productVariant</t>
+    <t>flatNumber</t>
   </si>
   <si>
     <t>street</t>
   </si>
   <si>
+    <t>postCode</t>
+  </si>
+  <si>
+    <t>streetNumber</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
     <t>deliveryOrdersIds</t>
   </si>
   <si>
-    <t>streetNumber</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>flatNumber</t>
-  </si>
-  <si>
-    <t>postCode</t>
+    <t>locationId</t>
   </si>
   <si>
     <t>deliveryLocationId</t>
@@ -930,24 +933,21 @@
     <t>clientId</t>
   </si>
   <si>
-    <t>locationId</t>
-  </si>
-  <si>
     <t>orderedQuantityChange</t>
   </si>
   <si>
     <t>variantId</t>
   </si>
   <si>
+    <t>orderId</t>
+  </si>
+  <si>
+    <t>productVariantId</t>
+  </si>
+  <si>
     <t>identifier</t>
   </si>
   <si>
-    <t>orderId</t>
-  </si>
-  <si>
-    <t>productVariantId</t>
-  </si>
-  <si>
     <t>ALPHABETICAL_POSTCODE</t>
   </si>
   <si>
@@ -960,13 +960,13 @@
     <t>violationMessages</t>
   </si>
   <si>
+    <t>VISA</t>
+  </si>
+  <si>
     <t>GOOGLE_PAY</t>
   </si>
   <si>
     <t>PAY_U</t>
-  </si>
-  <si>
-    <t>VISA</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -17863,7 +17863,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>193</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -17871,7 +17871,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>25</v>
@@ -17891,7 +17891,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>7</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5">
@@ -17961,7 +17961,7 @@
         <v>98</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>126</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10">
@@ -17975,7 +17975,7 @@
         <v>98</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>115</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11">
@@ -17989,7 +17989,7 @@
         <v>98</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>118</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
@@ -18003,7 +18003,7 @@
         <v>98</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>151</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13">
@@ -18017,7 +18017,7 @@
         <v>98</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14">
@@ -18031,7 +18031,7 @@
         <v>98</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>222</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15">
@@ -18059,7 +18059,7 @@
         <v>98</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>78</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17">
@@ -18073,7 +18073,7 @@
         <v>98</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>193</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18">
@@ -18087,7 +18087,7 @@
         <v>98</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>219</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19">
@@ -18101,7 +18101,7 @@
         <v>98</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>224</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20">
@@ -18115,7 +18115,7 @@
         <v>98</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>155</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21">
@@ -18129,7 +18129,7 @@
         <v>25</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>193</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -18137,7 +18137,7 @@
         <v>70</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>25</v>
@@ -18157,7 +18157,7 @@
         <v>25</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>7</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24">
@@ -18171,7 +18171,7 @@
         <v>25</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>193</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -18179,7 +18179,7 @@
         <v>71</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>25</v>
@@ -18199,7 +18199,7 @@
         <v>25</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>7</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27">
@@ -18207,13 +18207,13 @@
         <v>72</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>75</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
@@ -18221,7 +18221,7 @@
         <v>72</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>98</v>
@@ -18235,13 +18235,13 @@
         <v>72</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30">
@@ -18249,13 +18249,13 @@
         <v>72</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>13</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31">
@@ -18283,7 +18283,7 @@
         <v>98</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33">
@@ -18325,7 +18325,7 @@
         <v>25</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>193</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
@@ -18333,7 +18333,7 @@
         <v>92</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>25</v>
@@ -18353,7 +18353,7 @@
         <v>25</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>7</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38">
@@ -18364,10 +18364,10 @@
         <v>282</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>46</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39">
@@ -18378,10 +18378,10 @@
         <v>283</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>101</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40">
@@ -18437,7 +18437,7 @@
         <v>25</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>193</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
@@ -18445,7 +18445,7 @@
         <v>114</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>25</v>
@@ -18465,7 +18465,7 @@
         <v>25</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>7</v>
+        <v>193</v>
       </c>
     </row>
     <row r="46">
@@ -18473,7 +18473,7 @@
         <v>115</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>98</v>
@@ -18557,7 +18557,7 @@
         <v>118</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>98</v>
@@ -18577,7 +18577,7 @@
         <v>25</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>193</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
@@ -18585,7 +18585,7 @@
         <v>121</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>25</v>
@@ -18605,7 +18605,7 @@
         <v>25</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>7</v>
+        <v>193</v>
       </c>
     </row>
     <row r="56">
@@ -18613,13 +18613,13 @@
         <v>122</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="57">
@@ -18627,13 +18627,13 @@
         <v>122</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>61</v>
+        <v>193</v>
       </c>
     </row>
     <row r="58">
@@ -18647,7 +18647,7 @@
         <v>98</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>21</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59">
@@ -18661,7 +18661,7 @@
         <v>98</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>189</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60">
@@ -18675,7 +18675,7 @@
         <v>98</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>13</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61">
@@ -18683,13 +18683,13 @@
         <v>126</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62">
@@ -18697,13 +18697,13 @@
         <v>126</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63">
@@ -18711,7 +18711,7 @@
         <v>126</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>98</v>
@@ -18725,7 +18725,7 @@
         <v>126</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>98</v>
@@ -18739,13 +18739,13 @@
         <v>126</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66">
@@ -18753,7 +18753,7 @@
         <v>126</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>98</v>
@@ -18773,7 +18773,7 @@
         <v>98</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>75</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68">
@@ -18787,7 +18787,7 @@
         <v>98</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69">
@@ -18795,13 +18795,13 @@
         <v>142</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>118</v>
+        <v>151</v>
       </c>
     </row>
     <row r="70">
@@ -18809,7 +18809,7 @@
         <v>142</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>98</v>
@@ -18823,13 +18823,13 @@
         <v>142</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>155</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72">
@@ -18837,13 +18837,13 @@
         <v>142</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>151</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73">
@@ -18851,13 +18851,13 @@
         <v>142</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D73" t="s" s="0">
-        <v>75</v>
+        <v>115</v>
       </c>
     </row>
     <row r="74">
@@ -18865,13 +18865,13 @@
         <v>142</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>75</v>
+        <v>155</v>
       </c>
     </row>
     <row r="75">
@@ -18879,13 +18879,13 @@
         <v>142</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>151</v>
+        <v>118</v>
       </c>
     </row>
     <row r="76">
@@ -18893,13 +18893,13 @@
         <v>142</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>301</v>
+        <v>265</v>
       </c>
       <c r="C76" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>75</v>
+        <v>151</v>
       </c>
     </row>
     <row r="77">
@@ -18907,7 +18907,7 @@
         <v>142</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>302</v>
+        <v>263</v>
       </c>
       <c r="C77" t="s" s="0">
         <v>98</v>
@@ -18921,13 +18921,13 @@
         <v>142</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="C78" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D78" t="s" s="0">
-        <v>115</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79">
@@ -18963,7 +18963,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C81" t="s" s="0">
         <v>98</v>
@@ -18977,7 +18977,7 @@
         <v>79</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C82" t="s" s="0">
         <v>98</v>
@@ -18991,13 +18991,13 @@
         <v>79</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D83" t="s" s="0">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="84">
@@ -19005,7 +19005,7 @@
         <v>79</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>98</v>
@@ -19019,13 +19019,13 @@
         <v>79</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D85" t="s" s="0">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86">
@@ -19033,7 +19033,7 @@
         <v>79</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C86" t="s" s="0">
         <v>98</v>
@@ -19053,7 +19053,7 @@
         <v>25</v>
       </c>
       <c r="D87" t="s" s="0">
-        <v>193</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88">
@@ -19061,7 +19061,7 @@
         <v>174</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>25</v>
@@ -19081,7 +19081,7 @@
         <v>25</v>
       </c>
       <c r="D89" t="s" s="0">
-        <v>7</v>
+        <v>193</v>
       </c>
     </row>
     <row r="90">
@@ -19095,7 +19095,7 @@
         <v>98</v>
       </c>
       <c r="D90" t="s" s="0">
-        <v>118</v>
+        <v>151</v>
       </c>
     </row>
     <row r="91">
@@ -19103,13 +19103,13 @@
         <v>148</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D91" t="s" s="0">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="92">
@@ -19117,13 +19117,13 @@
         <v>148</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D92" t="s" s="0">
-        <v>115</v>
+        <v>75</v>
       </c>
     </row>
     <row r="93">
@@ -19131,13 +19131,13 @@
         <v>148</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="C93" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D93" t="s" s="0">
-        <v>151</v>
+        <v>75</v>
       </c>
     </row>
     <row r="94">
@@ -19145,7 +19145,7 @@
         <v>148</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>301</v>
+        <v>263</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>98</v>
@@ -19159,13 +19159,13 @@
         <v>148</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D95" t="s" s="0">
-        <v>155</v>
+        <v>75</v>
       </c>
     </row>
     <row r="96">
@@ -19173,13 +19173,13 @@
         <v>148</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C96" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D96" t="s" s="0">
-        <v>78</v>
+        <v>155</v>
       </c>
     </row>
     <row r="97">
@@ -19187,13 +19187,13 @@
         <v>148</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D97" t="s" s="0">
-        <v>151</v>
+        <v>118</v>
       </c>
     </row>
     <row r="98">
@@ -19201,13 +19201,13 @@
         <v>148</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>302</v>
+        <v>264</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D98" t="s" s="0">
-        <v>75</v>
+        <v>151</v>
       </c>
     </row>
     <row r="99">
@@ -19215,13 +19215,13 @@
         <v>148</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C99" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D99" t="s" s="0">
-        <v>75</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100">
@@ -19235,7 +19235,7 @@
         <v>25</v>
       </c>
       <c r="D100" t="s" s="0">
-        <v>193</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101">
@@ -19243,7 +19243,7 @@
         <v>179</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C101" t="s" s="0">
         <v>25</v>
@@ -19263,7 +19263,7 @@
         <v>25</v>
       </c>
       <c r="D102" t="s" s="0">
-        <v>7</v>
+        <v>193</v>
       </c>
     </row>
     <row r="103">
@@ -19277,7 +19277,7 @@
         <v>25</v>
       </c>
       <c r="D103" t="s" s="0">
-        <v>193</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104">
@@ -19285,7 +19285,7 @@
         <v>180</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C104" t="s" s="0">
         <v>25</v>
@@ -19305,7 +19305,7 @@
         <v>25</v>
       </c>
       <c r="D105" t="s" s="0">
-        <v>7</v>
+        <v>193</v>
       </c>
     </row>
     <row r="106">
@@ -19313,13 +19313,13 @@
         <v>181</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="C106" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D106" t="s" s="0">
-        <v>75</v>
+        <v>43</v>
       </c>
     </row>
     <row r="107">
@@ -19327,7 +19327,7 @@
         <v>181</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C107" t="s" s="0">
         <v>98</v>
@@ -19341,13 +19341,13 @@
         <v>181</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="C108" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D108" t="s" s="0">
-        <v>43</v>
+        <v>75</v>
       </c>
     </row>
     <row r="109">
@@ -19369,7 +19369,7 @@
         <v>111</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C110" t="s" s="0">
         <v>98</v>
@@ -19383,7 +19383,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C111" t="s" s="0">
         <v>98</v>
@@ -19397,7 +19397,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C112" t="s" s="0">
         <v>98</v>
@@ -19411,7 +19411,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C113" t="s" s="0">
         <v>98</v>
@@ -19459,7 +19459,7 @@
         <v>25</v>
       </c>
       <c r="D116" t="s" s="0">
-        <v>193</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117">
@@ -19467,7 +19467,7 @@
         <v>198</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C117" t="s" s="0">
         <v>25</v>
@@ -19487,7 +19487,7 @@
         <v>25</v>
       </c>
       <c r="D118" t="s" s="0">
-        <v>7</v>
+        <v>193</v>
       </c>
     </row>
     <row r="119">
@@ -19495,13 +19495,13 @@
         <v>199</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="C119" t="s" s="0">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="D119" t="s" s="0">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="120">
@@ -19509,7 +19509,7 @@
         <v>199</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C120" t="s" s="0">
         <v>6</v>
@@ -19523,13 +19523,13 @@
         <v>199</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>309</v>
+        <v>282</v>
       </c>
       <c r="C121" t="s" s="0">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="D121" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="122">
@@ -19537,13 +19537,13 @@
         <v>202</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="C122" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D122" t="s" s="0">
-        <v>113</v>
+        <v>61</v>
       </c>
     </row>
     <row r="123">
@@ -19551,13 +19551,13 @@
         <v>202</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="C123" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D123" t="s" s="0">
-        <v>61</v>
+        <v>113</v>
       </c>
     </row>
     <row r="124">
@@ -19565,7 +19565,7 @@
         <v>205</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C124" t="s" s="0">
         <v>98</v>
@@ -19579,13 +19579,13 @@
         <v>205</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C125" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D125" t="s" s="0">
-        <v>199</v>
+        <v>13</v>
       </c>
     </row>
     <row r="126">
@@ -19593,13 +19593,13 @@
         <v>205</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C126" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D126" t="s" s="0">
-        <v>13</v>
+        <v>199</v>
       </c>
     </row>
     <row r="127">
@@ -19607,7 +19607,7 @@
         <v>205</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C127" t="s" s="0">
         <v>98</v>
@@ -19627,7 +19627,7 @@
         <v>25</v>
       </c>
       <c r="D128" t="s" s="0">
-        <v>193</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129">
@@ -19635,7 +19635,7 @@
         <v>211</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C129" t="s" s="0">
         <v>25</v>
@@ -19655,7 +19655,7 @@
         <v>25</v>
       </c>
       <c r="D130" t="s" s="0">
-        <v>7</v>
+        <v>193</v>
       </c>
     </row>
     <row r="131">
@@ -19669,7 +19669,7 @@
         <v>25</v>
       </c>
       <c r="D131" t="s" s="0">
-        <v>193</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132">
@@ -19677,7 +19677,7 @@
         <v>212</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C132" t="s" s="0">
         <v>25</v>
@@ -19697,7 +19697,7 @@
         <v>25</v>
       </c>
       <c r="D133" t="s" s="0">
-        <v>7</v>
+        <v>193</v>
       </c>
     </row>
     <row r="134">
@@ -19711,7 +19711,7 @@
         <v>25</v>
       </c>
       <c r="D134" t="s" s="0">
-        <v>193</v>
+        <v>7</v>
       </c>
     </row>
     <row r="135">
@@ -19719,7 +19719,7 @@
         <v>213</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C135" t="s" s="0">
         <v>25</v>
@@ -19739,7 +19739,7 @@
         <v>25</v>
       </c>
       <c r="D136" t="s" s="0">
-        <v>7</v>
+        <v>193</v>
       </c>
     </row>
     <row r="137">
@@ -19747,13 +19747,13 @@
         <v>61</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C137" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D137" t="s" s="0">
-        <v>78</v>
+        <v>193</v>
       </c>
     </row>
     <row r="138">
@@ -19761,13 +19761,13 @@
         <v>61</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C138" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D138" t="s" s="0">
-        <v>224</v>
+        <v>155</v>
       </c>
     </row>
     <row r="139">
@@ -19775,7 +19775,7 @@
         <v>61</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C139" t="s" s="0">
         <v>98</v>
@@ -19789,13 +19789,13 @@
         <v>61</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C140" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D140" t="s" s="0">
-        <v>72</v>
+        <v>118</v>
       </c>
     </row>
     <row r="141">
@@ -19803,13 +19803,13 @@
         <v>61</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C141" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D141" t="s" s="0">
-        <v>219</v>
+        <v>151</v>
       </c>
     </row>
     <row r="142">
@@ -19817,13 +19817,13 @@
         <v>61</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C142" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D142" t="s" s="0">
-        <v>118</v>
+        <v>219</v>
       </c>
     </row>
     <row r="143">
@@ -19831,7 +19831,7 @@
         <v>61</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C143" t="s" s="0">
         <v>98</v>
@@ -19845,13 +19845,13 @@
         <v>61</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C144" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D144" t="s" s="0">
-        <v>126</v>
+        <v>72</v>
       </c>
     </row>
     <row r="145">
@@ -19865,7 +19865,7 @@
         <v>98</v>
       </c>
       <c r="D145" t="s" s="0">
-        <v>155</v>
+        <v>224</v>
       </c>
     </row>
     <row r="146">
@@ -19873,13 +19873,13 @@
         <v>61</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C146" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D146" t="s" s="0">
-        <v>193</v>
+        <v>126</v>
       </c>
     </row>
     <row r="147">
@@ -19887,13 +19887,13 @@
         <v>61</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C147" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D147" t="s" s="0">
-        <v>126</v>
+        <v>78</v>
       </c>
     </row>
     <row r="148">
@@ -19901,13 +19901,13 @@
         <v>61</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C148" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D148" t="s" s="0">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="149">
@@ -20005,7 +20005,7 @@
         <v>25</v>
       </c>
       <c r="D155" t="s" s="0">
-        <v>193</v>
+        <v>7</v>
       </c>
     </row>
     <row r="156">
@@ -20013,7 +20013,7 @@
         <v>230</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C156" t="s" s="0">
         <v>25</v>
@@ -20033,7 +20033,7 @@
         <v>25</v>
       </c>
       <c r="D157" t="s" s="0">
-        <v>7</v>
+        <v>193</v>
       </c>
     </row>
     <row r="158">
@@ -20047,7 +20047,7 @@
         <v>25</v>
       </c>
       <c r="D158" t="s" s="0">
-        <v>193</v>
+        <v>7</v>
       </c>
     </row>
     <row r="159">
@@ -20055,7 +20055,7 @@
         <v>231</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C159" t="s" s="0">
         <v>25</v>
@@ -20075,7 +20075,7 @@
         <v>25</v>
       </c>
       <c r="D160" t="s" s="0">
-        <v>7</v>
+        <v>193</v>
       </c>
     </row>
     <row r="161">
@@ -20083,7 +20083,7 @@
         <v>131</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C161" t="s" s="0">
         <v>98</v>
@@ -20097,7 +20097,7 @@
         <v>131</v>
       </c>
       <c r="B162" t="s" s="0">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C162" t="s" s="0">
         <v>98</v>
@@ -20111,13 +20111,13 @@
         <v>131</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C163" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D163" t="s" s="0">
-        <v>75</v>
+        <v>13</v>
       </c>
     </row>
     <row r="164">
@@ -20131,7 +20131,7 @@
         <v>98</v>
       </c>
       <c r="D164" t="s" s="0">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="165">
@@ -20139,13 +20139,13 @@
         <v>131</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C165" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D165" t="s" s="0">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="166">
@@ -20153,7 +20153,7 @@
         <v>131</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C166" t="s" s="0">
         <v>98</v>
@@ -20167,13 +20167,13 @@
         <v>131</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C167" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D167" t="s" s="0">
-        <v>13</v>
+        <v>75</v>
       </c>
     </row>
     <row r="168">
@@ -20181,13 +20181,13 @@
         <v>131</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="C168" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D168" t="s" s="0">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="169">
@@ -20195,13 +20195,13 @@
         <v>131</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>294</v>
+        <v>263</v>
       </c>
       <c r="C169" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D169" t="s" s="0">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="170">
@@ -20209,13 +20209,13 @@
         <v>52</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C170" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D170" t="s" s="0">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="171">
@@ -20223,13 +20223,13 @@
         <v>52</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C171" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D171" t="s" s="0">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="172">
@@ -20237,13 +20237,13 @@
         <v>52</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C172" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D172" t="s" s="0">
-        <v>13</v>
+        <v>43</v>
       </c>
     </row>
     <row r="173">
@@ -20251,13 +20251,13 @@
         <v>52</v>
       </c>
       <c r="B173" t="s" s="0">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C173" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D173" t="s" s="0">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="174">
@@ -20271,7 +20271,7 @@
         <v>25</v>
       </c>
       <c r="D174" t="s" s="0">
-        <v>193</v>
+        <v>7</v>
       </c>
     </row>
     <row r="175">
@@ -20279,7 +20279,7 @@
         <v>240</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C175" t="s" s="0">
         <v>25</v>
@@ -20293,13 +20293,13 @@
         <v>240</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>311</v>
+        <v>258</v>
       </c>
       <c r="C176" t="s" s="0">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="D176" t="s" s="0">
-        <v>78</v>
+        <v>193</v>
       </c>
     </row>
     <row r="177">
@@ -20307,13 +20307,13 @@
         <v>240</v>
       </c>
       <c r="B177" t="s" s="0">
-        <v>258</v>
+        <v>311</v>
       </c>
       <c r="C177" t="s" s="0">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="D177" t="s" s="0">
-        <v>7</v>
+        <v>78</v>
       </c>
     </row>
     <row r="178">
@@ -20321,13 +20321,13 @@
         <v>183</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="C178" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D178" t="s" s="0">
-        <v>43</v>
+        <v>75</v>
       </c>
     </row>
     <row r="179">
@@ -20335,7 +20335,7 @@
         <v>183</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C179" t="s" s="0">
         <v>98</v>
@@ -20349,13 +20349,13 @@
         <v>183</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="C180" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D180" t="s" s="0">
-        <v>75</v>
+        <v>43</v>
       </c>
     </row>
     <row r="181">
@@ -20391,13 +20391,13 @@
         <v>155</v>
       </c>
       <c r="B183" t="s" s="0">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="C183" t="s" s="0">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="D183" t="s" s="0">
-        <v>250</v>
+        <v>155</v>
       </c>
     </row>
     <row r="184">
@@ -20405,7 +20405,7 @@
         <v>155</v>
       </c>
       <c r="B184" t="s" s="0">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C184" t="s" s="0">
         <v>6</v>
@@ -20419,13 +20419,13 @@
         <v>155</v>
       </c>
       <c r="B185" t="s" s="0">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c r="C185" t="s" s="0">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="D185" t="s" s="0">
-        <v>155</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/data/backend/order-client_structure.xlsx
+++ b/data/backend/order-client_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6362" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6563" uniqueCount="430">
   <si>
     <t>Class Name</t>
   </si>
@@ -801,97 +801,100 @@
     <t>serialVersionUID</t>
   </si>
   <si>
+    <t>pageSize</t>
+  </si>
+  <si>
+    <t>pageNumber</t>
+  </si>
+  <si>
     <t>rsqlQuery</t>
   </si>
   <si>
-    <t>pageNumber</t>
-  </si>
-  <si>
     <t>sortingOrder</t>
   </si>
   <si>
-    <t>pageSize</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
+    <t>deliveryLocation</t>
+  </si>
+  <si>
+    <t>orderEntriesIds</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>creationTimestamp</t>
+  </si>
+  <si>
+    <t>client</t>
+  </si>
+  <si>
+    <t>deliveryMethod</t>
+  </si>
+  <si>
+    <t>paymentMethod</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
     <t>deliveryCost</t>
   </si>
   <si>
     <t>paymentCost</t>
   </si>
   <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>deliveryMethod</t>
-  </si>
-  <si>
-    <t>deliveryLocation</t>
-  </si>
-  <si>
-    <t>client</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
     <t>totalCost</t>
   </si>
   <si>
-    <t>paymentMethod</t>
-  </si>
-  <si>
-    <t>orderEntriesIds</t>
-  </si>
-  <si>
-    <t>creationTimestamp</t>
-  </si>
-  <si>
     <t>emailAddress</t>
   </si>
   <si>
+    <t>orderIds</t>
+  </si>
+  <si>
+    <t>surname</t>
+  </si>
+  <si>
     <t>phoneNumber</t>
   </si>
   <si>
-    <t>orderIds</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
-    <t>surname</t>
+    <t>orderEntries</t>
   </si>
   <si>
     <t>operationType</t>
   </si>
   <si>
-    <t>orderEntries</t>
+    <t>NEWEST_FIRST</t>
   </si>
   <si>
     <t>$VALUES</t>
   </si>
   <si>
-    <t>NEWEST_FIRST</t>
-  </si>
-  <si>
     <t>OLDEST_FIRST</t>
   </si>
   <si>
+    <t>COMPLETED</t>
+  </si>
+  <si>
+    <t>CANCELED</t>
+  </si>
+  <si>
     <t>NEW</t>
   </si>
   <si>
-    <t>CANCELED</t>
-  </si>
-  <si>
-    <t>COMPLETED</t>
+    <t>PICKUP_POINT</t>
   </si>
   <si>
     <t>COURIER</t>
   </si>
   <si>
-    <t>PICKUP_POINT</t>
+    <t>quantity</t>
   </si>
   <si>
     <t>productVariant</t>
@@ -900,28 +903,28 @@
     <t>order</t>
   </si>
   <si>
-    <t>quantity</t>
+    <t>deliveryOrdersIds</t>
+  </si>
+  <si>
+    <t>city</t>
   </si>
   <si>
     <t>flatNumber</t>
   </si>
   <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>postCode</t>
+  </si>
+  <si>
     <t>street</t>
   </si>
   <si>
-    <t>postCode</t>
-  </si>
-  <si>
     <t>streetNumber</t>
   </si>
   <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>deliveryOrdersIds</t>
+    <t>clientId</t>
   </si>
   <si>
     <t>locationId</t>
@@ -930,24 +933,21 @@
     <t>deliveryLocationId</t>
   </si>
   <si>
-    <t>clientId</t>
-  </si>
-  <si>
     <t>orderedQuantityChange</t>
   </si>
   <si>
     <t>variantId</t>
   </si>
   <si>
+    <t>identifier</t>
+  </si>
+  <si>
+    <t>productVariantId</t>
+  </si>
+  <si>
     <t>orderId</t>
   </si>
   <si>
-    <t>productVariantId</t>
-  </si>
-  <si>
-    <t>identifier</t>
-  </si>
-  <si>
     <t>ALPHABETICAL_POSTCODE</t>
   </si>
   <si>
@@ -960,15 +960,15 @@
     <t>violationMessages</t>
   </si>
   <si>
+    <t>PAY_U</t>
+  </si>
+  <si>
+    <t>GOOGLE_PAY</t>
+  </si>
+  <si>
     <t>VISA</t>
   </si>
   <si>
-    <t>GOOGLE_PAY</t>
-  </si>
-  <si>
-    <t>PAY_U</t>
-  </si>
-  <si>
     <t>Source Class Name</t>
   </si>
   <si>
@@ -1011,76 +1011,307 @@
     <t>Number of Lines</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
-    <t>21</t>
+    <t>17</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>283</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>ClientNotFoundException(java.lang.String)</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>ClientNotFoundException()</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>OrderQuerySpecification(java.lang.String, java.lang.Integer, java.lang.Integer, org.andante.orders.enums.OrderSortingOrder)</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>OrderOutputDTO$OrderOutputDTOBuilder()</t>
+  </si>
+  <si>
+    <t>LocationNotFoundException(java.lang.String)</t>
+  </si>
+  <si>
+    <t>LocationNotFoundException()</t>
+  </si>
+  <si>
+    <t>OrderEntryConflictException(java.lang.String)</t>
+  </si>
+  <si>
+    <t>OrderEntryConflictException()</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>ClientDTO(java.lang.Long, java.lang.String, java.lang.String, java.lang.String, java.lang.String, java.util.Set)</t>
+  </si>
+  <si>
+    <t>ClientDTO()</t>
+  </si>
+  <si>
+    <t>OrderEntryEvent$OrderEntryEventBuilder()</t>
+  </si>
+  <si>
+    <t>InternalOrderException(java.lang.String)</t>
+  </si>
+  <si>
+    <t>InternalOrderException()</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>OrderSortingOrder(java.lang.String, int)</t>
+  </si>
+  <si>
+    <t>OrderEntryEvent(org.andante.orders.dto.OrderEntryOutputDTO, org.andante.enums.OperationType)</t>
+  </si>
+  <si>
+    <t>OrderEntryEvent()</t>
+  </si>
+  <si>
+    <t>LocationException(java.lang.String)</t>
+  </si>
+  <si>
+    <t>LocationException()</t>
+  </si>
+  <si>
+    <t>OrderStatus(java.lang.String, int)</t>
+  </si>
+  <si>
+    <t>DeliveryMethod(java.lang.String, int)</t>
+  </si>
+  <si>
+    <t>OrderEntryException(java.lang.String)</t>
+  </si>
+  <si>
+    <t>OrderEntryException()</t>
+  </si>
+  <si>
+    <t>OrderEntryOutputDTO$OrderEntryOutputDTOBuilder()</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>LocationDTO(java.lang.Long, java.lang.String, java.lang.String, java.lang.Long, java.lang.String, java.lang.String, java.lang.String, java.util.Set, java.util.Set)</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>41</t>
+    <t>LocationDTO()</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>OrderInputDTO(java.lang.Long, java.lang.Float, org.andante.orders.enums.DeliveryMethod, org.andante.orders.enums.PaymentMethod, java.lang.Long, java.lang.Long, java.lang.Long, org.andante.orders.enums.OrderStatus, java.lang.Float, java.util.Set)</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>294</t>
-  </si>
-  <si>
-    <t>322</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>357</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>154</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>28</t>
+    <t>OrderInputDTO()</t>
+  </si>
+  <si>
+    <t>ProductOrderEvent$ProductOrderEventBuilder()</t>
+  </si>
+  <si>
+    <t>ClientDTO$ClientDTOBuilder()</t>
+  </si>
+  <si>
+    <t>OrderNotFoundException(java.lang.String)</t>
+  </si>
+  <si>
+    <t>OrderNotFoundException()</t>
+  </si>
+  <si>
+    <t>OrderInputDTO$OrderInputDTOBuilder()</t>
+  </si>
+  <si>
+    <t>ClientException(java.lang.String)</t>
+  </si>
+  <si>
+    <t>ClientException()</t>
+  </si>
+  <si>
+    <t>OrderException(java.lang.String)</t>
+  </si>
+  <si>
+    <t>OrderException()</t>
+  </si>
+  <si>
+    <t>OrderEntryInputDTO$OrderEntryInputDTOBuilder()</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>OrderEntryOutputDTO(long, int, org.andante.orders.dto.OrderOutputDTO, org.andante.product.dto.ProductVariantOutputDTO)</t>
+  </si>
+  <si>
+    <t>OrderEntryOutputDTO()</t>
+  </si>
+  <si>
+    <t>ProductOrderEvent(java.lang.Long, java.lang.Integer)</t>
+  </si>
+  <si>
+    <t>ProductOrderEvent()</t>
+  </si>
+  <si>
+    <t>OrderMalformedException(java.lang.String)</t>
+  </si>
+  <si>
+    <t>OrderMalformedException()</t>
+  </si>
+  <si>
+    <t>LocationSortingOrder(java.lang.String, int)</t>
+  </si>
+  <si>
+    <t>OrderEvent$OrderEventBuilder()</t>
+  </si>
+  <si>
+    <t>LocationQuerySpecification$LocationQuerySpecificationBuilder()</t>
+  </si>
+  <si>
+    <t>ClientConflictException(java.lang.String)</t>
+  </si>
+  <si>
+    <t>ClientConflictException()</t>
+  </si>
+  <si>
+    <t>OrderConflictException(java.lang.String)</t>
+  </si>
+  <si>
+    <t>OrderConflictException()</t>
+  </si>
+  <si>
+    <t>LocationConflictException(java.lang.String)</t>
+  </si>
+  <si>
+    <t>LocationConflictException()</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>OrderOutputDTO(long, java.time.LocalDateTime, float, org.andante.orders.enums.DeliveryMethod, org.andante.orders.enums.PaymentMethod, org.andante.orders.dto.ClientDTO, org.andante.orders.dto.LocationDTO, org.andante.orders.dto.LocationDTO, org.andante.orders.enums.OrderStatus, java.lang.Float, java.math.BigDecimal, java.util.Set)</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>OrderOutputDTO()</t>
+  </si>
+  <si>
+    <t>LocationQuerySpecification(java.lang.String, java.lang.Integer, java.lang.Integer, org.andante.orders.enums.LocationSortingOrder)</t>
+  </si>
+  <si>
+    <t>OrderEvent(org.andante.orders.dto.OrderOutputDTO, org.andante.enums.OperationType)</t>
+  </si>
+  <si>
+    <t>OrderEvent()</t>
+  </si>
+  <si>
+    <t>OrderCommunicationException(java.lang.String)</t>
+  </si>
+  <si>
+    <t>OrderCommunicationException()</t>
+  </si>
+  <si>
+    <t>OrderEntryNotFoundException(java.lang.String)</t>
+  </si>
+  <si>
+    <t>OrderEntryNotFoundException()</t>
+  </si>
+  <si>
+    <t>LocationDTO$LocationDTOBuilder()</t>
+  </si>
+  <si>
+    <t>OrderQuerySpecification$OrderQuerySpecificationBuilder()</t>
+  </si>
+  <si>
+    <t>OrderProductViolationException(java.util.Set)</t>
+  </si>
+  <si>
+    <t>OrderEntryInputDTO(java.lang.Long, java.lang.Integer, java.lang.Long, java.lang.Long)</t>
+  </si>
+  <si>
+    <t>OrderEntryInputDTO()</t>
+  </si>
+  <si>
+    <t>PaymentMethod(java.lang.String, int)</t>
   </si>
 </sst>
 </file>
@@ -14587,7 +14818,7 @@
         <v>79</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="21">
@@ -14603,7 +14834,7 @@
         <v>148</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="23">
@@ -14635,7 +14866,7 @@
         <v>111</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="27">
@@ -14707,7 +14938,7 @@
         <v>61</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="36">
@@ -14747,7 +14978,7 @@
         <v>131</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="41">
@@ -14763,7 +14994,7 @@
         <v>240</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="43">
@@ -14771,7 +15002,7 @@
         <v>183</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="44">
@@ -14789,7 +15020,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C273"/>
+  <dimension ref="A1:C340"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14808,24 +15039,24 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>51</v>
+        <v>347</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>48</v>
+        <v>349</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4">
@@ -14833,10 +15064,10 @@
         <v>41</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5">
@@ -14844,10 +15075,10 @@
         <v>41</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6">
@@ -14855,10 +15086,10 @@
         <v>41</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7">
@@ -14866,10 +15097,10 @@
         <v>41</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8">
@@ -14877,10 +15108,10 @@
         <v>41</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9">
@@ -14888,10 +15119,10 @@
         <v>41</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10">
@@ -14899,10 +15130,10 @@
         <v>41</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11">
@@ -14910,10 +15141,10 @@
         <v>41</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12">
@@ -14921,10 +15152,10 @@
         <v>41</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="13">
@@ -14932,10 +15163,10 @@
         <v>41</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14">
@@ -14943,43 +15174,43 @@
         <v>41</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>62</v>
+        <v>352</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="18">
@@ -14987,10 +15218,10 @@
         <v>55</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>347</v>
+        <v>354</v>
       </c>
     </row>
     <row r="19">
@@ -14998,10 +15229,10 @@
         <v>55</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>347</v>
+        <v>354</v>
       </c>
     </row>
     <row r="20">
@@ -15009,10 +15240,10 @@
         <v>55</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>347</v>
+        <v>354</v>
       </c>
     </row>
     <row r="21">
@@ -15020,10 +15251,10 @@
         <v>55</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>347</v>
+        <v>354</v>
       </c>
     </row>
     <row r="22">
@@ -15031,10 +15262,10 @@
         <v>55</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>347</v>
+        <v>354</v>
       </c>
     </row>
     <row r="23">
@@ -15042,10 +15273,10 @@
         <v>55</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>347</v>
+        <v>354</v>
       </c>
     </row>
     <row r="24">
@@ -15053,10 +15284,10 @@
         <v>55</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>347</v>
+        <v>354</v>
       </c>
     </row>
     <row r="25">
@@ -15064,10 +15295,10 @@
         <v>55</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>347</v>
+        <v>354</v>
       </c>
     </row>
     <row r="26">
@@ -15075,10 +15306,10 @@
         <v>55</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>347</v>
+        <v>354</v>
       </c>
     </row>
     <row r="27">
@@ -15086,10 +15317,10 @@
         <v>55</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>346</v>
+        <v>354</v>
       </c>
     </row>
     <row r="28">
@@ -15097,98 +15328,98 @@
         <v>55</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>346</v>
+        <v>354</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>346</v>
+        <v>354</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>76</v>
+        <v>355</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>81</v>
+        <v>356</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>86</v>
+        <v>357</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>77</v>
+        <v>358</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>80</v>
+        <v>359</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="37">
@@ -15196,10 +15427,10 @@
         <v>72</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="38">
@@ -15207,10 +15438,10 @@
         <v>72</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="39">
@@ -15218,10 +15449,10 @@
         <v>72</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="40">
@@ -15229,10 +15460,10 @@
         <v>72</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="41">
@@ -15240,10 +15471,10 @@
         <v>72</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="42">
@@ -15251,10 +15482,10 @@
         <v>72</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="43">
@@ -15262,10 +15493,10 @@
         <v>72</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="44">
@@ -15273,10 +15504,10 @@
         <v>72</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="45">
@@ -15284,2427 +15515,2427 @@
         <v>72</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>320</v>
+        <v>360</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>320</v>
+        <v>348</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>346</v>
+        <v>335</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="B53" t="s" s="0">
         <v>12</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>108</v>
+        <v>361</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>346</v>
+        <v>334</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>97</v>
+        <v>362</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>320</v>
+        <v>354</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>346</v>
+        <v>354</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>100</v>
+        <v>363</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>93</v>
+        <v>364</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>320</v>
+        <v>348</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>96</v>
+        <v>365</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>346</v>
+        <v>366</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>346</v>
+        <v>366</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>320</v>
+        <v>348</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>320</v>
+        <v>366</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>320</v>
+        <v>366</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>346</v>
+        <v>366</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>12</v>
+        <v>367</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>346</v>
+        <v>366</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>320</v>
+        <v>348</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>67</v>
+        <v>368</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>347</v>
+        <v>354</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>125</v>
+        <v>369</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>347</v>
+        <v>321</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>124</v>
+        <v>370</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>123</v>
+        <v>371</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>347</v>
+        <v>321</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>346</v>
+        <v>366</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>346</v>
+        <v>366</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>346</v>
+        <v>366</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="C83" t="s" s="0">
-        <v>346</v>
+        <v>366</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="C84" t="s" s="0">
-        <v>346</v>
+        <v>366</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>128</v>
+        <v>372</v>
       </c>
       <c r="C85" t="s" s="0">
-        <v>346</v>
+        <v>366</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>346</v>
+        <v>366</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="C87" t="s" s="0">
-        <v>346</v>
+        <v>366</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="C88" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="C89" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>346</v>
+        <v>366</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="0">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="C91" t="s" s="0">
-        <v>346</v>
+        <v>366</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="C92" t="s" s="0">
-        <v>346</v>
+        <v>366</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="0">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>136</v>
+        <v>373</v>
       </c>
       <c r="C93" t="s" s="0">
-        <v>346</v>
+        <v>366</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="0">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>129</v>
+        <v>374</v>
       </c>
       <c r="C94" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="0">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>140</v>
+        <v>375</v>
       </c>
       <c r="C95" t="s" s="0">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="0">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>134</v>
+        <v>67</v>
       </c>
       <c r="C96" t="s" s="0">
-        <v>346</v>
+        <v>354</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="0">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="C97" t="s" s="0">
-        <v>346</v>
+        <v>354</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="0">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="C98" t="s" s="0">
-        <v>346</v>
+        <v>354</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="0">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="C99" t="s" s="0">
-        <v>347</v>
+        <v>354</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="0">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C100" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="0">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C101" t="s" s="0">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="0">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>12</v>
+        <v>376</v>
       </c>
       <c r="C102" t="s" s="0">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="0">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B103" t="s" s="0">
         <v>51</v>
       </c>
       <c r="C103" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="0">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B104" t="s" s="0">
         <v>74</v>
       </c>
       <c r="C104" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="0">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="C105" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="0">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="C106" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="0">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="C107" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="0">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="C108" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="0">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="C109" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="0">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C110" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="0">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="C111" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="0">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="C112" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="0">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="C113" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="0">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="C114" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="0">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="C115" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="0">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="C116" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="0">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="C117" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="0">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="C118" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="0">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="C119" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="0">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>162</v>
+        <v>73</v>
       </c>
       <c r="C120" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="0">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="C121" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="0">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>144</v>
+        <v>5</v>
       </c>
       <c r="C122" t="s" s="0">
-        <v>346</v>
+        <v>377</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="0">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>161</v>
+        <v>53</v>
       </c>
       <c r="C123" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="0">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C124" t="s" s="0">
-        <v>347</v>
+        <v>378</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="0">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C125" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="0">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>20</v>
+        <v>379</v>
       </c>
       <c r="C126" t="s" s="0">
-        <v>351</v>
+        <v>380</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="0">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>12</v>
+        <v>381</v>
       </c>
       <c r="C127" t="s" s="0">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="0">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>167</v>
+        <v>51</v>
       </c>
       <c r="C128" t="s" s="0">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="0">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>166</v>
+        <v>74</v>
       </c>
       <c r="C129" t="s" s="0">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="0">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="C130" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="0">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="C131" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="0">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="C132" t="s" s="0">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="0">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="C133" t="s" s="0">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="0">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="C134" t="s" s="0">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="0">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="C135" t="s" s="0">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="0">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="C136" t="s" s="0">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="0">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="C137" t="s" s="0">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="0">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="C138" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="0">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="C139" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="0">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="C140" t="s" s="0">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="0">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="C141" t="s" s="0">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="0">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>63</v>
+        <v>157</v>
       </c>
       <c r="C142" t="s" s="0">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="0">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>56</v>
+        <v>163</v>
       </c>
       <c r="C143" t="s" s="0">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="0">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="C144" t="s" s="0">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="0">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="C145" t="s" s="0">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s" s="0">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="C146" t="s" s="0">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="0">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="C147" t="s" s="0">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s" s="0">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>65</v>
+        <v>161</v>
       </c>
       <c r="C148" t="s" s="0">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s" s="0">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C149" t="s" s="0">
-        <v>347</v>
+        <v>382</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="0">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C150" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="0">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C151" t="s" s="0">
-        <v>346</v>
+        <v>383</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="0">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>184</v>
+        <v>12</v>
       </c>
       <c r="C152" t="s" s="0">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="0">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>185</v>
+        <v>384</v>
       </c>
       <c r="C153" t="s" s="0">
-        <v>347</v>
+        <v>385</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="0">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>182</v>
+        <v>386</v>
       </c>
       <c r="C154" t="s" s="0">
-        <v>347</v>
+        <v>321</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="0">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C155" t="s" s="0">
-        <v>347</v>
+        <v>354</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="0">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="C156" t="s" s="0">
-        <v>346</v>
+        <v>354</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="0">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="C157" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="0">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="C158" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="0">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>74</v>
+        <v>387</v>
       </c>
       <c r="C159" t="s" s="0">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="0">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="C160" t="s" s="0">
-        <v>346</v>
+        <v>354</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="0">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="C161" t="s" s="0">
-        <v>346</v>
+        <v>354</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s" s="0">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="B162" t="s" s="0">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="C162" t="s" s="0">
-        <v>346</v>
+        <v>354</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s" s="0">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="C163" t="s" s="0">
-        <v>346</v>
+        <v>354</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s" s="0">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="C164" t="s" s="0">
-        <v>346</v>
+        <v>354</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="0">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="C165" t="s" s="0">
-        <v>346</v>
+        <v>354</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="0">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>190</v>
+        <v>60</v>
       </c>
       <c r="C166" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="0">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C167" t="s" s="0">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="0">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>53</v>
+        <v>388</v>
       </c>
       <c r="C168" t="s" s="0">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="0">
-        <v>111</v>
+        <v>174</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>20</v>
+        <v>389</v>
       </c>
       <c r="C169" t="s" s="0">
-        <v>336</v>
+        <v>348</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="0">
-        <v>111</v>
+        <v>174</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>12</v>
+        <v>390</v>
       </c>
       <c r="C170" t="s" s="0">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s" s="0">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>51</v>
+        <v>172</v>
       </c>
       <c r="C171" t="s" s="0">
-        <v>346</v>
+        <v>354</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s" s="0">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="C172" t="s" s="0">
-        <v>346</v>
+        <v>354</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s" s="0">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="B173" t="s" s="0">
-        <v>197</v>
+        <v>63</v>
       </c>
       <c r="C173" t="s" s="0">
-        <v>346</v>
+        <v>354</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s" s="0">
-        <v>199</v>
+        <v>148</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="C174" t="s" s="0">
-        <v>320</v>
+        <v>354</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s" s="0">
-        <v>199</v>
+        <v>148</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>93</v>
+        <v>176</v>
       </c>
       <c r="C175" t="s" s="0">
-        <v>320</v>
+        <v>354</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s" s="0">
-        <v>199</v>
+        <v>148</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>96</v>
+        <v>178</v>
       </c>
       <c r="C176" t="s" s="0">
-        <v>346</v>
+        <v>354</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="0">
-        <v>199</v>
+        <v>148</v>
       </c>
       <c r="B177" t="s" s="0">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="C177" t="s" s="0">
-        <v>346</v>
+        <v>354</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s" s="0">
-        <v>199</v>
+        <v>148</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="C178" t="s" s="0">
-        <v>346</v>
+        <v>354</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s" s="0">
-        <v>199</v>
+        <v>148</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="C179" t="s" s="0">
-        <v>346</v>
+        <v>354</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s" s="0">
-        <v>199</v>
+        <v>148</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="C180" t="s" s="0">
-        <v>320</v>
+        <v>354</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s" s="0">
-        <v>202</v>
+        <v>148</v>
       </c>
       <c r="B181" t="s" s="0">
-        <v>204</v>
+        <v>60</v>
       </c>
       <c r="C181" t="s" s="0">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s" s="0">
-        <v>202</v>
+        <v>148</v>
       </c>
       <c r="B182" t="s" s="0">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="C182" t="s" s="0">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s" s="0">
-        <v>202</v>
+        <v>148</v>
       </c>
       <c r="B183" t="s" s="0">
-        <v>60</v>
+        <v>391</v>
       </c>
       <c r="C183" t="s" s="0">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s" s="0">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="B184" t="s" s="0">
-        <v>12</v>
+        <v>392</v>
       </c>
       <c r="C184" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s" s="0">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="B185" t="s" s="0">
-        <v>206</v>
+        <v>393</v>
       </c>
       <c r="C185" t="s" s="0">
-        <v>347</v>
+        <v>321</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s" s="0">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="B186" t="s" s="0">
-        <v>209</v>
+        <v>394</v>
       </c>
       <c r="C186" t="s" s="0">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s" s="0">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="B187" t="s" s="0">
-        <v>207</v>
+        <v>395</v>
       </c>
       <c r="C187" t="s" s="0">
-        <v>347</v>
+        <v>321</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s" s="0">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="B188" t="s" s="0">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="C188" t="s" s="0">
-        <v>347</v>
+        <v>354</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s" s="0">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="B189" t="s" s="0">
-        <v>60</v>
+        <v>185</v>
       </c>
       <c r="C189" t="s" s="0">
-        <v>346</v>
+        <v>354</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s" s="0">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="B190" t="s" s="0">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="C190" t="s" s="0">
-        <v>346</v>
+        <v>354</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s" s="0">
-        <v>61</v>
+        <v>181</v>
       </c>
       <c r="B191" t="s" s="0">
-        <v>51</v>
+        <v>186</v>
       </c>
       <c r="C191" t="s" s="0">
-        <v>346</v>
+        <v>354</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s" s="0">
-        <v>61</v>
+        <v>181</v>
       </c>
       <c r="B192" t="s" s="0">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C192" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s" s="0">
-        <v>61</v>
+        <v>181</v>
       </c>
       <c r="B193" t="s" s="0">
-        <v>223</v>
+        <v>12</v>
       </c>
       <c r="C193" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s" s="0">
-        <v>61</v>
+        <v>181</v>
       </c>
       <c r="B194" t="s" s="0">
-        <v>150</v>
+        <v>396</v>
       </c>
       <c r="C194" t="s" s="0">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s" s="0">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="B195" t="s" s="0">
-        <v>158</v>
+        <v>51</v>
       </c>
       <c r="C195" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s" s="0">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="B196" t="s" s="0">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="C196" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s" s="0">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="B197" t="s" s="0">
-        <v>226</v>
+        <v>187</v>
       </c>
       <c r="C197" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s" s="0">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="B198" t="s" s="0">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="C198" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s" s="0">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="B199" t="s" s="0">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="C199" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s" s="0">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="B200" t="s" s="0">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="C200" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s" s="0">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="B201" t="s" s="0">
-        <v>156</v>
+        <v>194</v>
       </c>
       <c r="C201" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s" s="0">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="B202" t="s" s="0">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="C202" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s" s="0">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="B203" t="s" s="0">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="C203" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s" s="0">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="B204" t="s" s="0">
-        <v>192</v>
+        <v>5</v>
       </c>
       <c r="C204" t="s" s="0">
-        <v>346</v>
+        <v>397</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s" s="0">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="B205" t="s" s="0">
-        <v>214</v>
+        <v>53</v>
       </c>
       <c r="C205" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s" s="0">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="B206" t="s" s="0">
-        <v>221</v>
+        <v>20</v>
       </c>
       <c r="C206" t="s" s="0">
-        <v>346</v>
+        <v>385</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s" s="0">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="B207" t="s" s="0">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="C207" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s" s="0">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="B208" t="s" s="0">
-        <v>157</v>
+        <v>398</v>
       </c>
       <c r="C208" t="s" s="0">
-        <v>346</v>
+        <v>353</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s" s="0">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="B209" t="s" s="0">
-        <v>216</v>
+        <v>399</v>
       </c>
       <c r="C209" t="s" s="0">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s" s="0">
-        <v>61</v>
+        <v>165</v>
       </c>
       <c r="B210" t="s" s="0">
-        <v>215</v>
+        <v>51</v>
       </c>
       <c r="C210" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s" s="0">
-        <v>61</v>
+        <v>165</v>
       </c>
       <c r="B211" t="s" s="0">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="C211" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s" s="0">
-        <v>61</v>
+        <v>165</v>
       </c>
       <c r="B212" t="s" s="0">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="C212" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s" s="0">
-        <v>61</v>
+        <v>165</v>
       </c>
       <c r="B213" t="s" s="0">
-        <v>144</v>
+        <v>400</v>
       </c>
       <c r="C213" t="s" s="0">
-        <v>346</v>
+        <v>354</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s" s="0">
-        <v>61</v>
+        <v>165</v>
       </c>
       <c r="B214" t="s" s="0">
-        <v>220</v>
+        <v>401</v>
       </c>
       <c r="C214" t="s" s="0">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s" s="0">
-        <v>61</v>
+        <v>198</v>
       </c>
       <c r="B215" t="s" s="0">
-        <v>161</v>
+        <v>402</v>
       </c>
       <c r="C215" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s" s="0">
-        <v>61</v>
+        <v>198</v>
       </c>
       <c r="B216" t="s" s="0">
-        <v>5</v>
+        <v>403</v>
       </c>
       <c r="C216" t="s" s="0">
-        <v>347</v>
+        <v>321</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s" s="0">
-        <v>61</v>
+        <v>199</v>
       </c>
       <c r="B217" t="s" s="0">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C217" t="s" s="0">
-        <v>346</v>
+        <v>366</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s" s="0">
-        <v>61</v>
+        <v>199</v>
       </c>
       <c r="B218" t="s" s="0">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="C218" t="s" s="0">
-        <v>352</v>
+        <v>366</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s" s="0">
-        <v>61</v>
+        <v>199</v>
       </c>
       <c r="B219" t="s" s="0">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="C219" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s" s="0">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B220" t="s" s="0">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="C220" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s" s="0">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B221" t="s" s="0">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="C221" t="s" s="0">
-        <v>346</v>
+        <v>366</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s" s="0">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B222" t="s" s="0">
-        <v>44</v>
+        <v>200</v>
       </c>
       <c r="C222" t="s" s="0">
-        <v>346</v>
+        <v>366</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s" s="0">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B223" t="s" s="0">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="C223" t="s" s="0">
-        <v>346</v>
+        <v>366</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s" s="0">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B224" t="s" s="0">
-        <v>45</v>
+        <v>404</v>
       </c>
       <c r="C224" t="s" s="0">
-        <v>346</v>
+        <v>366</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s" s="0">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B225" t="s" s="0">
-        <v>47</v>
+        <v>204</v>
       </c>
       <c r="C225" t="s" s="0">
-        <v>346</v>
+        <v>354</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s" s="0">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B226" t="s" s="0">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="C226" t="s" s="0">
-        <v>346</v>
+        <v>354</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s" s="0">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B227" t="s" s="0">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C227" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s" s="0">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B228" t="s" s="0">
-        <v>228</v>
+        <v>12</v>
       </c>
       <c r="C228" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s" s="0">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B229" t="s" s="0">
-        <v>5</v>
+        <v>405</v>
       </c>
       <c r="C229" t="s" s="0">
-        <v>347</v>
+        <v>321</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s" s="0">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B230" t="s" s="0">
-        <v>53</v>
+        <v>206</v>
       </c>
       <c r="C230" t="s" s="0">
-        <v>346</v>
+        <v>354</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s" s="0">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B231" t="s" s="0">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="C231" t="s" s="0">
-        <v>348</v>
+        <v>354</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s" s="0">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B232" t="s" s="0">
-        <v>12</v>
+        <v>207</v>
       </c>
       <c r="C232" t="s" s="0">
-        <v>346</v>
+        <v>354</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s" s="0">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B233" t="s" s="0">
-        <v>51</v>
+        <v>210</v>
       </c>
       <c r="C233" t="s" s="0">
-        <v>346</v>
+        <v>354</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s" s="0">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B234" t="s" s="0">
-        <v>229</v>
+        <v>60</v>
       </c>
       <c r="C234" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s" s="0">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B235" t="s" s="0">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="C235" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s" s="0">
-        <v>131</v>
+        <v>205</v>
       </c>
       <c r="B236" t="s" s="0">
-        <v>172</v>
+        <v>406</v>
       </c>
       <c r="C236" t="s" s="0">
-        <v>347</v>
+        <v>321</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s" s="0">
-        <v>131</v>
+        <v>211</v>
       </c>
       <c r="B237" t="s" s="0">
-        <v>233</v>
+        <v>407</v>
       </c>
       <c r="C237" t="s" s="0">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s" s="0">
-        <v>131</v>
+        <v>211</v>
       </c>
       <c r="B238" t="s" s="0">
-        <v>238</v>
+        <v>408</v>
       </c>
       <c r="C238" t="s" s="0">
-        <v>347</v>
+        <v>321</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s" s="0">
-        <v>131</v>
+        <v>212</v>
       </c>
       <c r="B239" t="s" s="0">
-        <v>236</v>
+        <v>409</v>
       </c>
       <c r="C239" t="s" s="0">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s" s="0">
-        <v>131</v>
+        <v>212</v>
       </c>
       <c r="B240" t="s" s="0">
-        <v>234</v>
+        <v>410</v>
       </c>
       <c r="C240" t="s" s="0">
-        <v>347</v>
+        <v>321</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s" s="0">
-        <v>131</v>
+        <v>213</v>
       </c>
       <c r="B241" t="s" s="0">
-        <v>237</v>
+        <v>411</v>
       </c>
       <c r="C241" t="s" s="0">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s" s="0">
-        <v>131</v>
+        <v>213</v>
       </c>
       <c r="B242" t="s" s="0">
-        <v>235</v>
+        <v>412</v>
       </c>
       <c r="C242" t="s" s="0">
-        <v>347</v>
+        <v>321</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s" s="0">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="B243" t="s" s="0">
-        <v>170</v>
+        <v>51</v>
       </c>
       <c r="C243" t="s" s="0">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s" s="0">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="B244" t="s" s="0">
-        <v>232</v>
+        <v>74</v>
       </c>
       <c r="C244" t="s" s="0">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s" s="0">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="B245" t="s" s="0">
-        <v>60</v>
+        <v>223</v>
       </c>
       <c r="C245" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s" s="0">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="B246" t="s" s="0">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="C246" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s" s="0">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B247" t="s" s="0">
-        <v>206</v>
+        <v>158</v>
       </c>
       <c r="C247" t="s" s="0">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s" s="0">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B248" t="s" s="0">
-        <v>209</v>
+        <v>154</v>
       </c>
       <c r="C248" t="s" s="0">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s" s="0">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B249" t="s" s="0">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="C249" t="s" s="0">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s" s="0">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B250" t="s" s="0">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="C250" t="s" s="0">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s" s="0">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B251" t="s" s="0">
-        <v>60</v>
+        <v>227</v>
       </c>
       <c r="C251" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s" s="0">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B252" t="s" s="0">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="C252" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s" s="0">
-        <v>240</v>
+        <v>61</v>
       </c>
       <c r="B253" t="s" s="0">
-        <v>241</v>
+        <v>156</v>
       </c>
       <c r="C253" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s" s="0">
-        <v>183</v>
+        <v>61</v>
       </c>
       <c r="B254" t="s" s="0">
-        <v>51</v>
+        <v>218</v>
       </c>
       <c r="C254" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s" s="0">
-        <v>183</v>
+        <v>61</v>
       </c>
       <c r="B255" t="s" s="0">
-        <v>242</v>
+        <v>159</v>
       </c>
       <c r="C255" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s" s="0">
-        <v>183</v>
+        <v>61</v>
       </c>
       <c r="B256" t="s" s="0">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C256" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s" s="0">
-        <v>183</v>
+        <v>61</v>
       </c>
       <c r="B257" t="s" s="0">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="C257" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s" s="0">
-        <v>183</v>
+        <v>61</v>
       </c>
       <c r="B258" t="s" s="0">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="C258" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s" s="0">
-        <v>183</v>
+        <v>61</v>
       </c>
       <c r="B259" t="s" s="0">
-        <v>243</v>
+        <v>152</v>
       </c>
       <c r="C259" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s" s="0">
-        <v>183</v>
+        <v>61</v>
       </c>
       <c r="B260" t="s" s="0">
-        <v>246</v>
+        <v>157</v>
       </c>
       <c r="C260" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s" s="0">
-        <v>183</v>
+        <v>61</v>
       </c>
       <c r="B261" t="s" s="0">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="C261" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s" s="0">
-        <v>183</v>
+        <v>61</v>
       </c>
       <c r="B262" t="s" s="0">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="C262" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s" s="0">
-        <v>183</v>
+        <v>61</v>
       </c>
       <c r="B263" t="s" s="0">
-        <v>5</v>
+        <v>225</v>
       </c>
       <c r="C263" t="s" s="0">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s" s="0">
-        <v>183</v>
+        <v>61</v>
       </c>
       <c r="B264" t="s" s="0">
-        <v>53</v>
+        <v>153</v>
       </c>
       <c r="C264" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s" s="0">
-        <v>183</v>
+        <v>61</v>
       </c>
       <c r="B265" t="s" s="0">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="C265" t="s" s="0">
         <v>348</v>
@@ -17712,90 +17943,827 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="0">
-        <v>183</v>
+        <v>61</v>
       </c>
       <c r="B266" t="s" s="0">
-        <v>12</v>
+        <v>220</v>
       </c>
       <c r="C266" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s" s="0">
-        <v>155</v>
+        <v>61</v>
       </c>
       <c r="B267" t="s" s="0">
-        <v>100</v>
+        <v>161</v>
       </c>
       <c r="C267" t="s" s="0">
-        <v>320</v>
+        <v>348</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s" s="0">
-        <v>155</v>
+        <v>61</v>
       </c>
       <c r="B268" t="s" s="0">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="C268" t="s" s="0">
-        <v>320</v>
+        <v>413</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s" s="0">
-        <v>155</v>
+        <v>61</v>
       </c>
       <c r="B269" t="s" s="0">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="C269" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s" s="0">
-        <v>155</v>
+        <v>61</v>
       </c>
       <c r="B270" t="s" s="0">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C270" t="s" s="0">
-        <v>346</v>
+        <v>337</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s" s="0">
-        <v>155</v>
+        <v>61</v>
       </c>
       <c r="B271" t="s" s="0">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="C271" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s" s="0">
-        <v>155</v>
+        <v>61</v>
       </c>
       <c r="B272" t="s" s="0">
-        <v>249</v>
+        <v>414</v>
       </c>
       <c r="C272" t="s" s="0">
-        <v>346</v>
+        <v>415</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B273" t="s" s="0">
+        <v>416</v>
+      </c>
+      <c r="C273" t="s" s="0">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B274" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C274" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B275" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="C275" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B276" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C276" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B277" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C277" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B278" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="C278" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B279" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C279" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B280" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C280" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B281" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C281" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B282" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="C282" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B283" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C283" t="s" s="0">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B284" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C284" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B285" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C285" t="s" s="0">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B286" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C286" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B287" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="C287" t="s" s="0">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="B288" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C288" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="B289" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="C289" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="B290" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="C290" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="B291" t="s" s="0">
+        <v>418</v>
+      </c>
+      <c r="C291" t="s" s="0">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="B292" t="s" s="0">
+        <v>419</v>
+      </c>
+      <c r="C292" t="s" s="0">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="B293" t="s" s="0">
+        <v>420</v>
+      </c>
+      <c r="C293" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="B294" t="s" s="0">
+        <v>421</v>
+      </c>
+      <c r="C294" t="s" s="0">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="B295" t="s" s="0">
+        <v>422</v>
+      </c>
+      <c r="C295" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="B296" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="C296" t="s" s="0">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="B297" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="C297" t="s" s="0">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="B298" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="C298" t="s" s="0">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="B299" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="C299" t="s" s="0">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="B300" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="C300" t="s" s="0">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="B301" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="C301" t="s" s="0">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="B302" t="s" s="0">
+        <v>237</v>
+      </c>
+      <c r="C302" t="s" s="0">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="B303" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="C303" t="s" s="0">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="B304" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="C304" t="s" s="0">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="B305" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="C305" t="s" s="0">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="B306" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C306" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="B307" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C307" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="B308" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="C308" t="s" s="0">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B309" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="C309" t="s" s="0">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B310" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="C310" t="s" s="0">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B311" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="C311" t="s" s="0">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B312" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="C312" t="s" s="0">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B313" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C313" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B314" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C314" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B315" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="C315" t="s" s="0">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="B316" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="C316" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="B317" t="s" s="0">
+        <v>426</v>
+      </c>
+      <c r="C317" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B318" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C318" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B319" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="C319" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B320" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="C320" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B321" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="C321" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B322" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="C322" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B323" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="C323" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B324" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C324" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B325" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="C325" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B326" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="C326" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B327" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C327" t="s" s="0">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B328" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C328" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B329" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C329" t="s" s="0">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B330" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C330" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B331" t="s" s="0">
+        <v>427</v>
+      </c>
+      <c r="C331" t="s" s="0">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B332" t="s" s="0">
+        <v>428</v>
+      </c>
+      <c r="C332" t="s" s="0">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s" s="0">
         <v>155</v>
       </c>
-      <c r="B273" t="s" s="0">
+      <c r="B333" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="C333" t="s" s="0">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B334" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C334" t="s" s="0">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B335" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C335" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B336" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C336" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B337" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="C337" t="s" s="0">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B338" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C338" t="s" s="0">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B339" t="s" s="0">
         <v>106</v>
       </c>
-      <c r="C273" t="s" s="0">
-        <v>320</v>
+      <c r="C339" t="s" s="0">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B340" t="s" s="0">
+        <v>429</v>
+      </c>
+      <c r="C340" t="s" s="0">
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -17905,7 +18873,7 @@
         <v>98</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>13</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6">
@@ -17933,7 +18901,7 @@
         <v>98</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>46</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -17947,7 +18915,7 @@
         <v>98</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
@@ -17975,7 +18943,7 @@
         <v>98</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>222</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
@@ -17989,7 +18957,7 @@
         <v>98</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>151</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12">
@@ -18003,7 +18971,7 @@
         <v>98</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>115</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
@@ -18017,7 +18985,7 @@
         <v>98</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>118</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14">
@@ -18031,7 +18999,7 @@
         <v>98</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>126</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15">
@@ -18045,7 +19013,7 @@
         <v>98</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>72</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16">
@@ -18059,7 +19027,7 @@
         <v>98</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>126</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17">
@@ -18073,7 +19041,7 @@
         <v>98</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>219</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18">
@@ -18087,7 +19055,7 @@
         <v>98</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>155</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19">
@@ -18101,7 +19069,7 @@
         <v>98</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>78</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20">
@@ -18115,7 +19083,7 @@
         <v>98</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21">
@@ -18227,7 +19195,7 @@
         <v>98</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29">
@@ -18241,7 +19209,7 @@
         <v>98</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
@@ -18249,13 +19217,13 @@
         <v>72</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>75</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31">
@@ -18263,13 +19231,13 @@
         <v>72</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>13</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32">
@@ -18297,7 +19265,7 @@
         <v>98</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34">
@@ -18311,7 +19279,7 @@
         <v>98</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35">
@@ -18364,10 +19332,10 @@
         <v>282</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>101</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39">
@@ -18378,10 +19346,10 @@
         <v>283</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>46</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40">
@@ -18409,7 +19377,7 @@
         <v>98</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42">
@@ -18423,7 +19391,7 @@
         <v>98</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43">
@@ -18473,13 +19441,13 @@
         <v>115</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47">
@@ -18487,7 +19455,7 @@
         <v>115</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>6</v>
@@ -18501,7 +19469,7 @@
         <v>115</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>6</v>
@@ -18515,13 +19483,13 @@
         <v>115</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50">
@@ -18557,7 +19525,7 @@
         <v>118</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>98</v>
@@ -18619,7 +19587,7 @@
         <v>98</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>189</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57">
@@ -18647,7 +19615,7 @@
         <v>98</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>61</v>
+        <v>189</v>
       </c>
     </row>
     <row r="59">
@@ -18661,7 +19629,7 @@
         <v>98</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>21</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60">
@@ -18675,7 +19643,7 @@
         <v>98</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61">
@@ -18703,7 +19671,7 @@
         <v>98</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>13</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63">
@@ -18739,7 +19707,7 @@
         <v>126</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>98</v>
@@ -18753,13 +19721,13 @@
         <v>126</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>75</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67">
@@ -18767,13 +19735,13 @@
         <v>126</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>13</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68">
@@ -18787,7 +19755,7 @@
         <v>98</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69">
@@ -18795,13 +19763,13 @@
         <v>142</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>151</v>
+        <v>115</v>
       </c>
     </row>
     <row r="70">
@@ -18809,7 +19777,7 @@
         <v>142</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>98</v>
@@ -18823,13 +19791,13 @@
         <v>142</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>75</v>
+        <v>155</v>
       </c>
     </row>
     <row r="72">
@@ -18837,7 +19805,7 @@
         <v>142</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>98</v>
@@ -18851,13 +19819,13 @@
         <v>142</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D73" t="s" s="0">
-        <v>115</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74">
@@ -18871,7 +19839,7 @@
         <v>98</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="75">
@@ -18879,13 +19847,13 @@
         <v>142</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>118</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76">
@@ -18893,13 +19861,13 @@
         <v>142</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="C76" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>151</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77">
@@ -18907,13 +19875,13 @@
         <v>142</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C77" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>75</v>
+        <v>118</v>
       </c>
     </row>
     <row r="78">
@@ -18921,13 +19889,13 @@
         <v>142</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="C78" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D78" t="s" s="0">
-        <v>75</v>
+        <v>151</v>
       </c>
     </row>
     <row r="79">
@@ -18963,13 +19931,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="C81" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D81" t="s" s="0">
-        <v>13</v>
+        <v>75</v>
       </c>
     </row>
     <row r="82">
@@ -18991,13 +19959,13 @@
         <v>79</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D83" t="s" s="0">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84">
@@ -19005,7 +19973,7 @@
         <v>79</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>98</v>
@@ -19019,7 +19987,7 @@
         <v>79</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>98</v>
@@ -19033,13 +20001,13 @@
         <v>79</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="C86" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D86" t="s" s="0">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="87">
@@ -19095,7 +20063,7 @@
         <v>98</v>
       </c>
       <c r="D90" t="s" s="0">
-        <v>151</v>
+        <v>78</v>
       </c>
     </row>
     <row r="91">
@@ -19103,13 +20071,13 @@
         <v>148</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D91" t="s" s="0">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="92">
@@ -19117,13 +20085,13 @@
         <v>148</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D92" t="s" s="0">
-        <v>75</v>
+        <v>115</v>
       </c>
     </row>
     <row r="93">
@@ -19145,13 +20113,13 @@
         <v>148</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D94" t="s" s="0">
-        <v>75</v>
+        <v>155</v>
       </c>
     </row>
     <row r="95">
@@ -19159,13 +20127,13 @@
         <v>148</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>302</v>
+        <v>269</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D95" t="s" s="0">
-        <v>75</v>
+        <v>118</v>
       </c>
     </row>
     <row r="96">
@@ -19179,7 +20147,7 @@
         <v>98</v>
       </c>
       <c r="D96" t="s" s="0">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="97">
@@ -19187,13 +20155,13 @@
         <v>148</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D97" t="s" s="0">
-        <v>118</v>
+        <v>75</v>
       </c>
     </row>
     <row r="98">
@@ -19201,7 +20169,7 @@
         <v>148</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>98</v>
@@ -19215,13 +20183,13 @@
         <v>148</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="C99" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D99" t="s" s="0">
-        <v>115</v>
+        <v>75</v>
       </c>
     </row>
     <row r="100">
@@ -19313,13 +20281,13 @@
         <v>181</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="C106" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D106" t="s" s="0">
-        <v>43</v>
+        <v>75</v>
       </c>
     </row>
     <row r="107">
@@ -19327,7 +20295,7 @@
         <v>181</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C107" t="s" s="0">
         <v>98</v>
@@ -19341,13 +20309,13 @@
         <v>181</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="C108" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D108" t="s" s="0">
-        <v>75</v>
+        <v>43</v>
       </c>
     </row>
     <row r="109">
@@ -19375,7 +20343,7 @@
         <v>98</v>
       </c>
       <c r="D110" t="s" s="0">
-        <v>21</v>
+        <v>61</v>
       </c>
     </row>
     <row r="111">
@@ -19389,7 +20357,7 @@
         <v>98</v>
       </c>
       <c r="D111" t="s" s="0">
-        <v>189</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112">
@@ -19417,7 +20385,7 @@
         <v>98</v>
       </c>
       <c r="D113" t="s" s="0">
-        <v>61</v>
+        <v>189</v>
       </c>
     </row>
     <row r="114">
@@ -19425,13 +20393,13 @@
         <v>165</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C114" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D114" t="s" s="0">
-        <v>75</v>
+        <v>43</v>
       </c>
     </row>
     <row r="115">
@@ -19439,13 +20407,13 @@
         <v>165</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C115" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D115" t="s" s="0">
-        <v>43</v>
+        <v>75</v>
       </c>
     </row>
     <row r="116">
@@ -19523,7 +20491,7 @@
         <v>199</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C121" t="s" s="0">
         <v>98</v>
@@ -19551,7 +20519,7 @@
         <v>202</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C123" t="s" s="0">
         <v>98</v>
@@ -19565,7 +20533,7 @@
         <v>205</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C124" t="s" s="0">
         <v>98</v>
@@ -19579,7 +20547,7 @@
         <v>205</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C125" t="s" s="0">
         <v>98</v>
@@ -19593,13 +20561,13 @@
         <v>205</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C126" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D126" t="s" s="0">
-        <v>199</v>
+        <v>43</v>
       </c>
     </row>
     <row r="127">
@@ -19607,13 +20575,13 @@
         <v>205</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C127" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D127" t="s" s="0">
-        <v>43</v>
+        <v>199</v>
       </c>
     </row>
     <row r="128">
@@ -19747,13 +20715,13 @@
         <v>61</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="C137" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D137" t="s" s="0">
-        <v>193</v>
+        <v>222</v>
       </c>
     </row>
     <row r="138">
@@ -19761,13 +20729,13 @@
         <v>61</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="C138" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D138" t="s" s="0">
-        <v>155</v>
+        <v>193</v>
       </c>
     </row>
     <row r="139">
@@ -19775,13 +20743,13 @@
         <v>61</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C139" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D139" t="s" s="0">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="140">
@@ -19789,13 +20757,13 @@
         <v>61</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C140" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D140" t="s" s="0">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="141">
@@ -19803,13 +20771,13 @@
         <v>61</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C141" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D141" t="s" s="0">
-        <v>151</v>
+        <v>115</v>
       </c>
     </row>
     <row r="142">
@@ -19817,13 +20785,13 @@
         <v>61</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C142" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D142" t="s" s="0">
-        <v>219</v>
+        <v>126</v>
       </c>
     </row>
     <row r="143">
@@ -19831,13 +20799,13 @@
         <v>61</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C143" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D143" t="s" s="0">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="144">
@@ -19845,13 +20813,13 @@
         <v>61</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C144" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D144" t="s" s="0">
-        <v>72</v>
+        <v>155</v>
       </c>
     </row>
     <row r="145">
@@ -19865,7 +20833,7 @@
         <v>98</v>
       </c>
       <c r="D145" t="s" s="0">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="146">
@@ -19873,13 +20841,13 @@
         <v>61</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C146" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D146" t="s" s="0">
-        <v>126</v>
+        <v>78</v>
       </c>
     </row>
     <row r="147">
@@ -19893,7 +20861,7 @@
         <v>98</v>
       </c>
       <c r="D147" t="s" s="0">
-        <v>78</v>
+        <v>151</v>
       </c>
     </row>
     <row r="148">
@@ -19907,7 +20875,7 @@
         <v>98</v>
       </c>
       <c r="D148" t="s" s="0">
-        <v>126</v>
+        <v>72</v>
       </c>
     </row>
     <row r="149">
@@ -19915,13 +20883,13 @@
         <v>208</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C149" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D149" t="s" s="0">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="150">
@@ -19929,13 +20897,13 @@
         <v>208</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C150" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D150" t="s" s="0">
-        <v>199</v>
+        <v>43</v>
       </c>
     </row>
     <row r="151">
@@ -19943,13 +20911,13 @@
         <v>208</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C151" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D151" t="s" s="0">
-        <v>13</v>
+        <v>199</v>
       </c>
     </row>
     <row r="152">
@@ -19957,7 +20925,7 @@
         <v>208</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C152" t="s" s="0">
         <v>98</v>
@@ -19971,7 +20939,7 @@
         <v>203</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C153" t="s" s="0">
         <v>98</v>
@@ -20083,13 +21051,13 @@
         <v>131</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C161" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D161" t="s" s="0">
-        <v>13</v>
+        <v>75</v>
       </c>
     </row>
     <row r="162">
@@ -20097,7 +21065,7 @@
         <v>131</v>
       </c>
       <c r="B162" t="s" s="0">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C162" t="s" s="0">
         <v>98</v>
@@ -20111,7 +21079,7 @@
         <v>131</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C163" t="s" s="0">
         <v>98</v>
@@ -20131,7 +21099,7 @@
         <v>98</v>
       </c>
       <c r="D164" t="s" s="0">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="165">
@@ -20139,7 +21107,7 @@
         <v>131</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C165" t="s" s="0">
         <v>98</v>
@@ -20173,7 +21141,7 @@
         <v>98</v>
       </c>
       <c r="D167" t="s" s="0">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="168">
@@ -20181,13 +21149,13 @@
         <v>131</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="C168" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D168" t="s" s="0">
-        <v>13</v>
+        <v>75</v>
       </c>
     </row>
     <row r="169">
@@ -20195,13 +21163,13 @@
         <v>131</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="C169" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D169" t="s" s="0">
-        <v>75</v>
+        <v>13</v>
       </c>
     </row>
     <row r="170">
@@ -20215,7 +21183,7 @@
         <v>98</v>
       </c>
       <c r="D170" t="s" s="0">
-        <v>13</v>
+        <v>43</v>
       </c>
     </row>
     <row r="171">
@@ -20223,13 +21191,13 @@
         <v>52</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C171" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D171" t="s" s="0">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="172">
@@ -20237,13 +21205,13 @@
         <v>52</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C172" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D172" t="s" s="0">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="173">
@@ -20251,13 +21219,13 @@
         <v>52</v>
       </c>
       <c r="B173" t="s" s="0">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C173" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D173" t="s" s="0">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="174">
@@ -20335,13 +21303,13 @@
         <v>183</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="C179" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D179" t="s" s="0">
-        <v>75</v>
+        <v>43</v>
       </c>
     </row>
     <row r="180">
@@ -20349,13 +21317,13 @@
         <v>183</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="C180" t="s" s="0">
         <v>98</v>
       </c>
       <c r="D180" t="s" s="0">
-        <v>43</v>
+        <v>75</v>
       </c>
     </row>
     <row r="181">
@@ -20419,7 +21387,7 @@
         <v>155</v>
       </c>
       <c r="B185" t="s" s="0">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C185" t="s" s="0">
         <v>98</v>

--- a/data/backend/order-client_structure.xlsx
+++ b/data/backend/order-client_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6563" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6563" uniqueCount="429">
   <si>
     <t>Class Name</t>
   </si>
@@ -1011,7 +1011,7 @@
     <t>Number of Lines</t>
   </si>
   <si>
-    <t>5</t>
+    <t>7</t>
   </si>
   <si>
     <t>118</t>
@@ -1026,90 +1026,90 @@
     <t>18</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>283</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>ClientNotFoundException(java.lang.String)</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>ClientNotFoundException()</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>OrderQuerySpecification(java.lang.String, java.lang.Integer, java.lang.Integer, org.andante.orders.enums.OrderSortingOrder)</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>OrderOutputDTO$OrderOutputDTOBuilder()</t>
+  </si>
+  <si>
+    <t>LocationNotFoundException(java.lang.String)</t>
+  </si>
+  <si>
+    <t>LocationNotFoundException()</t>
+  </si>
+  <si>
+    <t>OrderEntryConflictException(java.lang.String)</t>
+  </si>
+  <si>
+    <t>OrderEntryConflictException()</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>ClientDTO(java.lang.Long, java.lang.String, java.lang.String, java.lang.String, java.lang.String, java.util.Set)</t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>235</t>
-  </si>
-  <si>
-    <t>258</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>283</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>ClientNotFoundException(java.lang.String)</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>ClientNotFoundException()</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>OrderQuerySpecification(java.lang.String, java.lang.Integer, java.lang.Integer, org.andante.orders.enums.OrderSortingOrder)</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>OrderOutputDTO$OrderOutputDTOBuilder()</t>
-  </si>
-  <si>
-    <t>LocationNotFoundException(java.lang.String)</t>
-  </si>
-  <si>
-    <t>LocationNotFoundException()</t>
-  </si>
-  <si>
-    <t>OrderEntryConflictException(java.lang.String)</t>
-  </si>
-  <si>
-    <t>OrderEntryConflictException()</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>ClientDTO(java.lang.Long, java.lang.String, java.lang.String, java.lang.String, java.lang.String, java.util.Set)</t>
-  </si>
-  <si>
     <t>ClientDTO()</t>
   </si>
   <si>
@@ -1120,9 +1120,6 @@
   </si>
   <si>
     <t>InternalOrderException()</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>OrderSortingOrder(java.lang.String, int)</t>
@@ -14994,7 +14991,7 @@
         <v>240</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>345</v>
+        <v>334</v>
       </c>
     </row>
     <row r="43">
@@ -15002,7 +14999,7 @@
         <v>183</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="44">
@@ -15042,10 +15039,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
+        <v>346</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>347</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>348</v>
       </c>
     </row>
     <row r="3">
@@ -15053,7 +15050,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>321</v>
@@ -15067,7 +15064,7 @@
         <v>51</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5">
@@ -15078,7 +15075,7 @@
         <v>48</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6">
@@ -15089,7 +15086,7 @@
         <v>44</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7">
@@ -15100,7 +15097,7 @@
         <v>42</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8">
@@ -15111,7 +15108,7 @@
         <v>45</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9">
@@ -15122,7 +15119,7 @@
         <v>47</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10">
@@ -15133,7 +15130,7 @@
         <v>50</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11">
@@ -15144,7 +15141,7 @@
         <v>49</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="12">
@@ -15155,7 +15152,7 @@
         <v>54</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13">
@@ -15166,7 +15163,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="14">
@@ -15177,7 +15174,7 @@
         <v>53</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15">
@@ -15188,7 +15185,7 @@
         <v>20</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="16">
@@ -15199,7 +15196,7 @@
         <v>12</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="17">
@@ -15207,10 +15204,10 @@
         <v>41</v>
       </c>
       <c r="B17" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="C17" t="s" s="0">
         <v>352</v>
-      </c>
-      <c r="C17" t="s" s="0">
-        <v>353</v>
       </c>
     </row>
     <row r="18">
@@ -15221,7 +15218,7 @@
         <v>67</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="19">
@@ -15232,7 +15229,7 @@
         <v>66</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="20">
@@ -15243,7 +15240,7 @@
         <v>62</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="21">
@@ -15254,7 +15251,7 @@
         <v>63</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="22">
@@ -15265,7 +15262,7 @@
         <v>56</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="23">
@@ -15276,7 +15273,7 @@
         <v>57</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="24">
@@ -15287,7 +15284,7 @@
         <v>59</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="25">
@@ -15298,7 +15295,7 @@
         <v>68</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="26">
@@ -15309,7 +15306,7 @@
         <v>69</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="27">
@@ -15320,7 +15317,7 @@
         <v>65</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="28">
@@ -15331,7 +15328,7 @@
         <v>64</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="29">
@@ -15342,7 +15339,7 @@
         <v>58</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="30">
@@ -15353,7 +15350,7 @@
         <v>60</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="31">
@@ -15364,7 +15361,7 @@
         <v>12</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="32">
@@ -15372,7 +15369,7 @@
         <v>55</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>321</v>
@@ -15383,10 +15380,10 @@
         <v>70</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="34">
@@ -15394,7 +15391,7 @@
         <v>70</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>321</v>
@@ -15405,10 +15402,10 @@
         <v>71</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="36">
@@ -15416,7 +15413,7 @@
         <v>71</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>321</v>
@@ -15430,7 +15427,7 @@
         <v>51</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="38">
@@ -15441,7 +15438,7 @@
         <v>74</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="39">
@@ -15452,7 +15449,7 @@
         <v>83</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="40">
@@ -15463,7 +15460,7 @@
         <v>76</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="41">
@@ -15474,7 +15471,7 @@
         <v>81</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="42">
@@ -15485,7 +15482,7 @@
         <v>86</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="43">
@@ -15496,7 +15493,7 @@
         <v>77</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="44">
@@ -15507,7 +15504,7 @@
         <v>80</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="45">
@@ -15518,7 +15515,7 @@
         <v>85</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="46">
@@ -15529,7 +15526,7 @@
         <v>82</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="47">
@@ -15540,7 +15537,7 @@
         <v>87</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="48">
@@ -15551,7 +15548,7 @@
         <v>84</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="49">
@@ -15562,7 +15559,7 @@
         <v>73</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="50">
@@ -15573,7 +15570,7 @@
         <v>5</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="51">
@@ -15584,7 +15581,7 @@
         <v>53</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="52">
@@ -15606,7 +15603,7 @@
         <v>12</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="54">
@@ -15614,10 +15611,10 @@
         <v>72</v>
       </c>
       <c r="B54" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="C54" t="s" s="0">
         <v>361</v>
-      </c>
-      <c r="C54" t="s" s="0">
-        <v>334</v>
       </c>
     </row>
     <row r="55">
@@ -15639,7 +15636,7 @@
         <v>89</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="57">
@@ -15650,7 +15647,7 @@
         <v>91</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="58">
@@ -15661,7 +15658,7 @@
         <v>60</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="59">
@@ -15672,7 +15669,7 @@
         <v>12</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="60">
@@ -15694,7 +15691,7 @@
         <v>364</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="62">
@@ -15716,7 +15713,7 @@
         <v>100</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>366</v>
+        <v>320</v>
       </c>
     </row>
     <row r="64">
@@ -15727,7 +15724,7 @@
         <v>93</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>366</v>
+        <v>320</v>
       </c>
     </row>
     <row r="65">
@@ -15738,7 +15735,7 @@
         <v>96</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="66">
@@ -15749,7 +15746,7 @@
         <v>12</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="67">
@@ -15760,7 +15757,7 @@
         <v>108</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>366</v>
+        <v>320</v>
       </c>
     </row>
     <row r="68">
@@ -15771,7 +15768,7 @@
         <v>97</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>366</v>
+        <v>320</v>
       </c>
     </row>
     <row r="69">
@@ -15782,7 +15779,7 @@
         <v>106</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>366</v>
+        <v>320</v>
       </c>
     </row>
     <row r="70">
@@ -15790,10 +15787,10 @@
         <v>46</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>366</v>
+        <v>320</v>
       </c>
     </row>
     <row r="71">
@@ -15804,7 +15801,7 @@
         <v>51</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="72">
@@ -15815,7 +15812,7 @@
         <v>110</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="73">
@@ -15826,7 +15823,7 @@
         <v>112</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="74">
@@ -15834,10 +15831,10 @@
         <v>90</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="75">
@@ -15845,7 +15842,7 @@
         <v>90</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>321</v>
@@ -15856,10 +15853,10 @@
         <v>114</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="77">
@@ -15867,7 +15864,7 @@
         <v>114</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C77" t="s" s="0">
         <v>321</v>
@@ -15881,7 +15878,7 @@
         <v>100</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>366</v>
+        <v>320</v>
       </c>
     </row>
     <row r="79">
@@ -15892,7 +15889,7 @@
         <v>93</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>366</v>
+        <v>320</v>
       </c>
     </row>
     <row r="80">
@@ -15903,7 +15900,7 @@
         <v>96</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="81">
@@ -15914,7 +15911,7 @@
         <v>12</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="82">
@@ -15925,7 +15922,7 @@
         <v>108</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>366</v>
+        <v>320</v>
       </c>
     </row>
     <row r="83">
@@ -15936,7 +15933,7 @@
         <v>116</v>
       </c>
       <c r="C83" t="s" s="0">
-        <v>366</v>
+        <v>320</v>
       </c>
     </row>
     <row r="84">
@@ -15947,7 +15944,7 @@
         <v>106</v>
       </c>
       <c r="C84" t="s" s="0">
-        <v>366</v>
+        <v>320</v>
       </c>
     </row>
     <row r="85">
@@ -15955,10 +15952,10 @@
         <v>115</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C85" t="s" s="0">
-        <v>366</v>
+        <v>320</v>
       </c>
     </row>
     <row r="86">
@@ -15969,7 +15966,7 @@
         <v>100</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>366</v>
+        <v>320</v>
       </c>
     </row>
     <row r="87">
@@ -15980,7 +15977,7 @@
         <v>93</v>
       </c>
       <c r="C87" t="s" s="0">
-        <v>366</v>
+        <v>320</v>
       </c>
     </row>
     <row r="88">
@@ -15991,7 +15988,7 @@
         <v>96</v>
       </c>
       <c r="C88" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="89">
@@ -16002,7 +15999,7 @@
         <v>12</v>
       </c>
       <c r="C89" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="90">
@@ -16013,7 +16010,7 @@
         <v>108</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>366</v>
+        <v>320</v>
       </c>
     </row>
     <row r="91">
@@ -16024,7 +16021,7 @@
         <v>119</v>
       </c>
       <c r="C91" t="s" s="0">
-        <v>366</v>
+        <v>320</v>
       </c>
     </row>
     <row r="92">
@@ -16035,7 +16032,7 @@
         <v>106</v>
       </c>
       <c r="C92" t="s" s="0">
-        <v>366</v>
+        <v>320</v>
       </c>
     </row>
     <row r="93">
@@ -16043,10 +16040,10 @@
         <v>118</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C93" t="s" s="0">
-        <v>366</v>
+        <v>320</v>
       </c>
     </row>
     <row r="94">
@@ -16054,10 +16051,10 @@
         <v>121</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C94" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="95">
@@ -16065,7 +16062,7 @@
         <v>121</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>321</v>
@@ -16079,7 +16076,7 @@
         <v>67</v>
       </c>
       <c r="C96" t="s" s="0">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="97">
@@ -16090,7 +16087,7 @@
         <v>125</v>
       </c>
       <c r="C97" t="s" s="0">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="98">
@@ -16101,7 +16098,7 @@
         <v>124</v>
       </c>
       <c r="C98" t="s" s="0">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="99">
@@ -16112,7 +16109,7 @@
         <v>123</v>
       </c>
       <c r="C99" t="s" s="0">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="100">
@@ -16123,7 +16120,7 @@
         <v>60</v>
       </c>
       <c r="C100" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="101">
@@ -16134,7 +16131,7 @@
         <v>12</v>
       </c>
       <c r="C101" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="102">
@@ -16142,7 +16139,7 @@
         <v>122</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C102" t="s" s="0">
         <v>321</v>
@@ -16156,7 +16153,7 @@
         <v>51</v>
       </c>
       <c r="C103" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="104">
@@ -16167,7 +16164,7 @@
         <v>74</v>
       </c>
       <c r="C104" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="105">
@@ -16178,7 +16175,7 @@
         <v>135</v>
       </c>
       <c r="C105" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="106">
@@ -16189,7 +16186,7 @@
         <v>137</v>
       </c>
       <c r="C106" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="107">
@@ -16200,7 +16197,7 @@
         <v>138</v>
       </c>
       <c r="C107" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="108">
@@ -16211,7 +16208,7 @@
         <v>128</v>
       </c>
       <c r="C108" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="109">
@@ -16222,7 +16219,7 @@
         <v>133</v>
       </c>
       <c r="C109" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="110">
@@ -16233,7 +16230,7 @@
         <v>141</v>
       </c>
       <c r="C110" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="111">
@@ -16244,7 +16241,7 @@
         <v>77</v>
       </c>
       <c r="C111" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="112">
@@ -16255,7 +16252,7 @@
         <v>127</v>
       </c>
       <c r="C112" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="113">
@@ -16266,7 +16263,7 @@
         <v>80</v>
       </c>
       <c r="C113" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="114">
@@ -16277,7 +16274,7 @@
         <v>132</v>
       </c>
       <c r="C114" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="115">
@@ -16288,7 +16285,7 @@
         <v>130</v>
       </c>
       <c r="C115" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="116">
@@ -16299,7 +16296,7 @@
         <v>136</v>
       </c>
       <c r="C116" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="117">
@@ -16310,7 +16307,7 @@
         <v>129</v>
       </c>
       <c r="C117" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="118">
@@ -16321,7 +16318,7 @@
         <v>140</v>
       </c>
       <c r="C118" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="119">
@@ -16332,7 +16329,7 @@
         <v>134</v>
       </c>
       <c r="C119" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="120">
@@ -16343,7 +16340,7 @@
         <v>73</v>
       </c>
       <c r="C120" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="121">
@@ -16354,7 +16351,7 @@
         <v>139</v>
       </c>
       <c r="C121" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="122">
@@ -16365,7 +16362,7 @@
         <v>5</v>
       </c>
       <c r="C122" t="s" s="0">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="123">
@@ -16376,7 +16373,7 @@
         <v>53</v>
       </c>
       <c r="C123" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="124">
@@ -16387,7 +16384,7 @@
         <v>20</v>
       </c>
       <c r="C124" t="s" s="0">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="125">
@@ -16398,7 +16395,7 @@
         <v>12</v>
       </c>
       <c r="C125" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="126">
@@ -16406,10 +16403,10 @@
         <v>126</v>
       </c>
       <c r="B126" t="s" s="0">
+        <v>378</v>
+      </c>
+      <c r="C126" t="s" s="0">
         <v>379</v>
-      </c>
-      <c r="C126" t="s" s="0">
-        <v>380</v>
       </c>
     </row>
     <row r="127">
@@ -16417,7 +16414,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C127" t="s" s="0">
         <v>321</v>
@@ -16431,7 +16428,7 @@
         <v>51</v>
       </c>
       <c r="C128" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="129">
@@ -16442,7 +16439,7 @@
         <v>74</v>
       </c>
       <c r="C129" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="130">
@@ -16453,7 +16450,7 @@
         <v>150</v>
       </c>
       <c r="C130" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="131">
@@ -16464,7 +16461,7 @@
         <v>158</v>
       </c>
       <c r="C131" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="132">
@@ -16475,7 +16472,7 @@
         <v>154</v>
       </c>
       <c r="C132" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="133">
@@ -16486,7 +16483,7 @@
         <v>145</v>
       </c>
       <c r="C133" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="134">
@@ -16497,7 +16494,7 @@
         <v>146</v>
       </c>
       <c r="C134" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="135">
@@ -16508,7 +16505,7 @@
         <v>143</v>
       </c>
       <c r="C135" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="136">
@@ -16519,7 +16516,7 @@
         <v>149</v>
       </c>
       <c r="C136" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="137">
@@ -16530,7 +16527,7 @@
         <v>156</v>
       </c>
       <c r="C137" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="138">
@@ -16541,7 +16538,7 @@
         <v>159</v>
       </c>
       <c r="C138" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="139">
@@ -16552,7 +16549,7 @@
         <v>80</v>
       </c>
       <c r="C139" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="140">
@@ -16563,7 +16560,7 @@
         <v>147</v>
       </c>
       <c r="C140" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="141">
@@ -16574,7 +16571,7 @@
         <v>152</v>
       </c>
       <c r="C141" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="142">
@@ -16585,7 +16582,7 @@
         <v>157</v>
       </c>
       <c r="C142" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="143">
@@ -16596,7 +16593,7 @@
         <v>163</v>
       </c>
       <c r="C143" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="144">
@@ -16607,7 +16604,7 @@
         <v>160</v>
       </c>
       <c r="C144" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="145">
@@ -16618,7 +16615,7 @@
         <v>162</v>
       </c>
       <c r="C145" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="146">
@@ -16629,7 +16626,7 @@
         <v>153</v>
       </c>
       <c r="C146" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="147">
@@ -16640,7 +16637,7 @@
         <v>144</v>
       </c>
       <c r="C147" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="148">
@@ -16651,7 +16648,7 @@
         <v>161</v>
       </c>
       <c r="C148" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="149">
@@ -16662,7 +16659,7 @@
         <v>5</v>
       </c>
       <c r="C149" t="s" s="0">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="150">
@@ -16673,7 +16670,7 @@
         <v>53</v>
       </c>
       <c r="C150" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="151">
@@ -16684,7 +16681,7 @@
         <v>20</v>
       </c>
       <c r="C151" t="s" s="0">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="152">
@@ -16695,7 +16692,7 @@
         <v>12</v>
       </c>
       <c r="C152" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="153">
@@ -16703,10 +16700,10 @@
         <v>142</v>
       </c>
       <c r="B153" t="s" s="0">
+        <v>383</v>
+      </c>
+      <c r="C153" t="s" s="0">
         <v>384</v>
-      </c>
-      <c r="C153" t="s" s="0">
-        <v>385</v>
       </c>
     </row>
     <row r="154">
@@ -16714,7 +16711,7 @@
         <v>142</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C154" t="s" s="0">
         <v>321</v>
@@ -16728,7 +16725,7 @@
         <v>167</v>
       </c>
       <c r="C155" t="s" s="0">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="156">
@@ -16739,7 +16736,7 @@
         <v>166</v>
       </c>
       <c r="C156" t="s" s="0">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="157">
@@ -16750,7 +16747,7 @@
         <v>60</v>
       </c>
       <c r="C157" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="158">
@@ -16761,7 +16758,7 @@
         <v>12</v>
       </c>
       <c r="C158" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="159">
@@ -16769,7 +16766,7 @@
         <v>164</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C159" t="s" s="0">
         <v>321</v>
@@ -16783,7 +16780,7 @@
         <v>172</v>
       </c>
       <c r="C160" t="s" s="0">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="161">
@@ -16794,7 +16791,7 @@
         <v>173</v>
       </c>
       <c r="C161" t="s" s="0">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="162">
@@ -16805,7 +16802,7 @@
         <v>169</v>
       </c>
       <c r="C162" t="s" s="0">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="163">
@@ -16816,7 +16813,7 @@
         <v>168</v>
       </c>
       <c r="C163" t="s" s="0">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="164">
@@ -16827,7 +16824,7 @@
         <v>171</v>
       </c>
       <c r="C164" t="s" s="0">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="165">
@@ -16838,7 +16835,7 @@
         <v>170</v>
       </c>
       <c r="C165" t="s" s="0">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="166">
@@ -16849,7 +16846,7 @@
         <v>60</v>
       </c>
       <c r="C166" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="167">
@@ -16860,7 +16857,7 @@
         <v>12</v>
       </c>
       <c r="C167" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="168">
@@ -16868,7 +16865,7 @@
         <v>79</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C168" t="s" s="0">
         <v>321</v>
@@ -16879,10 +16876,10 @@
         <v>174</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C169" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="170">
@@ -16890,7 +16887,7 @@
         <v>174</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C170" t="s" s="0">
         <v>321</v>
@@ -16904,7 +16901,7 @@
         <v>172</v>
       </c>
       <c r="C171" t="s" s="0">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="172">
@@ -16915,7 +16912,7 @@
         <v>175</v>
       </c>
       <c r="C172" t="s" s="0">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="173">
@@ -16926,7 +16923,7 @@
         <v>63</v>
       </c>
       <c r="C173" t="s" s="0">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="174">
@@ -16937,7 +16934,7 @@
         <v>56</v>
       </c>
       <c r="C174" t="s" s="0">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="175">
@@ -16948,7 +16945,7 @@
         <v>176</v>
       </c>
       <c r="C175" t="s" s="0">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="176">
@@ -16959,7 +16956,7 @@
         <v>178</v>
       </c>
       <c r="C176" t="s" s="0">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="177">
@@ -16970,7 +16967,7 @@
         <v>177</v>
       </c>
       <c r="C177" t="s" s="0">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="178">
@@ -16981,7 +16978,7 @@
         <v>69</v>
       </c>
       <c r="C178" t="s" s="0">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="179">
@@ -16992,7 +16989,7 @@
         <v>65</v>
       </c>
       <c r="C179" t="s" s="0">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="180">
@@ -17003,7 +17000,7 @@
         <v>58</v>
       </c>
       <c r="C180" t="s" s="0">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="181">
@@ -17014,7 +17011,7 @@
         <v>60</v>
       </c>
       <c r="C181" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="182">
@@ -17025,7 +17022,7 @@
         <v>12</v>
       </c>
       <c r="C182" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="183">
@@ -17033,7 +17030,7 @@
         <v>148</v>
       </c>
       <c r="B183" t="s" s="0">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C183" t="s" s="0">
         <v>321</v>
@@ -17044,10 +17041,10 @@
         <v>179</v>
       </c>
       <c r="B184" t="s" s="0">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C184" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="185">
@@ -17055,7 +17052,7 @@
         <v>179</v>
       </c>
       <c r="B185" t="s" s="0">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C185" t="s" s="0">
         <v>321</v>
@@ -17066,10 +17063,10 @@
         <v>180</v>
       </c>
       <c r="B186" t="s" s="0">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C186" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="187">
@@ -17077,7 +17074,7 @@
         <v>180</v>
       </c>
       <c r="B187" t="s" s="0">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C187" t="s" s="0">
         <v>321</v>
@@ -17091,7 +17088,7 @@
         <v>184</v>
       </c>
       <c r="C188" t="s" s="0">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="189">
@@ -17102,7 +17099,7 @@
         <v>185</v>
       </c>
       <c r="C189" t="s" s="0">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="190">
@@ -17113,7 +17110,7 @@
         <v>182</v>
       </c>
       <c r="C190" t="s" s="0">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="191">
@@ -17124,7 +17121,7 @@
         <v>186</v>
       </c>
       <c r="C191" t="s" s="0">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="192">
@@ -17135,7 +17132,7 @@
         <v>60</v>
       </c>
       <c r="C192" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="193">
@@ -17146,7 +17143,7 @@
         <v>12</v>
       </c>
       <c r="C193" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="194">
@@ -17154,7 +17151,7 @@
         <v>181</v>
       </c>
       <c r="B194" t="s" s="0">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C194" t="s" s="0">
         <v>321</v>
@@ -17168,7 +17165,7 @@
         <v>51</v>
       </c>
       <c r="C195" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="196">
@@ -17179,7 +17176,7 @@
         <v>74</v>
       </c>
       <c r="C196" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="197">
@@ -17190,7 +17187,7 @@
         <v>187</v>
       </c>
       <c r="C197" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="198">
@@ -17201,7 +17198,7 @@
         <v>191</v>
       </c>
       <c r="C198" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="199">
@@ -17212,7 +17209,7 @@
         <v>188</v>
       </c>
       <c r="C199" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="200">
@@ -17223,7 +17220,7 @@
         <v>192</v>
       </c>
       <c r="C200" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="201">
@@ -17234,7 +17231,7 @@
         <v>194</v>
       </c>
       <c r="C201" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="202">
@@ -17245,7 +17242,7 @@
         <v>195</v>
       </c>
       <c r="C202" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="203">
@@ -17256,7 +17253,7 @@
         <v>190</v>
       </c>
       <c r="C203" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="204">
@@ -17267,7 +17264,7 @@
         <v>5</v>
       </c>
       <c r="C204" t="s" s="0">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="205">
@@ -17278,7 +17275,7 @@
         <v>53</v>
       </c>
       <c r="C205" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="206">
@@ -17289,7 +17286,7 @@
         <v>20</v>
       </c>
       <c r="C206" t="s" s="0">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="207">
@@ -17300,7 +17297,7 @@
         <v>12</v>
       </c>
       <c r="C207" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="208">
@@ -17308,10 +17305,10 @@
         <v>111</v>
       </c>
       <c r="B208" t="s" s="0">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C208" t="s" s="0">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="209">
@@ -17319,7 +17316,7 @@
         <v>111</v>
       </c>
       <c r="B209" t="s" s="0">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C209" t="s" s="0">
         <v>321</v>
@@ -17333,7 +17330,7 @@
         <v>51</v>
       </c>
       <c r="C210" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="211">
@@ -17344,7 +17341,7 @@
         <v>196</v>
       </c>
       <c r="C211" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="212">
@@ -17355,7 +17352,7 @@
         <v>197</v>
       </c>
       <c r="C212" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="213">
@@ -17363,10 +17360,10 @@
         <v>165</v>
       </c>
       <c r="B213" t="s" s="0">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C213" t="s" s="0">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="214">
@@ -17374,7 +17371,7 @@
         <v>165</v>
       </c>
       <c r="B214" t="s" s="0">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C214" t="s" s="0">
         <v>321</v>
@@ -17385,10 +17382,10 @@
         <v>198</v>
       </c>
       <c r="B215" t="s" s="0">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C215" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="216">
@@ -17396,7 +17393,7 @@
         <v>198</v>
       </c>
       <c r="B216" t="s" s="0">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C216" t="s" s="0">
         <v>321</v>
@@ -17410,7 +17407,7 @@
         <v>100</v>
       </c>
       <c r="C217" t="s" s="0">
-        <v>366</v>
+        <v>320</v>
       </c>
     </row>
     <row r="218">
@@ -17421,7 +17418,7 @@
         <v>93</v>
       </c>
       <c r="C218" t="s" s="0">
-        <v>366</v>
+        <v>320</v>
       </c>
     </row>
     <row r="219">
@@ -17432,7 +17429,7 @@
         <v>96</v>
       </c>
       <c r="C219" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="220">
@@ -17443,7 +17440,7 @@
         <v>12</v>
       </c>
       <c r="C220" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="221">
@@ -17454,7 +17451,7 @@
         <v>108</v>
       </c>
       <c r="C221" t="s" s="0">
-        <v>366</v>
+        <v>320</v>
       </c>
     </row>
     <row r="222">
@@ -17465,7 +17462,7 @@
         <v>200</v>
       </c>
       <c r="C222" t="s" s="0">
-        <v>366</v>
+        <v>320</v>
       </c>
     </row>
     <row r="223">
@@ -17476,7 +17473,7 @@
         <v>106</v>
       </c>
       <c r="C223" t="s" s="0">
-        <v>366</v>
+        <v>320</v>
       </c>
     </row>
     <row r="224">
@@ -17484,10 +17481,10 @@
         <v>199</v>
       </c>
       <c r="B224" t="s" s="0">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C224" t="s" s="0">
-        <v>366</v>
+        <v>320</v>
       </c>
     </row>
     <row r="225">
@@ -17498,7 +17495,7 @@
         <v>204</v>
       </c>
       <c r="C225" t="s" s="0">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="226">
@@ -17509,7 +17506,7 @@
         <v>91</v>
       </c>
       <c r="C226" t="s" s="0">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="227">
@@ -17520,7 +17517,7 @@
         <v>60</v>
       </c>
       <c r="C227" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="228">
@@ -17531,7 +17528,7 @@
         <v>12</v>
       </c>
       <c r="C228" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="229">
@@ -17539,7 +17536,7 @@
         <v>202</v>
       </c>
       <c r="B229" t="s" s="0">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C229" t="s" s="0">
         <v>321</v>
@@ -17553,7 +17550,7 @@
         <v>206</v>
       </c>
       <c r="C230" t="s" s="0">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="231">
@@ -17564,7 +17561,7 @@
         <v>209</v>
       </c>
       <c r="C231" t="s" s="0">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="232">
@@ -17575,7 +17572,7 @@
         <v>207</v>
       </c>
       <c r="C232" t="s" s="0">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="233">
@@ -17586,7 +17583,7 @@
         <v>210</v>
       </c>
       <c r="C233" t="s" s="0">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="234">
@@ -17597,7 +17594,7 @@
         <v>60</v>
       </c>
       <c r="C234" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="235">
@@ -17608,7 +17605,7 @@
         <v>12</v>
       </c>
       <c r="C235" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="236">
@@ -17616,7 +17613,7 @@
         <v>205</v>
       </c>
       <c r="B236" t="s" s="0">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C236" t="s" s="0">
         <v>321</v>
@@ -17627,10 +17624,10 @@
         <v>211</v>
       </c>
       <c r="B237" t="s" s="0">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C237" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="238">
@@ -17638,7 +17635,7 @@
         <v>211</v>
       </c>
       <c r="B238" t="s" s="0">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C238" t="s" s="0">
         <v>321</v>
@@ -17649,10 +17646,10 @@
         <v>212</v>
       </c>
       <c r="B239" t="s" s="0">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C239" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="240">
@@ -17660,7 +17657,7 @@
         <v>212</v>
       </c>
       <c r="B240" t="s" s="0">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C240" t="s" s="0">
         <v>321</v>
@@ -17671,10 +17668,10 @@
         <v>213</v>
       </c>
       <c r="B241" t="s" s="0">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C241" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="242">
@@ -17682,7 +17679,7 @@
         <v>213</v>
       </c>
       <c r="B242" t="s" s="0">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C242" t="s" s="0">
         <v>321</v>
@@ -17696,7 +17693,7 @@
         <v>51</v>
       </c>
       <c r="C243" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="244">
@@ -17707,7 +17704,7 @@
         <v>74</v>
       </c>
       <c r="C244" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="245">
@@ -17718,7 +17715,7 @@
         <v>223</v>
       </c>
       <c r="C245" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="246">
@@ -17729,7 +17726,7 @@
         <v>150</v>
       </c>
       <c r="C246" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="247">
@@ -17740,7 +17737,7 @@
         <v>158</v>
       </c>
       <c r="C247" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="248">
@@ -17751,7 +17748,7 @@
         <v>154</v>
       </c>
       <c r="C248" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="249">
@@ -17762,7 +17759,7 @@
         <v>226</v>
       </c>
       <c r="C249" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="250">
@@ -17773,7 +17770,7 @@
         <v>217</v>
       </c>
       <c r="C250" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="251">
@@ -17784,7 +17781,7 @@
         <v>227</v>
       </c>
       <c r="C251" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="252">
@@ -17795,7 +17792,7 @@
         <v>149</v>
       </c>
       <c r="C252" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="253">
@@ -17806,7 +17803,7 @@
         <v>156</v>
       </c>
       <c r="C253" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="254">
@@ -17817,7 +17814,7 @@
         <v>218</v>
       </c>
       <c r="C254" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="255">
@@ -17828,7 +17825,7 @@
         <v>159</v>
       </c>
       <c r="C255" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="256">
@@ -17839,7 +17836,7 @@
         <v>192</v>
       </c>
       <c r="C256" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="257">
@@ -17850,7 +17847,7 @@
         <v>214</v>
       </c>
       <c r="C257" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="258">
@@ -17861,7 +17858,7 @@
         <v>221</v>
       </c>
       <c r="C258" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="259">
@@ -17872,7 +17869,7 @@
         <v>152</v>
       </c>
       <c r="C259" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="260">
@@ -17883,7 +17880,7 @@
         <v>157</v>
       </c>
       <c r="C260" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="261">
@@ -17894,7 +17891,7 @@
         <v>216</v>
       </c>
       <c r="C261" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="262">
@@ -17905,7 +17902,7 @@
         <v>215</v>
       </c>
       <c r="C262" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="263">
@@ -17916,7 +17913,7 @@
         <v>225</v>
       </c>
       <c r="C263" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="264">
@@ -17927,7 +17924,7 @@
         <v>153</v>
       </c>
       <c r="C264" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="265">
@@ -17938,7 +17935,7 @@
         <v>144</v>
       </c>
       <c r="C265" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="266">
@@ -17949,7 +17946,7 @@
         <v>220</v>
       </c>
       <c r="C266" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="267">
@@ -17960,7 +17957,7 @@
         <v>161</v>
       </c>
       <c r="C267" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="268">
@@ -17971,7 +17968,7 @@
         <v>5</v>
       </c>
       <c r="C268" t="s" s="0">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="269">
@@ -17982,7 +17979,7 @@
         <v>53</v>
       </c>
       <c r="C269" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="270">
@@ -18004,7 +18001,7 @@
         <v>12</v>
       </c>
       <c r="C271" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="272">
@@ -18012,10 +18009,10 @@
         <v>61</v>
       </c>
       <c r="B272" t="s" s="0">
+        <v>413</v>
+      </c>
+      <c r="C272" t="s" s="0">
         <v>414</v>
-      </c>
-      <c r="C272" t="s" s="0">
-        <v>415</v>
       </c>
     </row>
     <row r="273">
@@ -18023,7 +18020,7 @@
         <v>61</v>
       </c>
       <c r="B273" t="s" s="0">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C273" t="s" s="0">
         <v>321</v>
@@ -18037,7 +18034,7 @@
         <v>51</v>
       </c>
       <c r="C274" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="275">
@@ -18048,7 +18045,7 @@
         <v>48</v>
       </c>
       <c r="C275" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="276">
@@ -18059,7 +18056,7 @@
         <v>44</v>
       </c>
       <c r="C276" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="277">
@@ -18070,7 +18067,7 @@
         <v>42</v>
       </c>
       <c r="C277" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="278">
@@ -18081,7 +18078,7 @@
         <v>45</v>
       </c>
       <c r="C278" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="279">
@@ -18092,7 +18089,7 @@
         <v>47</v>
       </c>
       <c r="C279" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="280">
@@ -18103,7 +18100,7 @@
         <v>50</v>
       </c>
       <c r="C280" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="281">
@@ -18114,7 +18111,7 @@
         <v>49</v>
       </c>
       <c r="C281" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="282">
@@ -18125,7 +18122,7 @@
         <v>228</v>
       </c>
       <c r="C282" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="283">
@@ -18136,7 +18133,7 @@
         <v>5</v>
       </c>
       <c r="C283" t="s" s="0">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="284">
@@ -18147,7 +18144,7 @@
         <v>53</v>
       </c>
       <c r="C284" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="285">
@@ -18158,7 +18155,7 @@
         <v>20</v>
       </c>
       <c r="C285" t="s" s="0">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="286">
@@ -18169,7 +18166,7 @@
         <v>12</v>
       </c>
       <c r="C286" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="287">
@@ -18177,10 +18174,10 @@
         <v>208</v>
       </c>
       <c r="B287" t="s" s="0">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C287" t="s" s="0">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="288">
@@ -18191,7 +18188,7 @@
         <v>51</v>
       </c>
       <c r="C288" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="289">
@@ -18202,7 +18199,7 @@
         <v>229</v>
       </c>
       <c r="C289" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="290">
@@ -18213,7 +18210,7 @@
         <v>112</v>
       </c>
       <c r="C290" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="291">
@@ -18221,10 +18218,10 @@
         <v>203</v>
       </c>
       <c r="B291" t="s" s="0">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C291" t="s" s="0">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="292">
@@ -18232,7 +18229,7 @@
         <v>203</v>
       </c>
       <c r="B292" t="s" s="0">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C292" t="s" s="0">
         <v>321</v>
@@ -18243,10 +18240,10 @@
         <v>230</v>
       </c>
       <c r="B293" t="s" s="0">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C293" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="294">
@@ -18254,7 +18251,7 @@
         <v>230</v>
       </c>
       <c r="B294" t="s" s="0">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C294" t="s" s="0">
         <v>321</v>
@@ -18265,10 +18262,10 @@
         <v>231</v>
       </c>
       <c r="B295" t="s" s="0">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C295" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="296">
@@ -18276,7 +18273,7 @@
         <v>231</v>
       </c>
       <c r="B296" t="s" s="0">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C296" t="s" s="0">
         <v>321</v>
@@ -18290,7 +18287,7 @@
         <v>172</v>
       </c>
       <c r="C297" t="s" s="0">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="298">
@@ -18301,7 +18298,7 @@
         <v>233</v>
       </c>
       <c r="C298" t="s" s="0">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="299">
@@ -18312,7 +18309,7 @@
         <v>238</v>
       </c>
       <c r="C299" t="s" s="0">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="300">
@@ -18323,7 +18320,7 @@
         <v>236</v>
       </c>
       <c r="C300" t="s" s="0">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="301">
@@ -18334,7 +18331,7 @@
         <v>234</v>
       </c>
       <c r="C301" t="s" s="0">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="302">
@@ -18345,7 +18342,7 @@
         <v>237</v>
       </c>
       <c r="C302" t="s" s="0">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="303">
@@ -18356,7 +18353,7 @@
         <v>235</v>
       </c>
       <c r="C303" t="s" s="0">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="304">
@@ -18367,7 +18364,7 @@
         <v>170</v>
       </c>
       <c r="C304" t="s" s="0">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="305">
@@ -18378,7 +18375,7 @@
         <v>232</v>
       </c>
       <c r="C305" t="s" s="0">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="306">
@@ -18389,7 +18386,7 @@
         <v>60</v>
       </c>
       <c r="C306" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="307">
@@ -18400,7 +18397,7 @@
         <v>12</v>
       </c>
       <c r="C307" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="308">
@@ -18408,7 +18405,7 @@
         <v>131</v>
       </c>
       <c r="B308" t="s" s="0">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C308" t="s" s="0">
         <v>321</v>
@@ -18422,7 +18419,7 @@
         <v>206</v>
       </c>
       <c r="C309" t="s" s="0">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="310">
@@ -18433,7 +18430,7 @@
         <v>209</v>
       </c>
       <c r="C310" t="s" s="0">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="311">
@@ -18444,7 +18441,7 @@
         <v>207</v>
       </c>
       <c r="C311" t="s" s="0">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="312">
@@ -18455,7 +18452,7 @@
         <v>239</v>
       </c>
       <c r="C312" t="s" s="0">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="313">
@@ -18466,7 +18463,7 @@
         <v>60</v>
       </c>
       <c r="C313" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="314">
@@ -18477,7 +18474,7 @@
         <v>12</v>
       </c>
       <c r="C314" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="315">
@@ -18485,7 +18482,7 @@
         <v>52</v>
       </c>
       <c r="B315" t="s" s="0">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C315" t="s" s="0">
         <v>321</v>
@@ -18499,7 +18496,7 @@
         <v>241</v>
       </c>
       <c r="C316" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="317">
@@ -18507,10 +18504,10 @@
         <v>240</v>
       </c>
       <c r="B317" t="s" s="0">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C317" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="318">
@@ -18521,7 +18518,7 @@
         <v>51</v>
       </c>
       <c r="C318" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="319">
@@ -18532,7 +18529,7 @@
         <v>242</v>
       </c>
       <c r="C319" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="320">
@@ -18543,7 +18540,7 @@
         <v>187</v>
       </c>
       <c r="C320" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="321">
@@ -18554,7 +18551,7 @@
         <v>244</v>
       </c>
       <c r="C321" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="322">
@@ -18565,7 +18562,7 @@
         <v>245</v>
       </c>
       <c r="C322" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="323">
@@ -18576,7 +18573,7 @@
         <v>243</v>
       </c>
       <c r="C323" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="324">
@@ -18587,7 +18584,7 @@
         <v>246</v>
       </c>
       <c r="C324" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="325">
@@ -18598,7 +18595,7 @@
         <v>248</v>
       </c>
       <c r="C325" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="326">
@@ -18609,7 +18606,7 @@
         <v>247</v>
       </c>
       <c r="C326" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="327">
@@ -18620,7 +18617,7 @@
         <v>5</v>
       </c>
       <c r="C327" t="s" s="0">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="328">
@@ -18631,7 +18628,7 @@
         <v>53</v>
       </c>
       <c r="C328" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="329">
@@ -18642,7 +18639,7 @@
         <v>20</v>
       </c>
       <c r="C329" t="s" s="0">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="330">
@@ -18653,7 +18650,7 @@
         <v>12</v>
       </c>
       <c r="C330" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="331">
@@ -18661,10 +18658,10 @@
         <v>183</v>
       </c>
       <c r="B331" t="s" s="0">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C331" t="s" s="0">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="332">
@@ -18672,7 +18669,7 @@
         <v>183</v>
       </c>
       <c r="B332" t="s" s="0">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C332" t="s" s="0">
         <v>321</v>
@@ -18686,7 +18683,7 @@
         <v>100</v>
       </c>
       <c r="C333" t="s" s="0">
-        <v>366</v>
+        <v>320</v>
       </c>
     </row>
     <row r="334">
@@ -18697,7 +18694,7 @@
         <v>93</v>
       </c>
       <c r="C334" t="s" s="0">
-        <v>366</v>
+        <v>320</v>
       </c>
     </row>
     <row r="335">
@@ -18708,7 +18705,7 @@
         <v>96</v>
       </c>
       <c r="C335" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="336">
@@ -18719,7 +18716,7 @@
         <v>12</v>
       </c>
       <c r="C336" t="s" s="0">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="337">
@@ -18730,7 +18727,7 @@
         <v>108</v>
       </c>
       <c r="C337" t="s" s="0">
-        <v>366</v>
+        <v>320</v>
       </c>
     </row>
     <row r="338">
@@ -18741,7 +18738,7 @@
         <v>249</v>
       </c>
       <c r="C338" t="s" s="0">
-        <v>366</v>
+        <v>320</v>
       </c>
     </row>
     <row r="339">
@@ -18752,7 +18749,7 @@
         <v>106</v>
       </c>
       <c r="C339" t="s" s="0">
-        <v>366</v>
+        <v>320</v>
       </c>
     </row>
     <row r="340">
@@ -18760,10 +18757,10 @@
         <v>155</v>
       </c>
       <c r="B340" t="s" s="0">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C340" t="s" s="0">
-        <v>366</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>

--- a/data/backend/order-client_structure.xlsx
+++ b/data/backend/order-client_structure.xlsx
@@ -996,88 +996,91 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>serialVersionUID</t>
+  </si>
+  <si>
     <t>$assertionsDisabled</t>
   </si>
   <si>
-    <t>serialVersionUID</t>
-  </si>
-  <si>
     <t>pageNumber</t>
   </si>
   <si>
+    <t>rsqlQuery</t>
+  </si>
+  <si>
+    <t>pageSize</t>
+  </si>
+  <si>
     <t>sortingOrder</t>
   </si>
   <si>
-    <t>rsqlQuery</t>
-  </si>
-  <si>
-    <t>pageSize</t>
+    <t>totalCost</t>
+  </si>
+  <si>
+    <t>creationTimestamp</t>
+  </si>
+  <si>
+    <t>deliveryMethod</t>
+  </si>
+  <si>
+    <t>orderEntriesIds</t>
+  </si>
+  <si>
+    <t>deliveryLocation</t>
   </si>
   <si>
     <t>location</t>
   </si>
   <si>
-    <t>totalCost</t>
-  </si>
-  <si>
     <t>client</t>
   </si>
   <si>
+    <t>status</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
+    <t>deliveryCost</t>
+  </si>
+  <si>
+    <t>paymentCost</t>
+  </si>
+  <si>
     <t>paymentMethod</t>
   </si>
   <si>
-    <t>deliveryCost</t>
-  </si>
-  <si>
-    <t>deliveryMethod</t>
-  </si>
-  <si>
-    <t>deliveryLocation</t>
-  </si>
-  <si>
-    <t>creationTimestamp</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>paymentCost</t>
-  </si>
-  <si>
-    <t>orderEntriesIds</t>
-  </si>
-  <si>
     <t>surname</t>
   </si>
   <si>
+    <t>orderIds</t>
+  </si>
+  <si>
+    <t>emailAddress</t>
+  </si>
+  <si>
     <t>phoneNumber</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>orderIds</t>
-  </si>
-  <si>
-    <t>emailAddress</t>
+    <t>orderEntries</t>
   </si>
   <si>
     <t>operationType</t>
   </si>
   <si>
-    <t>orderEntries</t>
+    <t>NEWEST_FIRST</t>
+  </si>
+  <si>
+    <t>$VALUES</t>
   </si>
   <si>
     <t>OLDEST_FIRST</t>
   </si>
   <si>
-    <t>$VALUES</t>
-  </si>
-  <si>
-    <t>NEWEST_FIRST</t>
+    <t>CANCELED</t>
   </si>
   <si>
     <t>NEW</t>
@@ -1086,9 +1089,6 @@
     <t>COMPLETED</t>
   </si>
   <si>
-    <t>CANCELED</t>
-  </si>
-  <si>
     <t>COURIER</t>
   </si>
   <si>
@@ -1098,33 +1098,33 @@
     <t>order</t>
   </si>
   <si>
+    <t>productVariant</t>
+  </si>
+  <si>
     <t>quantity</t>
   </si>
   <si>
-    <t>productVariant</t>
+    <t>street</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>flatNumber</t>
+  </si>
+  <si>
+    <t>postCode</t>
   </si>
   <si>
     <t>streetNumber</t>
   </si>
   <si>
-    <t>city</t>
-  </si>
-  <si>
     <t>deliveryOrdersIds</t>
   </si>
   <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>street</t>
-  </si>
-  <si>
-    <t>flatNumber</t>
-  </si>
-  <si>
-    <t>postCode</t>
-  </si>
-  <si>
     <t>clientId</t>
   </si>
   <si>
@@ -1134,21 +1134,21 @@
     <t>locationId</t>
   </si>
   <si>
+    <t>variantId</t>
+  </si>
+  <si>
     <t>orderedQuantityChange</t>
   </si>
   <si>
-    <t>variantId</t>
+    <t>productVariantId</t>
+  </si>
+  <si>
+    <t>orderId</t>
   </si>
   <si>
     <t>identifier</t>
   </si>
   <si>
-    <t>productVariantId</t>
-  </si>
-  <si>
-    <t>orderId</t>
-  </si>
-  <si>
     <t>ALPHABETICAL_STREET</t>
   </si>
   <si>
@@ -1161,10 +1161,10 @@
     <t>violationMessages</t>
   </si>
   <si>
+    <t>VISA</t>
+  </si>
+  <si>
     <t>GOOGLE_PAY</t>
-  </si>
-  <si>
-    <t>VISA</t>
   </si>
   <si>
     <t>PAY_U</t>
@@ -19766,7 +19766,7 @@
         <v>18</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>7</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3">
@@ -19780,7 +19780,7 @@
         <v>18</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>231</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -19788,7 +19788,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>18</v>
@@ -19822,7 +19822,7 @@
         <v>110</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>48</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -19836,7 +19836,7 @@
         <v>110</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8">
@@ -19850,7 +19850,7 @@
         <v>110</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9">
@@ -19864,7 +19864,7 @@
         <v>110</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>149</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10">
@@ -19878,7 +19878,7 @@
         <v>110</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11">
@@ -19892,7 +19892,7 @@
         <v>110</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>80</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12">
@@ -19906,7 +19906,7 @@
         <v>110</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>231</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13">
@@ -19920,7 +19920,7 @@
         <v>110</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>182</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14">
@@ -19934,7 +19934,7 @@
         <v>110</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>274</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15">
@@ -19948,7 +19948,7 @@
         <v>110</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>137</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16">
@@ -19962,7 +19962,7 @@
         <v>110</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>149</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17">
@@ -19976,7 +19976,7 @@
         <v>110</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>277</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18">
@@ -19990,7 +19990,7 @@
         <v>110</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>133</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19">
@@ -20018,7 +20018,7 @@
         <v>110</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>86</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21">
@@ -20032,7 +20032,7 @@
         <v>18</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>7</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22">
@@ -20046,7 +20046,7 @@
         <v>18</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>231</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -20054,7 +20054,7 @@
         <v>74</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>18</v>
@@ -20074,7 +20074,7 @@
         <v>18</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>7</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25">
@@ -20088,7 +20088,7 @@
         <v>18</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>231</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -20096,7 +20096,7 @@
         <v>77</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>18</v>
@@ -20110,13 +20110,13 @@
         <v>80</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>83</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
@@ -20124,13 +20124,13 @@
         <v>80</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>14</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29">
@@ -20144,7 +20144,7 @@
         <v>110</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>14</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30">
@@ -20172,7 +20172,7 @@
         <v>110</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>86</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32">
@@ -20200,7 +20200,7 @@
         <v>110</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34">
@@ -20214,7 +20214,7 @@
         <v>110</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35">
@@ -20228,7 +20228,7 @@
         <v>18</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>7</v>
+        <v>231</v>
       </c>
     </row>
     <row r="36">
@@ -20242,7 +20242,7 @@
         <v>18</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>231</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
@@ -20250,7 +20250,7 @@
         <v>103</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>18</v>
@@ -20312,7 +20312,7 @@
         <v>110</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42">
@@ -20326,7 +20326,7 @@
         <v>110</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43">
@@ -20340,7 +20340,7 @@
         <v>18</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>7</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44">
@@ -20354,7 +20354,7 @@
         <v>18</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>231</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
@@ -20362,7 +20362,7 @@
         <v>130</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>18</v>
@@ -20390,13 +20390,13 @@
         <v>133</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48">
@@ -20404,7 +20404,7 @@
         <v>133</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>6</v>
@@ -20418,13 +20418,13 @@
         <v>133</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>110</v>
+        <v>6</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50">
@@ -20446,13 +20446,13 @@
         <v>137</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>110</v>
+        <v>6</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52">
@@ -20460,13 +20460,13 @@
         <v>137</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53">
@@ -20480,7 +20480,7 @@
         <v>18</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>7</v>
+        <v>231</v>
       </c>
     </row>
     <row r="54">
@@ -20494,7 +20494,7 @@
         <v>18</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>231</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55">
@@ -20502,7 +20502,7 @@
         <v>141</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>18</v>
@@ -20516,13 +20516,13 @@
         <v>144</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>333</v>
+        <v>357</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>231</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57">
@@ -20530,13 +20530,13 @@
         <v>144</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>67</v>
+        <v>226</v>
       </c>
     </row>
     <row r="58">
@@ -20544,7 +20544,7 @@
         <v>144</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>110</v>
@@ -20558,13 +20558,13 @@
         <v>144</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="60">
@@ -20586,13 +20586,13 @@
         <v>149</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>14</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62">
@@ -20600,13 +20600,13 @@
         <v>149</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>86</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63">
@@ -20614,13 +20614,13 @@
         <v>149</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>86</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64">
@@ -20628,7 +20628,7 @@
         <v>149</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>333</v>
+        <v>363</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>110</v>
@@ -20642,7 +20642,7 @@
         <v>149</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>110</v>
@@ -20656,13 +20656,13 @@
         <v>149</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>364</v>
+        <v>338</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>14</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67">
@@ -20676,7 +20676,7 @@
         <v>110</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>83</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68">
@@ -20690,7 +20690,7 @@
         <v>110</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>14</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69">
@@ -20698,7 +20698,7 @@
         <v>167</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>110</v>
@@ -20712,13 +20712,13 @@
         <v>167</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>368</v>
+        <v>332</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>83</v>
+        <v>137</v>
       </c>
     </row>
     <row r="71">
@@ -20726,13 +20726,13 @@
         <v>167</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>83</v>
+        <v>182</v>
       </c>
     </row>
     <row r="72">
@@ -20740,13 +20740,13 @@
         <v>167</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>178</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73">
@@ -20754,13 +20754,13 @@
         <v>167</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D73" t="s" s="0">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74">
@@ -20768,13 +20768,13 @@
         <v>167</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>137</v>
+        <v>178</v>
       </c>
     </row>
     <row r="75">
@@ -20782,13 +20782,13 @@
         <v>167</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="76">
@@ -20796,13 +20796,13 @@
         <v>167</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C76" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>178</v>
+        <v>133</v>
       </c>
     </row>
     <row r="77">
@@ -20810,7 +20810,7 @@
         <v>167</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C77" t="s" s="0">
         <v>110</v>
@@ -20824,13 +20824,13 @@
         <v>167</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>339</v>
+        <v>369</v>
       </c>
       <c r="C78" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D78" t="s" s="0">
-        <v>133</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79">
@@ -20844,7 +20844,7 @@
         <v>110</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>45</v>
+        <v>83</v>
       </c>
     </row>
     <row r="80">
@@ -20858,7 +20858,7 @@
         <v>110</v>
       </c>
       <c r="D80" t="s" s="0">
-        <v>83</v>
+        <v>45</v>
       </c>
     </row>
     <row r="81">
@@ -20866,13 +20866,13 @@
         <v>87</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="C81" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D81" t="s" s="0">
-        <v>83</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82">
@@ -20880,7 +20880,7 @@
         <v>87</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C82" t="s" s="0">
         <v>110</v>
@@ -20894,13 +20894,13 @@
         <v>87</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D83" t="s" s="0">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="84">
@@ -20908,7 +20908,7 @@
         <v>87</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>110</v>
@@ -20928,7 +20928,7 @@
         <v>110</v>
       </c>
       <c r="D85" t="s" s="0">
-        <v>14</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86">
@@ -20936,7 +20936,7 @@
         <v>87</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C86" t="s" s="0">
         <v>110</v>
@@ -20956,7 +20956,7 @@
         <v>18</v>
       </c>
       <c r="D87" t="s" s="0">
-        <v>7</v>
+        <v>231</v>
       </c>
     </row>
     <row r="88">
@@ -20970,7 +20970,7 @@
         <v>18</v>
       </c>
       <c r="D88" t="s" s="0">
-        <v>231</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89">
@@ -20978,7 +20978,7 @@
         <v>203</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C89" t="s" s="0">
         <v>18</v>
@@ -20992,13 +20992,13 @@
         <v>175</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>368</v>
+        <v>337</v>
       </c>
       <c r="C90" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D90" t="s" s="0">
-        <v>83</v>
+        <v>133</v>
       </c>
     </row>
     <row r="91">
@@ -21006,13 +21006,13 @@
         <v>175</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D91" t="s" s="0">
-        <v>133</v>
+        <v>86</v>
       </c>
     </row>
     <row r="92">
@@ -21020,13 +21020,13 @@
         <v>175</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D92" t="s" s="0">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="93">
@@ -21034,7 +21034,7 @@
         <v>175</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C93" t="s" s="0">
         <v>110</v>
@@ -21048,13 +21048,13 @@
         <v>175</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>335</v>
+        <v>367</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D94" t="s" s="0">
-        <v>178</v>
+        <v>83</v>
       </c>
     </row>
     <row r="95">
@@ -21076,13 +21076,13 @@
         <v>175</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="C96" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D96" t="s" s="0">
-        <v>83</v>
+        <v>182</v>
       </c>
     </row>
     <row r="97">
@@ -21090,13 +21090,13 @@
         <v>175</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D97" t="s" s="0">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="98">
@@ -21104,13 +21104,13 @@
         <v>175</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D98" t="s" s="0">
-        <v>83</v>
+        <v>137</v>
       </c>
     </row>
     <row r="99">
@@ -21118,13 +21118,13 @@
         <v>175</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="C99" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D99" t="s" s="0">
-        <v>137</v>
+        <v>83</v>
       </c>
     </row>
     <row r="100">
@@ -21138,7 +21138,7 @@
         <v>18</v>
       </c>
       <c r="D100" t="s" s="0">
-        <v>7</v>
+        <v>231</v>
       </c>
     </row>
     <row r="101">
@@ -21152,7 +21152,7 @@
         <v>18</v>
       </c>
       <c r="D101" t="s" s="0">
-        <v>231</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102">
@@ -21160,7 +21160,7 @@
         <v>211</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C102" t="s" s="0">
         <v>18</v>
@@ -21180,7 +21180,7 @@
         <v>18</v>
       </c>
       <c r="D103" t="s" s="0">
-        <v>7</v>
+        <v>231</v>
       </c>
     </row>
     <row r="104">
@@ -21194,7 +21194,7 @@
         <v>18</v>
       </c>
       <c r="D104" t="s" s="0">
-        <v>231</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105">
@@ -21202,7 +21202,7 @@
         <v>214</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C105" t="s" s="0">
         <v>18</v>
@@ -21230,13 +21230,13 @@
         <v>217</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="C107" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D107" t="s" s="0">
-        <v>83</v>
+        <v>45</v>
       </c>
     </row>
     <row r="108">
@@ -21244,7 +21244,7 @@
         <v>217</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C108" t="s" s="0">
         <v>110</v>
@@ -21258,13 +21258,13 @@
         <v>217</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="C109" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D109" t="s" s="0">
-        <v>45</v>
+        <v>83</v>
       </c>
     </row>
     <row r="110">
@@ -21272,13 +21272,13 @@
         <v>126</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C110" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D110" t="s" s="0">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111">
@@ -21292,7 +21292,7 @@
         <v>110</v>
       </c>
       <c r="D111" t="s" s="0">
-        <v>16</v>
+        <v>226</v>
       </c>
     </row>
     <row r="112">
@@ -21300,13 +21300,13 @@
         <v>126</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="C112" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D112" t="s" s="0">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="113">
@@ -21314,13 +21314,13 @@
         <v>126</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>333</v>
+        <v>357</v>
       </c>
       <c r="C113" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D113" t="s" s="0">
-        <v>231</v>
+        <v>67</v>
       </c>
     </row>
     <row r="114">
@@ -21334,7 +21334,7 @@
         <v>110</v>
       </c>
       <c r="D114" t="s" s="0">
-        <v>83</v>
+        <v>45</v>
       </c>
     </row>
     <row r="115">
@@ -21348,7 +21348,7 @@
         <v>110</v>
       </c>
       <c r="D115" t="s" s="0">
-        <v>45</v>
+        <v>83</v>
       </c>
     </row>
     <row r="116">
@@ -21362,7 +21362,7 @@
         <v>18</v>
       </c>
       <c r="D116" t="s" s="0">
-        <v>7</v>
+        <v>231</v>
       </c>
     </row>
     <row r="117">
@@ -21376,7 +21376,7 @@
         <v>18</v>
       </c>
       <c r="D117" t="s" s="0">
-        <v>231</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118">
@@ -21384,7 +21384,7 @@
         <v>239</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C118" t="s" s="0">
         <v>18</v>
@@ -21398,13 +21398,13 @@
         <v>242</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="C119" t="s" s="0">
-        <v>110</v>
+        <v>6</v>
       </c>
       <c r="D119" t="s" s="0">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="120">
@@ -21412,7 +21412,7 @@
         <v>242</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C120" t="s" s="0">
         <v>6</v>
@@ -21426,13 +21426,13 @@
         <v>242</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>376</v>
+        <v>350</v>
       </c>
       <c r="C121" t="s" s="0">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="D121" t="s" s="0">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="122">
@@ -21440,7 +21440,7 @@
         <v>246</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C122" t="s" s="0">
         <v>110</v>
@@ -21474,7 +21474,7 @@
         <v>110</v>
       </c>
       <c r="D124" t="s" s="0">
-        <v>242</v>
+        <v>14</v>
       </c>
     </row>
     <row r="125">
@@ -21482,7 +21482,7 @@
         <v>250</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C125" t="s" s="0">
         <v>110</v>
@@ -21502,7 +21502,7 @@
         <v>110</v>
       </c>
       <c r="D126" t="s" s="0">
-        <v>45</v>
+        <v>242</v>
       </c>
     </row>
     <row r="127">
@@ -21510,13 +21510,13 @@
         <v>250</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C127" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D127" t="s" s="0">
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
     <row r="128">
@@ -21530,7 +21530,7 @@
         <v>18</v>
       </c>
       <c r="D128" t="s" s="0">
-        <v>7</v>
+        <v>231</v>
       </c>
     </row>
     <row r="129">
@@ -21544,7 +21544,7 @@
         <v>18</v>
       </c>
       <c r="D129" t="s" s="0">
-        <v>231</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130">
@@ -21552,7 +21552,7 @@
         <v>257</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C130" t="s" s="0">
         <v>18</v>
@@ -21572,7 +21572,7 @@
         <v>18</v>
       </c>
       <c r="D131" t="s" s="0">
-        <v>7</v>
+        <v>231</v>
       </c>
     </row>
     <row r="132">
@@ -21586,7 +21586,7 @@
         <v>18</v>
       </c>
       <c r="D132" t="s" s="0">
-        <v>231</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133">
@@ -21594,7 +21594,7 @@
         <v>260</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C133" t="s" s="0">
         <v>18</v>
@@ -21614,7 +21614,7 @@
         <v>18</v>
       </c>
       <c r="D134" t="s" s="0">
-        <v>7</v>
+        <v>231</v>
       </c>
     </row>
     <row r="135">
@@ -21628,7 +21628,7 @@
         <v>18</v>
       </c>
       <c r="D135" t="s" s="0">
-        <v>231</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136">
@@ -21636,7 +21636,7 @@
         <v>263</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C136" t="s" s="0">
         <v>18</v>
@@ -21650,13 +21650,13 @@
         <v>67</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C137" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D137" t="s" s="0">
-        <v>178</v>
+        <v>231</v>
       </c>
     </row>
     <row r="138">
@@ -21670,7 +21670,7 @@
         <v>110</v>
       </c>
       <c r="D138" t="s" s="0">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="139">
@@ -21678,13 +21678,13 @@
         <v>67</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C139" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D139" t="s" s="0">
-        <v>182</v>
+        <v>137</v>
       </c>
     </row>
     <row r="140">
@@ -21692,13 +21692,13 @@
         <v>67</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C140" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D140" t="s" s="0">
-        <v>86</v>
+        <v>178</v>
       </c>
     </row>
     <row r="141">
@@ -21706,13 +21706,13 @@
         <v>67</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C141" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D141" t="s" s="0">
-        <v>80</v>
+        <v>271</v>
       </c>
     </row>
     <row r="142">
@@ -21720,13 +21720,13 @@
         <v>67</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C142" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D142" t="s" s="0">
-        <v>137</v>
+        <v>274</v>
       </c>
     </row>
     <row r="143">
@@ -21734,13 +21734,13 @@
         <v>67</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C143" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D143" t="s" s="0">
-        <v>231</v>
+        <v>133</v>
       </c>
     </row>
     <row r="144">
@@ -21748,13 +21748,13 @@
         <v>67</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C144" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D144" t="s" s="0">
-        <v>277</v>
+        <v>86</v>
       </c>
     </row>
     <row r="145">
@@ -21762,7 +21762,7 @@
         <v>67</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C145" t="s" s="0">
         <v>110</v>
@@ -21776,13 +21776,13 @@
         <v>67</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C146" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D146" t="s" s="0">
-        <v>133</v>
+        <v>149</v>
       </c>
     </row>
     <row r="147">
@@ -21790,13 +21790,13 @@
         <v>67</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C147" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D147" t="s" s="0">
-        <v>149</v>
+        <v>80</v>
       </c>
     </row>
     <row r="148">
@@ -21804,13 +21804,13 @@
         <v>67</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="C148" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D148" t="s" s="0">
-        <v>274</v>
+        <v>182</v>
       </c>
     </row>
     <row r="149">
@@ -21818,7 +21818,7 @@
         <v>253</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C149" t="s" s="0">
         <v>110</v>
@@ -21832,13 +21832,13 @@
         <v>253</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C150" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D150" t="s" s="0">
-        <v>242</v>
+        <v>45</v>
       </c>
     </row>
     <row r="151">
@@ -21846,7 +21846,7 @@
         <v>253</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C151" t="s" s="0">
         <v>110</v>
@@ -21860,13 +21860,13 @@
         <v>253</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C152" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D152" t="s" s="0">
-        <v>45</v>
+        <v>242</v>
       </c>
     </row>
     <row r="153">
@@ -21874,7 +21874,7 @@
         <v>247</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C153" t="s" s="0">
         <v>110</v>
@@ -21908,7 +21908,7 @@
         <v>18</v>
       </c>
       <c r="D155" t="s" s="0">
-        <v>7</v>
+        <v>231</v>
       </c>
     </row>
     <row r="156">
@@ -21922,7 +21922,7 @@
         <v>18</v>
       </c>
       <c r="D156" t="s" s="0">
-        <v>231</v>
+        <v>7</v>
       </c>
     </row>
     <row r="157">
@@ -21930,7 +21930,7 @@
         <v>287</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C157" t="s" s="0">
         <v>18</v>
@@ -21950,7 +21950,7 @@
         <v>18</v>
       </c>
       <c r="D158" t="s" s="0">
-        <v>7</v>
+        <v>231</v>
       </c>
     </row>
     <row r="159">
@@ -21964,7 +21964,7 @@
         <v>18</v>
       </c>
       <c r="D159" t="s" s="0">
-        <v>231</v>
+        <v>7</v>
       </c>
     </row>
     <row r="160">
@@ -21972,7 +21972,7 @@
         <v>290</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C160" t="s" s="0">
         <v>18</v>
@@ -21986,13 +21986,13 @@
         <v>154</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>333</v>
+        <v>360</v>
       </c>
       <c r="C161" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D161" t="s" s="0">
-        <v>83</v>
+        <v>14</v>
       </c>
     </row>
     <row r="162">
@@ -22000,13 +22000,13 @@
         <v>154</v>
       </c>
       <c r="B162" t="s" s="0">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="C162" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D162" t="s" s="0">
-        <v>14</v>
+        <v>86</v>
       </c>
     </row>
     <row r="163">
@@ -22014,13 +22014,13 @@
         <v>154</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C163" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D163" t="s" s="0">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="164">
@@ -22028,13 +22028,13 @@
         <v>154</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C164" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D164" t="s" s="0">
-        <v>83</v>
+        <v>14</v>
       </c>
     </row>
     <row r="165">
@@ -22042,13 +22042,13 @@
         <v>154</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>366</v>
+        <v>338</v>
       </c>
       <c r="C165" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D165" t="s" s="0">
-        <v>14</v>
+        <v>83</v>
       </c>
     </row>
     <row r="166">
@@ -22056,7 +22056,7 @@
         <v>154</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C166" t="s" s="0">
         <v>110</v>
@@ -22070,13 +22070,13 @@
         <v>154</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>345</v>
+        <v>365</v>
       </c>
       <c r="C167" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D167" t="s" s="0">
-        <v>86</v>
+        <v>14</v>
       </c>
     </row>
     <row r="168">
@@ -22084,7 +22084,7 @@
         <v>154</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C168" t="s" s="0">
         <v>110</v>
@@ -22098,13 +22098,13 @@
         <v>154</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="C169" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D169" t="s" s="0">
-        <v>14</v>
+        <v>86</v>
       </c>
     </row>
     <row r="170">
@@ -22112,13 +22112,13 @@
         <v>54</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C170" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D170" t="s" s="0">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="171">
@@ -22132,7 +22132,7 @@
         <v>110</v>
       </c>
       <c r="D171" t="s" s="0">
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
     <row r="172">
@@ -22140,13 +22140,13 @@
         <v>54</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C172" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D172" t="s" s="0">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="173">
@@ -22154,13 +22154,13 @@
         <v>54</v>
       </c>
       <c r="B173" t="s" s="0">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C173" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D173" t="s" s="0">
-        <v>45</v>
+        <v>14</v>
       </c>
     </row>
     <row r="174">
@@ -22168,13 +22168,13 @@
         <v>303</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>324</v>
+        <v>378</v>
       </c>
       <c r="C174" t="s" s="0">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="D174" t="s" s="0">
-        <v>7</v>
+        <v>86</v>
       </c>
     </row>
     <row r="175">
@@ -22182,7 +22182,7 @@
         <v>303</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C175" t="s" s="0">
         <v>18</v>
@@ -22196,13 +22196,13 @@
         <v>303</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>378</v>
+        <v>325</v>
       </c>
       <c r="C176" t="s" s="0">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="D176" t="s" s="0">
-        <v>86</v>
+        <v>7</v>
       </c>
     </row>
     <row r="177">
@@ -22210,7 +22210,7 @@
         <v>303</v>
       </c>
       <c r="B177" t="s" s="0">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C177" t="s" s="0">
         <v>18</v>
@@ -22224,7 +22224,7 @@
         <v>220</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C178" t="s" s="0">
         <v>110</v>
@@ -22238,13 +22238,13 @@
         <v>220</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="C179" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D179" t="s" s="0">
-        <v>83</v>
+        <v>45</v>
       </c>
     </row>
     <row r="180">
@@ -22252,13 +22252,13 @@
         <v>220</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="C180" t="s" s="0">
         <v>110</v>
       </c>
       <c r="D180" t="s" s="0">
-        <v>45</v>
+        <v>83</v>
       </c>
     </row>
     <row r="181">
@@ -22266,7 +22266,7 @@
         <v>220</v>
       </c>
       <c r="B181" t="s" s="0">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C181" t="s" s="0">
         <v>110</v>
@@ -22294,13 +22294,13 @@
         <v>182</v>
       </c>
       <c r="B183" t="s" s="0">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="C183" t="s" s="0">
-        <v>110</v>
+        <v>6</v>
       </c>
       <c r="D183" t="s" s="0">
-        <v>315</v>
+        <v>182</v>
       </c>
     </row>
     <row r="184">
@@ -22308,7 +22308,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="s" s="0">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C184" t="s" s="0">
         <v>6</v>
@@ -22322,13 +22322,13 @@
         <v>182</v>
       </c>
       <c r="B185" t="s" s="0">
-        <v>381</v>
+        <v>350</v>
       </c>
       <c r="C185" t="s" s="0">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="D185" t="s" s="0">
-        <v>182</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>

--- a/data/backend/order-client_structure.xlsx
+++ b/data/backend/order-client_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6831" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6780" uniqueCount="429">
   <si>
     <t>Class Name</t>
   </si>
@@ -1263,10 +1263,10 @@
     <t>120</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>6</t>
   </si>
   <si>
     <t>62</t>
@@ -15955,7 +15955,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C340"/>
+  <dimension ref="A1:C323"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15974,10 +15974,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>413</v>
@@ -15985,13 +15985,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>388</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4">
@@ -15999,7 +15999,7 @@
         <v>43</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>414</v>
@@ -16010,10 +16010,10 @@
         <v>43</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6">
@@ -16021,10 +16021,10 @@
         <v>43</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="7">
@@ -16032,10 +16032,10 @@
         <v>43</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="8">
@@ -16043,10 +16043,10 @@
         <v>43</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="9">
@@ -16054,10 +16054,10 @@
         <v>43</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="10">
@@ -16065,10 +16065,10 @@
         <v>43</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="11">
@@ -16076,10 +16076,10 @@
         <v>43</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="12">
@@ -16087,10 +16087,10 @@
         <v>43</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="13">
@@ -16098,10 +16098,10 @@
         <v>43</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="14">
@@ -16109,10 +16109,10 @@
         <v>43</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="15">
@@ -16120,32 +16120,32 @@
         <v>43</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="18">
@@ -16153,10 +16153,10 @@
         <v>58</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>388</v>
+        <v>417</v>
       </c>
     </row>
     <row r="19">
@@ -16164,7 +16164,7 @@
         <v>58</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>417</v>
@@ -16175,7 +16175,7 @@
         <v>58</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>417</v>
@@ -16186,7 +16186,7 @@
         <v>58</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>417</v>
@@ -16197,7 +16197,7 @@
         <v>58</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>417</v>
@@ -16208,7 +16208,7 @@
         <v>58</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>417</v>
@@ -16219,7 +16219,7 @@
         <v>58</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>417</v>
@@ -16230,7 +16230,7 @@
         <v>58</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>417</v>
@@ -16241,7 +16241,7 @@
         <v>58</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>417</v>
@@ -16252,7 +16252,7 @@
         <v>58</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>417</v>
@@ -16263,10 +16263,10 @@
         <v>58</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="29">
@@ -16274,87 +16274,87 @@
         <v>58</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>388</v>
+        <v>414</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>388</v>
+        <v>414</v>
       </c>
     </row>
     <row r="37">
@@ -16362,10 +16362,10 @@
         <v>80</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="38">
@@ -16373,10 +16373,10 @@
         <v>80</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="39">
@@ -16384,10 +16384,10 @@
         <v>80</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="40">
@@ -16395,10 +16395,10 @@
         <v>80</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="41">
@@ -16406,10 +16406,10 @@
         <v>80</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="42">
@@ -16417,10 +16417,10 @@
         <v>80</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="43">
@@ -16428,10 +16428,10 @@
         <v>80</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>413</v>
+        <v>418</v>
       </c>
     </row>
     <row r="44">
@@ -16439,10 +16439,10 @@
         <v>80</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="45">
@@ -16450,10 +16450,10 @@
         <v>80</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>413</v>
+        <v>402</v>
       </c>
     </row>
     <row r="46">
@@ -16461,10 +16461,10 @@
         <v>80</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="47">
@@ -16472,10 +16472,10 @@
         <v>80</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
     <row r="48">
@@ -16483,183 +16483,183 @@
         <v>80</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>413</v>
+        <v>388</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>402</v>
+        <v>414</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>413</v>
+        <v>387</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>419</v>
+        <v>387</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>388</v>
+        <v>414</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>417</v>
+        <v>387</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>413</v>
+        <v>387</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>413</v>
+        <v>387</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>388</v>
+        <v>414</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>387</v>
+        <v>414</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>387</v>
@@ -16667,10 +16667,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>387</v>
@@ -16678,43 +16678,43 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>413</v>
+        <v>387</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>387</v>
+        <v>414</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>387</v>
@@ -16722,10 +16722,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>387</v>
@@ -16733,87 +16733,87 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>413</v>
+        <v>387</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>413</v>
+        <v>387</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>413</v>
+        <v>387</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>417</v>
+        <v>387</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>388</v>
+        <v>414</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>132</v>
+        <v>23</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="C78" t="s" s="0">
         <v>387</v>
@@ -16821,10 +16821,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C79" t="s" s="0">
         <v>387</v>
@@ -16832,255 +16832,255 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>136</v>
+        <v>71</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>387</v>
+        <v>417</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>23</v>
+        <v>147</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="C83" t="s" s="0">
-        <v>387</v>
+        <v>417</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>134</v>
+        <v>66</v>
       </c>
       <c r="C84" t="s" s="0">
-        <v>387</v>
+        <v>414</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="C85" t="s" s="0">
-        <v>387</v>
+        <v>414</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>387</v>
+        <v>414</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="C87" t="s" s="0">
-        <v>387</v>
+        <v>414</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="C88" t="s" s="0">
-        <v>387</v>
+        <v>414</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="C89" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>23</v>
+        <v>162</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="0">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="C91" t="s" s="0">
-        <v>387</v>
+        <v>414</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="C92" t="s" s="0">
-        <v>387</v>
+        <v>414</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="0">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="C93" t="s" s="0">
-        <v>387</v>
+        <v>414</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="0">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="C94" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="0">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C95" t="s" s="0">
-        <v>388</v>
+        <v>414</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="0">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="C96" t="s" s="0">
-        <v>388</v>
+        <v>414</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="0">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="C97" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="0">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C98" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="0">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="C99" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="0">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C100" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="0">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>66</v>
+        <v>164</v>
       </c>
       <c r="C101" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="0">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="C102" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="103">
@@ -17088,10 +17088,10 @@
         <v>149</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="C103" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="104">
@@ -17099,10 +17099,10 @@
         <v>149</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="C104" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="105">
@@ -17110,10 +17110,10 @@
         <v>149</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>159</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s" s="0">
-        <v>413</v>
+        <v>420</v>
       </c>
     </row>
     <row r="106">
@@ -17121,10 +17121,10 @@
         <v>149</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>161</v>
+        <v>56</v>
       </c>
       <c r="C106" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="107">
@@ -17132,10 +17132,10 @@
         <v>149</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>162</v>
+        <v>15</v>
       </c>
       <c r="C107" t="s" s="0">
-        <v>413</v>
+        <v>421</v>
       </c>
     </row>
     <row r="108">
@@ -17143,10 +17143,10 @@
         <v>149</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>151</v>
+        <v>23</v>
       </c>
       <c r="C108" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="109">
@@ -17154,10 +17154,10 @@
         <v>149</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C109" t="s" s="0">
-        <v>413</v>
+        <v>422</v>
       </c>
     </row>
     <row r="110">
@@ -17165,197 +17165,197 @@
         <v>149</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C110" t="s" s="0">
-        <v>413</v>
+        <v>388</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="0">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="C111" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="0">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="C112" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="0">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>88</v>
+        <v>177</v>
       </c>
       <c r="C113" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="0">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="C114" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="0">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="C115" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="0">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C116" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="0">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="C117" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="0">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C118" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="0">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="C119" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="0">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>81</v>
+        <v>183</v>
       </c>
       <c r="C120" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="0">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="C121" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="0">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="C122" t="s" s="0">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="0">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>56</v>
+        <v>174</v>
       </c>
       <c r="C123" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="0">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>15</v>
+        <v>179</v>
       </c>
       <c r="C124" t="s" s="0">
-        <v>421</v>
+        <v>414</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="0">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>23</v>
+        <v>184</v>
       </c>
       <c r="C125" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="0">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="C126" t="s" s="0">
-        <v>422</v>
+        <v>414</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="0">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="C127" t="s" s="0">
-        <v>388</v>
+        <v>414</v>
       </c>
     </row>
     <row r="128">
@@ -17363,10 +17363,10 @@
         <v>167</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>53</v>
+        <v>189</v>
       </c>
       <c r="C128" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="129">
@@ -17374,10 +17374,10 @@
         <v>167</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>82</v>
+        <v>180</v>
       </c>
       <c r="C129" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="130">
@@ -17385,10 +17385,10 @@
         <v>167</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C130" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="131">
@@ -17396,10 +17396,10 @@
         <v>167</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C131" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="132">
@@ -17407,10 +17407,10 @@
         <v>167</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>181</v>
+        <v>5</v>
       </c>
       <c r="C132" t="s" s="0">
-        <v>413</v>
+        <v>423</v>
       </c>
     </row>
     <row r="133">
@@ -17418,10 +17418,10 @@
         <v>167</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>171</v>
+        <v>56</v>
       </c>
       <c r="C133" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="134">
@@ -17429,10 +17429,10 @@
         <v>167</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>173</v>
+        <v>15</v>
       </c>
       <c r="C134" t="s" s="0">
-        <v>413</v>
+        <v>424</v>
       </c>
     </row>
     <row r="135">
@@ -17440,10 +17440,10 @@
         <v>167</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>168</v>
+        <v>23</v>
       </c>
       <c r="C135" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="136">
@@ -17451,10 +17451,10 @@
         <v>167</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C136" t="s" s="0">
-        <v>413</v>
+        <v>425</v>
       </c>
     </row>
     <row r="137">
@@ -17462,194 +17462,194 @@
         <v>167</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="C137" t="s" s="0">
-        <v>413</v>
+        <v>388</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="0">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C138" t="s" s="0">
-        <v>413</v>
+        <v>388</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="0">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>88</v>
+        <v>195</v>
       </c>
       <c r="C139" t="s" s="0">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="0">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="C140" t="s" s="0">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="0">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>179</v>
+        <v>66</v>
       </c>
       <c r="C141" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="0">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>184</v>
+        <v>23</v>
       </c>
       <c r="C142" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="0">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="C143" t="s" s="0">
-        <v>413</v>
+        <v>388</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="0">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="C144" t="s" s="0">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="0">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="C145" t="s" s="0">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s" s="0">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="C146" t="s" s="0">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="0">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="C147" t="s" s="0">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s" s="0">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="C148" t="s" s="0">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s" s="0">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>5</v>
+        <v>198</v>
       </c>
       <c r="C149" t="s" s="0">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="0">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C150" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="0">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C151" t="s" s="0">
-        <v>424</v>
+        <v>414</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="0">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="C152" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="0">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="C153" t="s" s="0">
-        <v>425</v>
+        <v>388</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="0">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>170</v>
+        <v>207</v>
       </c>
       <c r="C154" t="s" s="0">
         <v>388</v>
@@ -17657,21 +17657,21 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="0">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="C155" t="s" s="0">
-        <v>388</v>
+        <v>417</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="0">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="C156" t="s" s="0">
         <v>417</v>
@@ -17679,10 +17679,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="0">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>194</v>
+        <v>68</v>
       </c>
       <c r="C157" t="s" s="0">
         <v>417</v>
@@ -17690,43 +17690,43 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="0">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C158" t="s" s="0">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="0">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>23</v>
+        <v>208</v>
       </c>
       <c r="C159" t="s" s="0">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="0">
-        <v>87</v>
+        <v>175</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="C160" t="s" s="0">
-        <v>388</v>
+        <v>417</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="0">
-        <v>87</v>
+        <v>175</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="C161" t="s" s="0">
         <v>417</v>
@@ -17734,10 +17734,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="0">
-        <v>87</v>
+        <v>175</v>
       </c>
       <c r="B162" t="s" s="0">
-        <v>202</v>
+        <v>73</v>
       </c>
       <c r="C162" t="s" s="0">
         <v>417</v>
@@ -17745,10 +17745,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="0">
-        <v>87</v>
+        <v>175</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>197</v>
+        <v>63</v>
       </c>
       <c r="C163" t="s" s="0">
         <v>417</v>
@@ -17756,10 +17756,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="0">
-        <v>87</v>
+        <v>175</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>196</v>
+        <v>61</v>
       </c>
       <c r="C164" t="s" s="0">
         <v>417</v>
@@ -17767,65 +17767,65 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="0">
-        <v>87</v>
+        <v>175</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>199</v>
+        <v>66</v>
       </c>
       <c r="C165" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="0">
-        <v>87</v>
+        <v>175</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>198</v>
+        <v>23</v>
       </c>
       <c r="C166" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="0">
-        <v>87</v>
+        <v>211</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>66</v>
+        <v>212</v>
       </c>
       <c r="C167" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="0">
-        <v>87</v>
+        <v>211</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>23</v>
+        <v>213</v>
       </c>
       <c r="C168" t="s" s="0">
-        <v>413</v>
+        <v>388</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="0">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="C169" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="0">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="C170" t="s" s="0">
         <v>388</v>
@@ -17833,10 +17833,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="0">
-        <v>175</v>
+        <v>217</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="C171" t="s" s="0">
         <v>388</v>
@@ -17844,10 +17844,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="0">
-        <v>175</v>
+        <v>217</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="C172" t="s" s="0">
         <v>417</v>
@@ -17855,10 +17855,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="0">
-        <v>175</v>
+        <v>217</v>
       </c>
       <c r="B173" t="s" s="0">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="C173" t="s" s="0">
         <v>417</v>
@@ -17866,10 +17866,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="0">
-        <v>175</v>
+        <v>217</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>68</v>
+        <v>219</v>
       </c>
       <c r="C174" t="s" s="0">
         <v>417</v>
@@ -17877,10 +17877,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="0">
-        <v>175</v>
+        <v>217</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>64</v>
+        <v>223</v>
       </c>
       <c r="C175" t="s" s="0">
         <v>417</v>
@@ -17888,549 +17888,549 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="0">
-        <v>175</v>
+        <v>217</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>208</v>
+        <v>66</v>
       </c>
       <c r="C176" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="0">
-        <v>175</v>
+        <v>217</v>
       </c>
       <c r="B177" t="s" s="0">
-        <v>210</v>
+        <v>23</v>
       </c>
       <c r="C177" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s" s="0">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>209</v>
+        <v>53</v>
       </c>
       <c r="C178" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s" s="0">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C179" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s" s="0">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>63</v>
+        <v>224</v>
       </c>
       <c r="C180" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s" s="0">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="B181" t="s" s="0">
-        <v>61</v>
+        <v>228</v>
       </c>
       <c r="C181" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s" s="0">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="B182" t="s" s="0">
-        <v>66</v>
+        <v>225</v>
       </c>
       <c r="C182" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s" s="0">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="B183" t="s" s="0">
-        <v>23</v>
+        <v>230</v>
       </c>
       <c r="C183" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s" s="0">
-        <v>211</v>
+        <v>126</v>
       </c>
       <c r="B184" t="s" s="0">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="C184" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s" s="0">
-        <v>211</v>
+        <v>126</v>
       </c>
       <c r="B185" t="s" s="0">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="C185" t="s" s="0">
-        <v>388</v>
+        <v>414</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s" s="0">
-        <v>214</v>
+        <v>126</v>
       </c>
       <c r="B186" t="s" s="0">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="C186" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s" s="0">
-        <v>214</v>
+        <v>126</v>
       </c>
       <c r="B187" t="s" s="0">
-        <v>216</v>
+        <v>5</v>
       </c>
       <c r="C187" t="s" s="0">
-        <v>388</v>
+        <v>426</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s" s="0">
-        <v>217</v>
+        <v>126</v>
       </c>
       <c r="B188" t="s" s="0">
-        <v>218</v>
+        <v>56</v>
       </c>
       <c r="C188" t="s" s="0">
-        <v>388</v>
+        <v>414</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s" s="0">
-        <v>217</v>
+        <v>126</v>
       </c>
       <c r="B189" t="s" s="0">
-        <v>221</v>
+        <v>15</v>
       </c>
       <c r="C189" t="s" s="0">
-        <v>417</v>
+        <v>425</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s" s="0">
-        <v>217</v>
+        <v>126</v>
       </c>
       <c r="B190" t="s" s="0">
-        <v>222</v>
+        <v>23</v>
       </c>
       <c r="C190" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s" s="0">
-        <v>217</v>
+        <v>126</v>
       </c>
       <c r="B191" t="s" s="0">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="C191" t="s" s="0">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s" s="0">
-        <v>217</v>
+        <v>126</v>
       </c>
       <c r="B192" t="s" s="0">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C192" t="s" s="0">
-        <v>417</v>
+        <v>388</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s" s="0">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="B193" t="s" s="0">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C193" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s" s="0">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="B194" t="s" s="0">
-        <v>23</v>
+        <v>236</v>
       </c>
       <c r="C194" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s" s="0">
-        <v>126</v>
+        <v>193</v>
       </c>
       <c r="B195" t="s" s="0">
-        <v>53</v>
+        <v>237</v>
       </c>
       <c r="C195" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s" s="0">
-        <v>126</v>
+        <v>193</v>
       </c>
       <c r="B196" t="s" s="0">
-        <v>82</v>
+        <v>235</v>
       </c>
       <c r="C196" t="s" s="0">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s" s="0">
-        <v>126</v>
+        <v>193</v>
       </c>
       <c r="B197" t="s" s="0">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="C197" t="s" s="0">
-        <v>413</v>
+        <v>388</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s" s="0">
-        <v>126</v>
+        <v>239</v>
       </c>
       <c r="B198" t="s" s="0">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="C198" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s" s="0">
-        <v>126</v>
+        <v>239</v>
       </c>
       <c r="B199" t="s" s="0">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="C199" t="s" s="0">
-        <v>413</v>
+        <v>388</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s" s="0">
-        <v>126</v>
+        <v>242</v>
       </c>
       <c r="B200" t="s" s="0">
-        <v>230</v>
+        <v>111</v>
       </c>
       <c r="C200" t="s" s="0">
-        <v>413</v>
+        <v>387</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s" s="0">
-        <v>126</v>
+        <v>242</v>
       </c>
       <c r="B201" t="s" s="0">
-        <v>232</v>
+        <v>106</v>
       </c>
       <c r="C201" t="s" s="0">
-        <v>413</v>
+        <v>387</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s" s="0">
-        <v>126</v>
+        <v>242</v>
       </c>
       <c r="B202" t="s" s="0">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="C202" t="s" s="0">
-        <v>413</v>
+        <v>387</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s" s="0">
-        <v>126</v>
+        <v>242</v>
       </c>
       <c r="B203" t="s" s="0">
-        <v>227</v>
+        <v>117</v>
       </c>
       <c r="C203" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s" s="0">
-        <v>126</v>
+        <v>242</v>
       </c>
       <c r="B204" t="s" s="0">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C204" t="s" s="0">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s" s="0">
-        <v>126</v>
+        <v>242</v>
       </c>
       <c r="B205" t="s" s="0">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="C205" t="s" s="0">
-        <v>413</v>
+        <v>387</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s" s="0">
-        <v>126</v>
+        <v>242</v>
       </c>
       <c r="B206" t="s" s="0">
-        <v>15</v>
+        <v>245</v>
       </c>
       <c r="C206" t="s" s="0">
-        <v>425</v>
+        <v>387</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s" s="0">
-        <v>126</v>
+        <v>242</v>
       </c>
       <c r="B207" t="s" s="0">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="C207" t="s" s="0">
-        <v>413</v>
+        <v>387</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s" s="0">
-        <v>126</v>
+        <v>246</v>
       </c>
       <c r="B208" t="s" s="0">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="C208" t="s" s="0">
-        <v>414</v>
+        <v>388</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s" s="0">
-        <v>126</v>
+        <v>246</v>
       </c>
       <c r="B209" t="s" s="0">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="C209" t="s" s="0">
-        <v>388</v>
+        <v>417</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s" s="0">
-        <v>193</v>
+        <v>246</v>
       </c>
       <c r="B210" t="s" s="0">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="C210" t="s" s="0">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s" s="0">
-        <v>193</v>
+        <v>246</v>
       </c>
       <c r="B211" t="s" s="0">
-        <v>236</v>
+        <v>66</v>
       </c>
       <c r="C211" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s" s="0">
-        <v>193</v>
+        <v>246</v>
       </c>
       <c r="B212" t="s" s="0">
-        <v>237</v>
+        <v>23</v>
       </c>
       <c r="C212" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s" s="0">
-        <v>193</v>
+        <v>250</v>
       </c>
       <c r="B213" t="s" s="0">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="C213" t="s" s="0">
-        <v>417</v>
+        <v>388</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s" s="0">
-        <v>193</v>
+        <v>250</v>
       </c>
       <c r="B214" t="s" s="0">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="C214" t="s" s="0">
-        <v>388</v>
+        <v>417</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s" s="0">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="B215" t="s" s="0">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="C215" t="s" s="0">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s" s="0">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="B216" t="s" s="0">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="C216" t="s" s="0">
-        <v>388</v>
+        <v>417</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s" s="0">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B217" t="s" s="0">
-        <v>111</v>
+        <v>255</v>
       </c>
       <c r="C217" t="s" s="0">
-        <v>387</v>
+        <v>417</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s" s="0">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B218" t="s" s="0">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="C218" t="s" s="0">
-        <v>387</v>
+        <v>414</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s" s="0">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B219" t="s" s="0">
-        <v>244</v>
+        <v>23</v>
       </c>
       <c r="C219" t="s" s="0">
-        <v>387</v>
+        <v>414</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s" s="0">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="B220" t="s" s="0">
-        <v>117</v>
+        <v>258</v>
       </c>
       <c r="C220" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s" s="0">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="B221" t="s" s="0">
-        <v>23</v>
+        <v>259</v>
       </c>
       <c r="C221" t="s" s="0">
-        <v>413</v>
+        <v>388</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s" s="0">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="B222" t="s" s="0">
-        <v>116</v>
+        <v>261</v>
       </c>
       <c r="C222" t="s" s="0">
-        <v>387</v>
+        <v>414</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s" s="0">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="B223" t="s" s="0">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="C223" t="s" s="0">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s" s="0">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="B224" t="s" s="0">
-        <v>114</v>
+        <v>264</v>
       </c>
       <c r="C224" t="s" s="0">
-        <v>387</v>
+        <v>414</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s" s="0">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="B225" t="s" s="0">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="C225" t="s" s="0">
         <v>388</v>
@@ -18438,189 +18438,189 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="0">
-        <v>246</v>
+        <v>67</v>
       </c>
       <c r="B226" t="s" s="0">
-        <v>248</v>
+        <v>53</v>
       </c>
       <c r="C226" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s" s="0">
-        <v>246</v>
+        <v>67</v>
       </c>
       <c r="B227" t="s" s="0">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="C227" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s" s="0">
-        <v>246</v>
+        <v>67</v>
       </c>
       <c r="B228" t="s" s="0">
-        <v>66</v>
+        <v>276</v>
       </c>
       <c r="C228" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s" s="0">
-        <v>246</v>
+        <v>67</v>
       </c>
       <c r="B229" t="s" s="0">
-        <v>23</v>
+        <v>177</v>
       </c>
       <c r="C229" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s" s="0">
-        <v>250</v>
+        <v>67</v>
       </c>
       <c r="B230" t="s" s="0">
-        <v>256</v>
+        <v>185</v>
       </c>
       <c r="C230" t="s" s="0">
-        <v>388</v>
+        <v>414</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s" s="0">
-        <v>250</v>
+        <v>67</v>
       </c>
       <c r="B231" t="s" s="0">
-        <v>251</v>
+        <v>181</v>
       </c>
       <c r="C231" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s" s="0">
-        <v>250</v>
+        <v>67</v>
       </c>
       <c r="B232" t="s" s="0">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="C232" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s" s="0">
-        <v>250</v>
+        <v>67</v>
       </c>
       <c r="B233" t="s" s="0">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="C233" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s" s="0">
-        <v>250</v>
+        <v>67</v>
       </c>
       <c r="B234" t="s" s="0">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="C234" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s" s="0">
-        <v>250</v>
+        <v>67</v>
       </c>
       <c r="B235" t="s" s="0">
-        <v>66</v>
+        <v>176</v>
       </c>
       <c r="C235" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s" s="0">
-        <v>250</v>
+        <v>67</v>
       </c>
       <c r="B236" t="s" s="0">
-        <v>23</v>
+        <v>183</v>
       </c>
       <c r="C236" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s" s="0">
-        <v>257</v>
+        <v>67</v>
       </c>
       <c r="B237" t="s" s="0">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="C237" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s" s="0">
-        <v>257</v>
+        <v>67</v>
       </c>
       <c r="B238" t="s" s="0">
-        <v>259</v>
+        <v>186</v>
       </c>
       <c r="C238" t="s" s="0">
-        <v>388</v>
+        <v>414</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s" s="0">
-        <v>260</v>
+        <v>67</v>
       </c>
       <c r="B239" t="s" s="0">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="C239" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s" s="0">
-        <v>260</v>
+        <v>67</v>
       </c>
       <c r="B240" t="s" s="0">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C240" t="s" s="0">
-        <v>388</v>
+        <v>414</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s" s="0">
-        <v>263</v>
+        <v>67</v>
       </c>
       <c r="B241" t="s" s="0">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="C241" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s" s="0">
-        <v>263</v>
+        <v>67</v>
       </c>
       <c r="B242" t="s" s="0">
-        <v>265</v>
+        <v>179</v>
       </c>
       <c r="C242" t="s" s="0">
-        <v>388</v>
+        <v>414</v>
       </c>
     </row>
     <row r="243">
@@ -18628,10 +18628,10 @@
         <v>67</v>
       </c>
       <c r="B243" t="s" s="0">
-        <v>53</v>
+        <v>184</v>
       </c>
       <c r="C243" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="244">
@@ -18639,10 +18639,10 @@
         <v>67</v>
       </c>
       <c r="B244" t="s" s="0">
-        <v>82</v>
+        <v>268</v>
       </c>
       <c r="C244" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="245">
@@ -18650,10 +18650,10 @@
         <v>67</v>
       </c>
       <c r="B245" t="s" s="0">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C245" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="246">
@@ -18661,10 +18661,10 @@
         <v>67</v>
       </c>
       <c r="B246" t="s" s="0">
-        <v>177</v>
+        <v>278</v>
       </c>
       <c r="C246" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="247">
@@ -18672,10 +18672,10 @@
         <v>67</v>
       </c>
       <c r="B247" t="s" s="0">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C247" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="248">
@@ -18683,10 +18683,10 @@
         <v>67</v>
       </c>
       <c r="B248" t="s" s="0">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="C248" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="249">
@@ -18694,10 +18694,10 @@
         <v>67</v>
       </c>
       <c r="B249" t="s" s="0">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C249" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="250">
@@ -18705,10 +18705,10 @@
         <v>67</v>
       </c>
       <c r="B250" t="s" s="0">
-        <v>269</v>
+        <v>188</v>
       </c>
       <c r="C250" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="251">
@@ -18716,10 +18716,10 @@
         <v>67</v>
       </c>
       <c r="B251" t="s" s="0">
-        <v>281</v>
+        <v>5</v>
       </c>
       <c r="C251" t="s" s="0">
-        <v>413</v>
+        <v>427</v>
       </c>
     </row>
     <row r="252">
@@ -18727,10 +18727,10 @@
         <v>67</v>
       </c>
       <c r="B252" t="s" s="0">
-        <v>176</v>
+        <v>56</v>
       </c>
       <c r="C252" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="253">
@@ -18738,10 +18738,10 @@
         <v>67</v>
       </c>
       <c r="B253" t="s" s="0">
-        <v>183</v>
+        <v>15</v>
       </c>
       <c r="C253" t="s" s="0">
-        <v>413</v>
+        <v>404</v>
       </c>
     </row>
     <row r="254">
@@ -18749,10 +18749,10 @@
         <v>67</v>
       </c>
       <c r="B254" t="s" s="0">
-        <v>270</v>
+        <v>23</v>
       </c>
       <c r="C254" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="255">
@@ -18760,10 +18760,10 @@
         <v>67</v>
       </c>
       <c r="B255" t="s" s="0">
-        <v>186</v>
+        <v>275</v>
       </c>
       <c r="C255" t="s" s="0">
-        <v>413</v>
+        <v>428</v>
       </c>
     </row>
     <row r="256">
@@ -18771,18 +18771,18 @@
         <v>67</v>
       </c>
       <c r="B256" t="s" s="0">
-        <v>230</v>
+        <v>279</v>
       </c>
       <c r="C256" t="s" s="0">
-        <v>413</v>
+        <v>388</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s" s="0">
-        <v>67</v>
+        <v>253</v>
       </c>
       <c r="B257" t="s" s="0">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C257" t="s" s="0">
         <v>413</v>
@@ -18790,384 +18790,384 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="0">
-        <v>67</v>
+        <v>253</v>
       </c>
       <c r="B258" t="s" s="0">
-        <v>273</v>
+        <v>53</v>
       </c>
       <c r="C258" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s" s="0">
-        <v>67</v>
+        <v>253</v>
       </c>
       <c r="B259" t="s" s="0">
-        <v>179</v>
+        <v>50</v>
       </c>
       <c r="C259" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s" s="0">
-        <v>67</v>
+        <v>253</v>
       </c>
       <c r="B260" t="s" s="0">
-        <v>184</v>
+        <v>46</v>
       </c>
       <c r="C260" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s" s="0">
-        <v>67</v>
+        <v>253</v>
       </c>
       <c r="B261" t="s" s="0">
-        <v>268</v>
+        <v>44</v>
       </c>
       <c r="C261" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s" s="0">
-        <v>67</v>
+        <v>253</v>
       </c>
       <c r="B262" t="s" s="0">
-        <v>267</v>
+        <v>47</v>
       </c>
       <c r="C262" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s" s="0">
-        <v>67</v>
+        <v>253</v>
       </c>
       <c r="B263" t="s" s="0">
-        <v>278</v>
+        <v>49</v>
       </c>
       <c r="C263" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s" s="0">
-        <v>67</v>
+        <v>253</v>
       </c>
       <c r="B264" t="s" s="0">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="C264" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s" s="0">
-        <v>67</v>
+        <v>253</v>
       </c>
       <c r="B265" t="s" s="0">
-        <v>169</v>
+        <v>51</v>
       </c>
       <c r="C265" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s" s="0">
-        <v>67</v>
+        <v>253</v>
       </c>
       <c r="B266" t="s" s="0">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="C266" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s" s="0">
-        <v>67</v>
+        <v>253</v>
       </c>
       <c r="B267" t="s" s="0">
-        <v>188</v>
+        <v>5</v>
       </c>
       <c r="C267" t="s" s="0">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s" s="0">
-        <v>67</v>
+        <v>253</v>
       </c>
       <c r="B268" t="s" s="0">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="C268" t="s" s="0">
-        <v>427</v>
+        <v>414</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s" s="0">
-        <v>67</v>
+        <v>253</v>
       </c>
       <c r="B269" t="s" s="0">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C269" t="s" s="0">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s" s="0">
-        <v>67</v>
+        <v>253</v>
       </c>
       <c r="B270" t="s" s="0">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C270" t="s" s="0">
-        <v>404</v>
+        <v>414</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s" s="0">
-        <v>67</v>
+        <v>247</v>
       </c>
       <c r="B271" t="s" s="0">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="C271" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s" s="0">
-        <v>67</v>
+        <v>247</v>
       </c>
       <c r="B272" t="s" s="0">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="C272" t="s" s="0">
-        <v>428</v>
+        <v>414</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s" s="0">
-        <v>67</v>
+        <v>247</v>
       </c>
       <c r="B273" t="s" s="0">
-        <v>279</v>
+        <v>128</v>
       </c>
       <c r="C273" t="s" s="0">
-        <v>388</v>
+        <v>414</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s" s="0">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B274" t="s" s="0">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C274" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s" s="0">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B275" t="s" s="0">
-        <v>53</v>
+        <v>284</v>
       </c>
       <c r="C275" t="s" s="0">
-        <v>413</v>
+        <v>388</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s" s="0">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="B276" t="s" s="0">
-        <v>50</v>
+        <v>289</v>
       </c>
       <c r="C276" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s" s="0">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="B277" t="s" s="0">
-        <v>46</v>
+        <v>288</v>
       </c>
       <c r="C277" t="s" s="0">
-        <v>413</v>
+        <v>388</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s" s="0">
-        <v>253</v>
+        <v>290</v>
       </c>
       <c r="B278" t="s" s="0">
-        <v>44</v>
+        <v>291</v>
       </c>
       <c r="C278" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s" s="0">
-        <v>253</v>
+        <v>290</v>
       </c>
       <c r="B279" t="s" s="0">
-        <v>47</v>
+        <v>292</v>
       </c>
       <c r="C279" t="s" s="0">
-        <v>413</v>
+        <v>388</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s" s="0">
-        <v>253</v>
+        <v>154</v>
       </c>
       <c r="B280" t="s" s="0">
-        <v>49</v>
+        <v>299</v>
       </c>
       <c r="C280" t="s" s="0">
-        <v>413</v>
+        <v>388</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s" s="0">
-        <v>253</v>
+        <v>154</v>
       </c>
       <c r="B281" t="s" s="0">
-        <v>52</v>
+        <v>201</v>
       </c>
       <c r="C281" t="s" s="0">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s" s="0">
-        <v>253</v>
+        <v>154</v>
       </c>
       <c r="B282" t="s" s="0">
-        <v>51</v>
+        <v>294</v>
       </c>
       <c r="C282" t="s" s="0">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s" s="0">
-        <v>253</v>
+        <v>154</v>
       </c>
       <c r="B283" t="s" s="0">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="C283" t="s" s="0">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s" s="0">
-        <v>253</v>
+        <v>154</v>
       </c>
       <c r="B284" t="s" s="0">
-        <v>5</v>
+        <v>297</v>
       </c>
       <c r="C284" t="s" s="0">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s" s="0">
-        <v>253</v>
+        <v>154</v>
       </c>
       <c r="B285" t="s" s="0">
-        <v>56</v>
+        <v>295</v>
       </c>
       <c r="C285" t="s" s="0">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s" s="0">
-        <v>253</v>
+        <v>154</v>
       </c>
       <c r="B286" t="s" s="0">
-        <v>15</v>
+        <v>298</v>
       </c>
       <c r="C286" t="s" s="0">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s" s="0">
-        <v>253</v>
+        <v>154</v>
       </c>
       <c r="B287" t="s" s="0">
-        <v>23</v>
+        <v>296</v>
       </c>
       <c r="C287" t="s" s="0">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s" s="0">
-        <v>247</v>
+        <v>154</v>
       </c>
       <c r="B288" t="s" s="0">
-        <v>53</v>
+        <v>198</v>
       </c>
       <c r="C288" t="s" s="0">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s" s="0">
-        <v>247</v>
+        <v>154</v>
       </c>
       <c r="B289" t="s" s="0">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="C289" t="s" s="0">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s" s="0">
-        <v>247</v>
+        <v>154</v>
       </c>
       <c r="B290" t="s" s="0">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="C290" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s" s="0">
-        <v>247</v>
+        <v>154</v>
       </c>
       <c r="B291" t="s" s="0">
-        <v>285</v>
+        <v>23</v>
       </c>
       <c r="C291" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s" s="0">
-        <v>247</v>
+        <v>54</v>
       </c>
       <c r="B292" t="s" s="0">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="C292" t="s" s="0">
         <v>388</v>
@@ -19175,241 +19175,241 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="0">
-        <v>287</v>
+        <v>54</v>
       </c>
       <c r="B293" t="s" s="0">
-        <v>289</v>
+        <v>251</v>
       </c>
       <c r="C293" t="s" s="0">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s" s="0">
-        <v>287</v>
+        <v>54</v>
       </c>
       <c r="B294" t="s" s="0">
-        <v>288</v>
+        <v>254</v>
       </c>
       <c r="C294" t="s" s="0">
-        <v>388</v>
+        <v>417</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s" s="0">
-        <v>290</v>
+        <v>54</v>
       </c>
       <c r="B295" t="s" s="0">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="C295" t="s" s="0">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s" s="0">
-        <v>290</v>
+        <v>54</v>
       </c>
       <c r="B296" t="s" s="0">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="C296" t="s" s="0">
-        <v>388</v>
+        <v>417</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s" s="0">
-        <v>154</v>
+        <v>54</v>
       </c>
       <c r="B297" t="s" s="0">
-        <v>299</v>
+        <v>66</v>
       </c>
       <c r="C297" t="s" s="0">
-        <v>388</v>
+        <v>414</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s" s="0">
-        <v>154</v>
+        <v>54</v>
       </c>
       <c r="B298" t="s" s="0">
-        <v>201</v>
+        <v>23</v>
       </c>
       <c r="C298" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s" s="0">
-        <v>154</v>
+        <v>303</v>
       </c>
       <c r="B299" t="s" s="0">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="C299" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s" s="0">
-        <v>154</v>
+        <v>303</v>
       </c>
       <c r="B300" t="s" s="0">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C300" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s" s="0">
-        <v>154</v>
+        <v>220</v>
       </c>
       <c r="B301" t="s" s="0">
-        <v>297</v>
+        <v>53</v>
       </c>
       <c r="C301" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s" s="0">
-        <v>154</v>
+        <v>220</v>
       </c>
       <c r="B302" t="s" s="0">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="C302" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s" s="0">
-        <v>154</v>
+        <v>220</v>
       </c>
       <c r="B303" t="s" s="0">
-        <v>298</v>
+        <v>224</v>
       </c>
       <c r="C303" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s" s="0">
-        <v>154</v>
+        <v>220</v>
       </c>
       <c r="B304" t="s" s="0">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="C304" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s" s="0">
-        <v>154</v>
+        <v>220</v>
       </c>
       <c r="B305" t="s" s="0">
-        <v>198</v>
+        <v>309</v>
       </c>
       <c r="C305" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s" s="0">
-        <v>154</v>
+        <v>220</v>
       </c>
       <c r="B306" t="s" s="0">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="C306" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s" s="0">
-        <v>154</v>
+        <v>220</v>
       </c>
       <c r="B307" t="s" s="0">
-        <v>66</v>
+        <v>312</v>
       </c>
       <c r="C307" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s" s="0">
-        <v>154</v>
+        <v>220</v>
       </c>
       <c r="B308" t="s" s="0">
-        <v>23</v>
+        <v>314</v>
       </c>
       <c r="C308" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s" s="0">
-        <v>54</v>
+        <v>220</v>
       </c>
       <c r="B309" t="s" s="0">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="C309" t="s" s="0">
-        <v>388</v>
+        <v>414</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s" s="0">
-        <v>54</v>
+        <v>220</v>
       </c>
       <c r="B310" t="s" s="0">
-        <v>251</v>
+        <v>5</v>
       </c>
       <c r="C310" t="s" s="0">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s" s="0">
-        <v>54</v>
+        <v>220</v>
       </c>
       <c r="B311" t="s" s="0">
-        <v>254</v>
+        <v>56</v>
       </c>
       <c r="C311" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s" s="0">
-        <v>54</v>
+        <v>220</v>
       </c>
       <c r="B312" t="s" s="0">
-        <v>252</v>
+        <v>15</v>
       </c>
       <c r="C312" t="s" s="0">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s" s="0">
-        <v>54</v>
+        <v>220</v>
       </c>
       <c r="B313" t="s" s="0">
-        <v>301</v>
+        <v>23</v>
       </c>
       <c r="C313" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s" s="0">
-        <v>54</v>
+        <v>220</v>
       </c>
       <c r="B314" t="s" s="0">
-        <v>66</v>
+        <v>311</v>
       </c>
       <c r="C314" t="s" s="0">
         <v>413</v>
@@ -19417,287 +19417,100 @@
     </row>
     <row r="315">
       <c r="A315" t="s" s="0">
-        <v>54</v>
+        <v>220</v>
       </c>
       <c r="B315" t="s" s="0">
-        <v>23</v>
+        <v>310</v>
       </c>
       <c r="C315" t="s" s="0">
-        <v>413</v>
+        <v>388</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s" s="0">
-        <v>303</v>
+        <v>182</v>
       </c>
       <c r="B316" t="s" s="0">
-        <v>304</v>
+        <v>111</v>
       </c>
       <c r="C316" t="s" s="0">
-        <v>413</v>
+        <v>387</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s" s="0">
-        <v>303</v>
+        <v>182</v>
       </c>
       <c r="B317" t="s" s="0">
-        <v>305</v>
+        <v>106</v>
       </c>
       <c r="C317" t="s" s="0">
-        <v>413</v>
+        <v>387</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s" s="0">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="B318" t="s" s="0">
-        <v>53</v>
+        <v>316</v>
       </c>
       <c r="C318" t="s" s="0">
-        <v>413</v>
+        <v>387</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s" s="0">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="B319" t="s" s="0">
-        <v>306</v>
+        <v>117</v>
       </c>
       <c r="C319" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s" s="0">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="B320" t="s" s="0">
-        <v>224</v>
+        <v>23</v>
       </c>
       <c r="C320" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s" s="0">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="B321" t="s" s="0">
-        <v>308</v>
+        <v>116</v>
       </c>
       <c r="C321" t="s" s="0">
-        <v>413</v>
+        <v>387</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s" s="0">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="B322" t="s" s="0">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="C322" t="s" s="0">
-        <v>413</v>
+        <v>387</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s" s="0">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="B323" t="s" s="0">
-        <v>307</v>
+        <v>114</v>
       </c>
       <c r="C323" t="s" s="0">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="s" s="0">
-        <v>220</v>
-      </c>
-      <c r="B324" t="s" s="0">
-        <v>312</v>
-      </c>
-      <c r="C324" t="s" s="0">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="s" s="0">
-        <v>220</v>
-      </c>
-      <c r="B325" t="s" s="0">
-        <v>314</v>
-      </c>
-      <c r="C325" t="s" s="0">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="s" s="0">
-        <v>220</v>
-      </c>
-      <c r="B326" t="s" s="0">
-        <v>313</v>
-      </c>
-      <c r="C326" t="s" s="0">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="s" s="0">
-        <v>220</v>
-      </c>
-      <c r="B327" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C327" t="s" s="0">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="s" s="0">
-        <v>220</v>
-      </c>
-      <c r="B328" t="s" s="0">
-        <v>56</v>
-      </c>
-      <c r="C328" t="s" s="0">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="s" s="0">
-        <v>220</v>
-      </c>
-      <c r="B329" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="C329" t="s" s="0">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="s" s="0">
-        <v>220</v>
-      </c>
-      <c r="B330" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C330" t="s" s="0">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="s" s="0">
-        <v>220</v>
-      </c>
-      <c r="B331" t="s" s="0">
-        <v>311</v>
-      </c>
-      <c r="C331" t="s" s="0">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="s" s="0">
-        <v>220</v>
-      </c>
-      <c r="B332" t="s" s="0">
-        <v>310</v>
-      </c>
-      <c r="C332" t="s" s="0">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="B333" t="s" s="0">
-        <v>111</v>
-      </c>
-      <c r="C333" t="s" s="0">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="B334" t="s" s="0">
-        <v>106</v>
-      </c>
-      <c r="C334" t="s" s="0">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="B335" t="s" s="0">
-        <v>316</v>
-      </c>
-      <c r="C335" t="s" s="0">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="B336" t="s" s="0">
-        <v>117</v>
-      </c>
-      <c r="C336" t="s" s="0">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="B337" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C337" t="s" s="0">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="B338" t="s" s="0">
-        <v>116</v>
-      </c>
-      <c r="C338" t="s" s="0">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="B339" t="s" s="0">
-        <v>317</v>
-      </c>
-      <c r="C339" t="s" s="0">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="B340" t="s" s="0">
-        <v>114</v>
-      </c>
-      <c r="C340" t="s" s="0">
         <v>387</v>
       </c>
     </row>

--- a/data/backend/order-client_structure.xlsx
+++ b/data/backend/order-client_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6780" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6831" uniqueCount="430">
   <si>
     <t>Class Name</t>
   </si>
@@ -1263,12 +1263,12 @@
     <t>120</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>62</t>
   </si>
   <si>
@@ -1282,6 +1282,9 @@
   </si>
   <si>
     <t>8</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>127</t>
@@ -15955,7 +15958,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C323"/>
+  <dimension ref="A1:C340"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15974,10 +15977,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>413</v>
@@ -15985,13 +15988,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>414</v>
+        <v>388</v>
       </c>
     </row>
     <row r="4">
@@ -15999,7 +16002,7 @@
         <v>43</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>414</v>
@@ -16010,10 +16013,10 @@
         <v>43</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6">
@@ -16021,10 +16024,10 @@
         <v>43</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="7">
@@ -16032,10 +16035,10 @@
         <v>43</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="8">
@@ -16043,10 +16046,10 @@
         <v>43</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="9">
@@ -16054,10 +16057,10 @@
         <v>43</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="10">
@@ -16065,10 +16068,10 @@
         <v>43</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="11">
@@ -16076,10 +16079,10 @@
         <v>43</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="12">
@@ -16087,10 +16090,10 @@
         <v>43</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="13">
@@ -16098,10 +16101,10 @@
         <v>43</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="14">
@@ -16109,10 +16112,10 @@
         <v>43</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="15">
@@ -16120,32 +16123,32 @@
         <v>43</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="18">
@@ -16153,10 +16156,10 @@
         <v>58</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>417</v>
+        <v>388</v>
       </c>
     </row>
     <row r="19">
@@ -16164,7 +16167,7 @@
         <v>58</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>417</v>
@@ -16175,7 +16178,7 @@
         <v>58</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>417</v>
@@ -16186,7 +16189,7 @@
         <v>58</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>417</v>
@@ -16197,7 +16200,7 @@
         <v>58</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>417</v>
@@ -16208,7 +16211,7 @@
         <v>58</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>417</v>
@@ -16219,7 +16222,7 @@
         <v>58</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>417</v>
@@ -16230,7 +16233,7 @@
         <v>58</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>417</v>
@@ -16241,7 +16244,7 @@
         <v>58</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>417</v>
@@ -16252,7 +16255,7 @@
         <v>58</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>417</v>
@@ -16263,10 +16266,10 @@
         <v>58</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="29">
@@ -16274,87 +16277,87 @@
         <v>58</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>414</v>
+        <v>388</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>414</v>
+        <v>388</v>
       </c>
     </row>
     <row r="37">
@@ -16362,10 +16365,10 @@
         <v>80</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="38">
@@ -16373,10 +16376,10 @@
         <v>80</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="39">
@@ -16384,10 +16387,10 @@
         <v>80</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="40">
@@ -16395,10 +16398,10 @@
         <v>80</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="41">
@@ -16406,10 +16409,10 @@
         <v>80</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="42">
@@ -16417,10 +16420,10 @@
         <v>80</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="43">
@@ -16428,10 +16431,10 @@
         <v>80</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="44">
@@ -16439,10 +16442,10 @@
         <v>80</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="45">
@@ -16450,10 +16453,10 @@
         <v>80</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>402</v>
+        <v>413</v>
       </c>
     </row>
     <row r="46">
@@ -16461,10 +16464,10 @@
         <v>80</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="47">
@@ -16472,10 +16475,10 @@
         <v>80</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="48">
@@ -16483,604 +16486,604 @@
         <v>80</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>388</v>
+        <v>413</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>102</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>414</v>
+        <v>402</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>387</v>
+        <v>413</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>387</v>
+        <v>419</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>414</v>
+        <v>388</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>387</v>
+        <v>417</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>387</v>
+        <v>413</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>387</v>
+        <v>413</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>414</v>
+        <v>388</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>133</v>
+        <v>48</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>387</v>
+        <v>420</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>133</v>
+        <v>48</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>387</v>
+        <v>420</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>133</v>
+        <v>48</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>387</v>
+        <v>413</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>133</v>
+        <v>48</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>133</v>
+        <v>48</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>133</v>
+        <v>48</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>387</v>
+        <v>420</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>133</v>
+        <v>48</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>387</v>
+        <v>420</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>387</v>
+        <v>413</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>387</v>
+        <v>413</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>387</v>
+        <v>413</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>387</v>
+        <v>417</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>414</v>
+        <v>388</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>23</v>
+        <v>132</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>387</v>
+        <v>420</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>387</v>
+        <v>420</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>147</v>
+        <v>23</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="C83" t="s" s="0">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="C84" t="s" s="0">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="C85" t="s" s="0">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="C87" t="s" s="0">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="C88" t="s" s="0">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="C89" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>162</v>
+        <v>23</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="0">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="C91" t="s" s="0">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="C92" t="s" s="0">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="0">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="C93" t="s" s="0">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="0">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>85</v>
+        <v>142</v>
       </c>
       <c r="C94" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="0">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C95" t="s" s="0">
-        <v>414</v>
+        <v>388</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="0">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>88</v>
+        <v>145</v>
       </c>
       <c r="C96" t="s" s="0">
-        <v>414</v>
+        <v>388</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="0">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>155</v>
+        <v>71</v>
       </c>
       <c r="C97" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="0">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C98" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="0">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="C99" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="0">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C100" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="0">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>164</v>
+        <v>66</v>
       </c>
       <c r="C101" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="0">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>158</v>
+        <v>23</v>
       </c>
       <c r="C102" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="103">
@@ -17088,10 +17091,10 @@
         <v>149</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C103" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="104">
@@ -17099,10 +17102,10 @@
         <v>149</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>163</v>
+        <v>82</v>
       </c>
       <c r="C104" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="105">
@@ -17110,10 +17113,10 @@
         <v>149</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>5</v>
+        <v>159</v>
       </c>
       <c r="C105" t="s" s="0">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="106">
@@ -17121,10 +17124,10 @@
         <v>149</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>56</v>
+        <v>161</v>
       </c>
       <c r="C106" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="107">
@@ -17132,10 +17135,10 @@
         <v>149</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="C107" t="s" s="0">
-        <v>421</v>
+        <v>413</v>
       </c>
     </row>
     <row r="108">
@@ -17143,10 +17146,10 @@
         <v>149</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>23</v>
+        <v>151</v>
       </c>
       <c r="C108" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="109">
@@ -17154,10 +17157,10 @@
         <v>149</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C109" t="s" s="0">
-        <v>422</v>
+        <v>413</v>
       </c>
     </row>
     <row r="110">
@@ -17165,197 +17168,197 @@
         <v>149</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C110" t="s" s="0">
-        <v>388</v>
+        <v>413</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="0">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="C111" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="0">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="C112" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="0">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>177</v>
+        <v>88</v>
       </c>
       <c r="C113" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="0">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="C114" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="0">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="C115" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="0">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C116" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="0">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="C117" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="0">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C118" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="0">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="C119" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="0">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="C120" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="0">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="C121" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="0">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="C122" t="s" s="0">
-        <v>414</v>
+        <v>421</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="0">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>174</v>
+        <v>56</v>
       </c>
       <c r="C123" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="0">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>179</v>
+        <v>15</v>
       </c>
       <c r="C124" t="s" s="0">
-        <v>414</v>
+        <v>422</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="0">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>184</v>
+        <v>23</v>
       </c>
       <c r="C125" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="0">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="C126" t="s" s="0">
-        <v>414</v>
+        <v>423</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="0">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="C127" t="s" s="0">
-        <v>414</v>
+        <v>388</v>
       </c>
     </row>
     <row r="128">
@@ -17363,10 +17366,10 @@
         <v>167</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>189</v>
+        <v>53</v>
       </c>
       <c r="C128" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="129">
@@ -17374,10 +17377,10 @@
         <v>167</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>180</v>
+        <v>82</v>
       </c>
       <c r="C129" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="130">
@@ -17385,10 +17388,10 @@
         <v>167</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C130" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="131">
@@ -17396,10 +17399,10 @@
         <v>167</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C131" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="132">
@@ -17407,10 +17410,10 @@
         <v>167</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>5</v>
+        <v>181</v>
       </c>
       <c r="C132" t="s" s="0">
-        <v>423</v>
+        <v>413</v>
       </c>
     </row>
     <row r="133">
@@ -17418,10 +17421,10 @@
         <v>167</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>56</v>
+        <v>171</v>
       </c>
       <c r="C133" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="134">
@@ -17429,10 +17432,10 @@
         <v>167</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>15</v>
+        <v>173</v>
       </c>
       <c r="C134" t="s" s="0">
-        <v>424</v>
+        <v>413</v>
       </c>
     </row>
     <row r="135">
@@ -17440,10 +17443,10 @@
         <v>167</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>23</v>
+        <v>168</v>
       </c>
       <c r="C135" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="136">
@@ -17451,10 +17454,10 @@
         <v>167</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C136" t="s" s="0">
-        <v>425</v>
+        <v>413</v>
       </c>
     </row>
     <row r="137">
@@ -17462,194 +17465,194 @@
         <v>167</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="C137" t="s" s="0">
-        <v>388</v>
+        <v>413</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="0">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C138" t="s" s="0">
-        <v>388</v>
+        <v>413</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="0">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>195</v>
+        <v>88</v>
       </c>
       <c r="C139" t="s" s="0">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="0">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="C140" t="s" s="0">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="0">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>66</v>
+        <v>179</v>
       </c>
       <c r="C141" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="0">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>23</v>
+        <v>184</v>
       </c>
       <c r="C142" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="0">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C143" t="s" s="0">
-        <v>388</v>
+        <v>413</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="0">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="C144" t="s" s="0">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="0">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C145" t="s" s="0">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s" s="0">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="C146" t="s" s="0">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="0">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="C147" t="s" s="0">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s" s="0">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C148" t="s" s="0">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s" s="0">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>198</v>
+        <v>5</v>
       </c>
       <c r="C149" t="s" s="0">
-        <v>417</v>
+        <v>424</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="0">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C150" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="0">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C151" t="s" s="0">
-        <v>414</v>
+        <v>425</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="0">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>205</v>
+        <v>23</v>
       </c>
       <c r="C152" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="0">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="C153" t="s" s="0">
-        <v>388</v>
+        <v>426</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="0">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>207</v>
+        <v>170</v>
       </c>
       <c r="C154" t="s" s="0">
         <v>388</v>
@@ -17657,21 +17660,21 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="0">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C155" t="s" s="0">
-        <v>417</v>
+        <v>388</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="0">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C156" t="s" s="0">
         <v>417</v>
@@ -17679,10 +17682,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="0">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>68</v>
+        <v>194</v>
       </c>
       <c r="C157" t="s" s="0">
         <v>417</v>
@@ -17690,43 +17693,43 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="0">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C158" t="s" s="0">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="0">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="C159" t="s" s="0">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="0">
-        <v>175</v>
+        <v>87</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C160" t="s" s="0">
-        <v>417</v>
+        <v>388</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="0">
-        <v>175</v>
+        <v>87</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C161" t="s" s="0">
         <v>417</v>
@@ -17734,10 +17737,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="0">
-        <v>175</v>
+        <v>87</v>
       </c>
       <c r="B162" t="s" s="0">
-        <v>73</v>
+        <v>202</v>
       </c>
       <c r="C162" t="s" s="0">
         <v>417</v>
@@ -17745,10 +17748,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="0">
-        <v>175</v>
+        <v>87</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>63</v>
+        <v>197</v>
       </c>
       <c r="C163" t="s" s="0">
         <v>417</v>
@@ -17756,10 +17759,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="0">
-        <v>175</v>
+        <v>87</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>61</v>
+        <v>196</v>
       </c>
       <c r="C164" t="s" s="0">
         <v>417</v>
@@ -17767,65 +17770,65 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="0">
-        <v>175</v>
+        <v>87</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>66</v>
+        <v>199</v>
       </c>
       <c r="C165" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="0">
-        <v>175</v>
+        <v>87</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>23</v>
+        <v>198</v>
       </c>
       <c r="C166" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="0">
-        <v>211</v>
+        <v>87</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>212</v>
+        <v>66</v>
       </c>
       <c r="C167" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="0">
-        <v>211</v>
+        <v>87</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>213</v>
+        <v>23</v>
       </c>
       <c r="C168" t="s" s="0">
-        <v>388</v>
+        <v>413</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="0">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C169" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="0">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C170" t="s" s="0">
         <v>388</v>
@@ -17833,10 +17836,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="0">
-        <v>217</v>
+        <v>175</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C171" t="s" s="0">
         <v>388</v>
@@ -17844,10 +17847,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="0">
-        <v>217</v>
+        <v>175</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="C172" t="s" s="0">
         <v>417</v>
@@ -17855,10 +17858,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="0">
-        <v>217</v>
+        <v>175</v>
       </c>
       <c r="B173" t="s" s="0">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="C173" t="s" s="0">
         <v>417</v>
@@ -17866,10 +17869,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="0">
-        <v>217</v>
+        <v>175</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>219</v>
+        <v>68</v>
       </c>
       <c r="C174" t="s" s="0">
         <v>417</v>
@@ -17877,10 +17880,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="0">
-        <v>217</v>
+        <v>175</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>223</v>
+        <v>64</v>
       </c>
       <c r="C175" t="s" s="0">
         <v>417</v>
@@ -17888,549 +17891,549 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="0">
-        <v>217</v>
+        <v>175</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>66</v>
+        <v>208</v>
       </c>
       <c r="C176" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="0">
-        <v>217</v>
+        <v>175</v>
       </c>
       <c r="B177" t="s" s="0">
-        <v>23</v>
+        <v>210</v>
       </c>
       <c r="C177" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s" s="0">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>53</v>
+        <v>209</v>
       </c>
       <c r="C178" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s" s="0">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C179" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s" s="0">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>224</v>
+        <v>63</v>
       </c>
       <c r="C180" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s" s="0">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="B181" t="s" s="0">
-        <v>228</v>
+        <v>61</v>
       </c>
       <c r="C181" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s" s="0">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="B182" t="s" s="0">
-        <v>225</v>
+        <v>66</v>
       </c>
       <c r="C182" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s" s="0">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="B183" t="s" s="0">
-        <v>230</v>
+        <v>23</v>
       </c>
       <c r="C183" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s" s="0">
-        <v>126</v>
+        <v>211</v>
       </c>
       <c r="B184" t="s" s="0">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="C184" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s" s="0">
-        <v>126</v>
+        <v>211</v>
       </c>
       <c r="B185" t="s" s="0">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="C185" t="s" s="0">
-        <v>414</v>
+        <v>388</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s" s="0">
-        <v>126</v>
+        <v>214</v>
       </c>
       <c r="B186" t="s" s="0">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C186" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s" s="0">
-        <v>126</v>
+        <v>214</v>
       </c>
       <c r="B187" t="s" s="0">
-        <v>5</v>
+        <v>216</v>
       </c>
       <c r="C187" t="s" s="0">
-        <v>426</v>
+        <v>388</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s" s="0">
-        <v>126</v>
+        <v>217</v>
       </c>
       <c r="B188" t="s" s="0">
-        <v>56</v>
+        <v>218</v>
       </c>
       <c r="C188" t="s" s="0">
-        <v>414</v>
+        <v>388</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s" s="0">
-        <v>126</v>
+        <v>217</v>
       </c>
       <c r="B189" t="s" s="0">
-        <v>15</v>
+        <v>221</v>
       </c>
       <c r="C189" t="s" s="0">
-        <v>425</v>
+        <v>417</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s" s="0">
-        <v>126</v>
+        <v>217</v>
       </c>
       <c r="B190" t="s" s="0">
-        <v>23</v>
+        <v>222</v>
       </c>
       <c r="C190" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s" s="0">
-        <v>126</v>
+        <v>217</v>
       </c>
       <c r="B191" t="s" s="0">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C191" t="s" s="0">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s" s="0">
-        <v>126</v>
+        <v>217</v>
       </c>
       <c r="B192" t="s" s="0">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C192" t="s" s="0">
-        <v>388</v>
+        <v>417</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s" s="0">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="B193" t="s" s="0">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C193" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s" s="0">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="B194" t="s" s="0">
-        <v>236</v>
+        <v>23</v>
       </c>
       <c r="C194" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s" s="0">
-        <v>193</v>
+        <v>126</v>
       </c>
       <c r="B195" t="s" s="0">
-        <v>237</v>
+        <v>53</v>
       </c>
       <c r="C195" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s" s="0">
-        <v>193</v>
+        <v>126</v>
       </c>
       <c r="B196" t="s" s="0">
-        <v>235</v>
+        <v>82</v>
       </c>
       <c r="C196" t="s" s="0">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s" s="0">
-        <v>193</v>
+        <v>126</v>
       </c>
       <c r="B197" t="s" s="0">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="C197" t="s" s="0">
-        <v>388</v>
+        <v>413</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s" s="0">
-        <v>239</v>
+        <v>126</v>
       </c>
       <c r="B198" t="s" s="0">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="C198" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s" s="0">
-        <v>239</v>
+        <v>126</v>
       </c>
       <c r="B199" t="s" s="0">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="C199" t="s" s="0">
-        <v>388</v>
+        <v>413</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s" s="0">
-        <v>242</v>
+        <v>126</v>
       </c>
       <c r="B200" t="s" s="0">
-        <v>111</v>
+        <v>230</v>
       </c>
       <c r="C200" t="s" s="0">
-        <v>387</v>
+        <v>413</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s" s="0">
-        <v>242</v>
+        <v>126</v>
       </c>
       <c r="B201" t="s" s="0">
-        <v>106</v>
+        <v>232</v>
       </c>
       <c r="C201" t="s" s="0">
-        <v>387</v>
+        <v>413</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s" s="0">
-        <v>242</v>
+        <v>126</v>
       </c>
       <c r="B202" t="s" s="0">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C202" t="s" s="0">
-        <v>387</v>
+        <v>413</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s" s="0">
-        <v>242</v>
+        <v>126</v>
       </c>
       <c r="B203" t="s" s="0">
-        <v>117</v>
+        <v>227</v>
       </c>
       <c r="C203" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s" s="0">
-        <v>242</v>
+        <v>126</v>
       </c>
       <c r="B204" t="s" s="0">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C204" t="s" s="0">
-        <v>414</v>
+        <v>427</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s" s="0">
-        <v>242</v>
+        <v>126</v>
       </c>
       <c r="B205" t="s" s="0">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C205" t="s" s="0">
-        <v>387</v>
+        <v>413</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s" s="0">
-        <v>242</v>
+        <v>126</v>
       </c>
       <c r="B206" t="s" s="0">
-        <v>245</v>
+        <v>15</v>
       </c>
       <c r="C206" t="s" s="0">
-        <v>387</v>
+        <v>426</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s" s="0">
-        <v>242</v>
+        <v>126</v>
       </c>
       <c r="B207" t="s" s="0">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="C207" t="s" s="0">
-        <v>387</v>
+        <v>413</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s" s="0">
-        <v>246</v>
+        <v>126</v>
       </c>
       <c r="B208" t="s" s="0">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="C208" t="s" s="0">
-        <v>388</v>
+        <v>414</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s" s="0">
-        <v>246</v>
+        <v>126</v>
       </c>
       <c r="B209" t="s" s="0">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="C209" t="s" s="0">
-        <v>417</v>
+        <v>388</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s" s="0">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="B210" t="s" s="0">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="C210" t="s" s="0">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s" s="0">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="B211" t="s" s="0">
-        <v>66</v>
+        <v>236</v>
       </c>
       <c r="C211" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s" s="0">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="B212" t="s" s="0">
-        <v>23</v>
+        <v>237</v>
       </c>
       <c r="C212" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s" s="0">
-        <v>250</v>
+        <v>193</v>
       </c>
       <c r="B213" t="s" s="0">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="C213" t="s" s="0">
-        <v>388</v>
+        <v>417</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s" s="0">
-        <v>250</v>
+        <v>193</v>
       </c>
       <c r="B214" t="s" s="0">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="C214" t="s" s="0">
-        <v>417</v>
+        <v>388</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s" s="0">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="B215" t="s" s="0">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="C215" t="s" s="0">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s" s="0">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="B216" t="s" s="0">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="C216" t="s" s="0">
-        <v>417</v>
+        <v>388</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s" s="0">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B217" t="s" s="0">
-        <v>255</v>
+        <v>111</v>
       </c>
       <c r="C217" t="s" s="0">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s" s="0">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B218" t="s" s="0">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="C218" t="s" s="0">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s" s="0">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B219" t="s" s="0">
-        <v>23</v>
+        <v>244</v>
       </c>
       <c r="C219" t="s" s="0">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s" s="0">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="B220" t="s" s="0">
-        <v>258</v>
+        <v>117</v>
       </c>
       <c r="C220" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s" s="0">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="B221" t="s" s="0">
-        <v>259</v>
+        <v>23</v>
       </c>
       <c r="C221" t="s" s="0">
-        <v>388</v>
+        <v>413</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s" s="0">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="B222" t="s" s="0">
-        <v>261</v>
+        <v>116</v>
       </c>
       <c r="C222" t="s" s="0">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s" s="0">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="B223" t="s" s="0">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="C223" t="s" s="0">
-        <v>388</v>
+        <v>420</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s" s="0">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="B224" t="s" s="0">
-        <v>264</v>
+        <v>114</v>
       </c>
       <c r="C224" t="s" s="0">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s" s="0">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="B225" t="s" s="0">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="C225" t="s" s="0">
         <v>388</v>
@@ -18438,189 +18441,189 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="0">
-        <v>67</v>
+        <v>246</v>
       </c>
       <c r="B226" t="s" s="0">
-        <v>53</v>
+        <v>248</v>
       </c>
       <c r="C226" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s" s="0">
-        <v>67</v>
+        <v>246</v>
       </c>
       <c r="B227" t="s" s="0">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="C227" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s" s="0">
-        <v>67</v>
+        <v>246</v>
       </c>
       <c r="B228" t="s" s="0">
-        <v>276</v>
+        <v>66</v>
       </c>
       <c r="C228" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s" s="0">
-        <v>67</v>
+        <v>246</v>
       </c>
       <c r="B229" t="s" s="0">
-        <v>177</v>
+        <v>23</v>
       </c>
       <c r="C229" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s" s="0">
-        <v>67</v>
+        <v>250</v>
       </c>
       <c r="B230" t="s" s="0">
-        <v>185</v>
+        <v>256</v>
       </c>
       <c r="C230" t="s" s="0">
-        <v>414</v>
+        <v>388</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s" s="0">
-        <v>67</v>
+        <v>250</v>
       </c>
       <c r="B231" t="s" s="0">
-        <v>181</v>
+        <v>251</v>
       </c>
       <c r="C231" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s" s="0">
-        <v>67</v>
+        <v>250</v>
       </c>
       <c r="B232" t="s" s="0">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="C232" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s" s="0">
-        <v>67</v>
+        <v>250</v>
       </c>
       <c r="B233" t="s" s="0">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="C233" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s" s="0">
-        <v>67</v>
+        <v>250</v>
       </c>
       <c r="B234" t="s" s="0">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="C234" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s" s="0">
-        <v>67</v>
+        <v>250</v>
       </c>
       <c r="B235" t="s" s="0">
-        <v>176</v>
+        <v>66</v>
       </c>
       <c r="C235" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s" s="0">
-        <v>67</v>
+        <v>250</v>
       </c>
       <c r="B236" t="s" s="0">
-        <v>183</v>
+        <v>23</v>
       </c>
       <c r="C236" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s" s="0">
-        <v>67</v>
+        <v>257</v>
       </c>
       <c r="B237" t="s" s="0">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C237" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s" s="0">
-        <v>67</v>
+        <v>257</v>
       </c>
       <c r="B238" t="s" s="0">
-        <v>186</v>
+        <v>259</v>
       </c>
       <c r="C238" t="s" s="0">
-        <v>414</v>
+        <v>388</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s" s="0">
-        <v>67</v>
+        <v>260</v>
       </c>
       <c r="B239" t="s" s="0">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="C239" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s" s="0">
-        <v>67</v>
+        <v>260</v>
       </c>
       <c r="B240" t="s" s="0">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C240" t="s" s="0">
-        <v>414</v>
+        <v>388</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s" s="0">
-        <v>67</v>
+        <v>263</v>
       </c>
       <c r="B241" t="s" s="0">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C241" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s" s="0">
-        <v>67</v>
+        <v>263</v>
       </c>
       <c r="B242" t="s" s="0">
-        <v>179</v>
+        <v>265</v>
       </c>
       <c r="C242" t="s" s="0">
-        <v>414</v>
+        <v>388</v>
       </c>
     </row>
     <row r="243">
@@ -18628,10 +18631,10 @@
         <v>67</v>
       </c>
       <c r="B243" t="s" s="0">
-        <v>184</v>
+        <v>53</v>
       </c>
       <c r="C243" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="244">
@@ -18639,10 +18642,10 @@
         <v>67</v>
       </c>
       <c r="B244" t="s" s="0">
-        <v>268</v>
+        <v>82</v>
       </c>
       <c r="C244" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="245">
@@ -18650,10 +18653,10 @@
         <v>67</v>
       </c>
       <c r="B245" t="s" s="0">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="C245" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="246">
@@ -18661,10 +18664,10 @@
         <v>67</v>
       </c>
       <c r="B246" t="s" s="0">
-        <v>278</v>
+        <v>177</v>
       </c>
       <c r="C246" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="247">
@@ -18672,10 +18675,10 @@
         <v>67</v>
       </c>
       <c r="B247" t="s" s="0">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C247" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="248">
@@ -18683,10 +18686,10 @@
         <v>67</v>
       </c>
       <c r="B248" t="s" s="0">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="C248" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="249">
@@ -18694,10 +18697,10 @@
         <v>67</v>
       </c>
       <c r="B249" t="s" s="0">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="C249" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="250">
@@ -18705,10 +18708,10 @@
         <v>67</v>
       </c>
       <c r="B250" t="s" s="0">
-        <v>188</v>
+        <v>269</v>
       </c>
       <c r="C250" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="251">
@@ -18716,10 +18719,10 @@
         <v>67</v>
       </c>
       <c r="B251" t="s" s="0">
-        <v>5</v>
+        <v>281</v>
       </c>
       <c r="C251" t="s" s="0">
-        <v>427</v>
+        <v>413</v>
       </c>
     </row>
     <row r="252">
@@ -18727,10 +18730,10 @@
         <v>67</v>
       </c>
       <c r="B252" t="s" s="0">
-        <v>56</v>
+        <v>176</v>
       </c>
       <c r="C252" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="253">
@@ -18738,10 +18741,10 @@
         <v>67</v>
       </c>
       <c r="B253" t="s" s="0">
-        <v>15</v>
+        <v>183</v>
       </c>
       <c r="C253" t="s" s="0">
-        <v>404</v>
+        <v>413</v>
       </c>
     </row>
     <row r="254">
@@ -18749,10 +18752,10 @@
         <v>67</v>
       </c>
       <c r="B254" t="s" s="0">
-        <v>23</v>
+        <v>270</v>
       </c>
       <c r="C254" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="255">
@@ -18760,10 +18763,10 @@
         <v>67</v>
       </c>
       <c r="B255" t="s" s="0">
-        <v>275</v>
+        <v>186</v>
       </c>
       <c r="C255" t="s" s="0">
-        <v>428</v>
+        <v>413</v>
       </c>
     </row>
     <row r="256">
@@ -18771,18 +18774,18 @@
         <v>67</v>
       </c>
       <c r="B256" t="s" s="0">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="C256" t="s" s="0">
-        <v>388</v>
+        <v>413</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s" s="0">
-        <v>253</v>
+        <v>67</v>
       </c>
       <c r="B257" t="s" s="0">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="C257" t="s" s="0">
         <v>413</v>
@@ -18790,384 +18793,384 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="0">
-        <v>253</v>
+        <v>67</v>
       </c>
       <c r="B258" t="s" s="0">
-        <v>53</v>
+        <v>273</v>
       </c>
       <c r="C258" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s" s="0">
-        <v>253</v>
+        <v>67</v>
       </c>
       <c r="B259" t="s" s="0">
-        <v>50</v>
+        <v>179</v>
       </c>
       <c r="C259" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s" s="0">
-        <v>253</v>
+        <v>67</v>
       </c>
       <c r="B260" t="s" s="0">
-        <v>46</v>
+        <v>184</v>
       </c>
       <c r="C260" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s" s="0">
-        <v>253</v>
+        <v>67</v>
       </c>
       <c r="B261" t="s" s="0">
-        <v>44</v>
+        <v>268</v>
       </c>
       <c r="C261" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s" s="0">
-        <v>253</v>
+        <v>67</v>
       </c>
       <c r="B262" t="s" s="0">
-        <v>47</v>
+        <v>267</v>
       </c>
       <c r="C262" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s" s="0">
-        <v>253</v>
+        <v>67</v>
       </c>
       <c r="B263" t="s" s="0">
-        <v>49</v>
+        <v>278</v>
       </c>
       <c r="C263" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s" s="0">
-        <v>253</v>
+        <v>67</v>
       </c>
       <c r="B264" t="s" s="0">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="C264" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s" s="0">
-        <v>253</v>
+        <v>67</v>
       </c>
       <c r="B265" t="s" s="0">
-        <v>51</v>
+        <v>169</v>
       </c>
       <c r="C265" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s" s="0">
-        <v>253</v>
+        <v>67</v>
       </c>
       <c r="B266" t="s" s="0">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="C266" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s" s="0">
-        <v>253</v>
+        <v>67</v>
       </c>
       <c r="B267" t="s" s="0">
-        <v>5</v>
+        <v>188</v>
       </c>
       <c r="C267" t="s" s="0">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s" s="0">
-        <v>253</v>
+        <v>67</v>
       </c>
       <c r="B268" t="s" s="0">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="C268" t="s" s="0">
-        <v>414</v>
+        <v>428</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s" s="0">
-        <v>253</v>
+        <v>67</v>
       </c>
       <c r="B269" t="s" s="0">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="C269" t="s" s="0">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s" s="0">
-        <v>253</v>
+        <v>67</v>
       </c>
       <c r="B270" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C270" t="s" s="0">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s" s="0">
-        <v>247</v>
+        <v>67</v>
       </c>
       <c r="B271" t="s" s="0">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="C271" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s" s="0">
-        <v>247</v>
+        <v>67</v>
       </c>
       <c r="B272" t="s" s="0">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="C272" t="s" s="0">
-        <v>414</v>
+        <v>429</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s" s="0">
-        <v>247</v>
+        <v>67</v>
       </c>
       <c r="B273" t="s" s="0">
-        <v>128</v>
+        <v>279</v>
       </c>
       <c r="C273" t="s" s="0">
-        <v>414</v>
+        <v>388</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s" s="0">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B274" t="s" s="0">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C274" t="s" s="0">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s" s="0">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B275" t="s" s="0">
-        <v>284</v>
+        <v>53</v>
       </c>
       <c r="C275" t="s" s="0">
-        <v>388</v>
+        <v>413</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s" s="0">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="B276" t="s" s="0">
-        <v>289</v>
+        <v>50</v>
       </c>
       <c r="C276" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s" s="0">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="B277" t="s" s="0">
-        <v>288</v>
+        <v>46</v>
       </c>
       <c r="C277" t="s" s="0">
-        <v>388</v>
+        <v>413</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s" s="0">
-        <v>290</v>
+        <v>253</v>
       </c>
       <c r="B278" t="s" s="0">
-        <v>291</v>
+        <v>44</v>
       </c>
       <c r="C278" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s" s="0">
-        <v>290</v>
+        <v>253</v>
       </c>
       <c r="B279" t="s" s="0">
-        <v>292</v>
+        <v>47</v>
       </c>
       <c r="C279" t="s" s="0">
-        <v>388</v>
+        <v>413</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s" s="0">
-        <v>154</v>
+        <v>253</v>
       </c>
       <c r="B280" t="s" s="0">
-        <v>299</v>
+        <v>49</v>
       </c>
       <c r="C280" t="s" s="0">
-        <v>388</v>
+        <v>413</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s" s="0">
-        <v>154</v>
+        <v>253</v>
       </c>
       <c r="B281" t="s" s="0">
-        <v>201</v>
+        <v>52</v>
       </c>
       <c r="C281" t="s" s="0">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s" s="0">
-        <v>154</v>
+        <v>253</v>
       </c>
       <c r="B282" t="s" s="0">
-        <v>294</v>
+        <v>51</v>
       </c>
       <c r="C282" t="s" s="0">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s" s="0">
-        <v>154</v>
+        <v>253</v>
       </c>
       <c r="B283" t="s" s="0">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="C283" t="s" s="0">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s" s="0">
-        <v>154</v>
+        <v>253</v>
       </c>
       <c r="B284" t="s" s="0">
-        <v>297</v>
+        <v>5</v>
       </c>
       <c r="C284" t="s" s="0">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s" s="0">
-        <v>154</v>
+        <v>253</v>
       </c>
       <c r="B285" t="s" s="0">
-        <v>295</v>
+        <v>56</v>
       </c>
       <c r="C285" t="s" s="0">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s" s="0">
-        <v>154</v>
+        <v>253</v>
       </c>
       <c r="B286" t="s" s="0">
-        <v>298</v>
+        <v>15</v>
       </c>
       <c r="C286" t="s" s="0">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s" s="0">
-        <v>154</v>
+        <v>253</v>
       </c>
       <c r="B287" t="s" s="0">
-        <v>296</v>
+        <v>23</v>
       </c>
       <c r="C287" t="s" s="0">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s" s="0">
-        <v>154</v>
+        <v>247</v>
       </c>
       <c r="B288" t="s" s="0">
-        <v>198</v>
+        <v>53</v>
       </c>
       <c r="C288" t="s" s="0">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s" s="0">
-        <v>154</v>
+        <v>247</v>
       </c>
       <c r="B289" t="s" s="0">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C289" t="s" s="0">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s" s="0">
-        <v>154</v>
+        <v>247</v>
       </c>
       <c r="B290" t="s" s="0">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="C290" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s" s="0">
-        <v>154</v>
+        <v>247</v>
       </c>
       <c r="B291" t="s" s="0">
-        <v>23</v>
+        <v>285</v>
       </c>
       <c r="C291" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s" s="0">
-        <v>54</v>
+        <v>247</v>
       </c>
       <c r="B292" t="s" s="0">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="C292" t="s" s="0">
         <v>388</v>
@@ -19175,241 +19178,241 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="0">
-        <v>54</v>
+        <v>287</v>
       </c>
       <c r="B293" t="s" s="0">
-        <v>251</v>
+        <v>289</v>
       </c>
       <c r="C293" t="s" s="0">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s" s="0">
-        <v>54</v>
+        <v>287</v>
       </c>
       <c r="B294" t="s" s="0">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="C294" t="s" s="0">
-        <v>417</v>
+        <v>388</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s" s="0">
-        <v>54</v>
+        <v>290</v>
       </c>
       <c r="B295" t="s" s="0">
-        <v>252</v>
+        <v>291</v>
       </c>
       <c r="C295" t="s" s="0">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s" s="0">
-        <v>54</v>
+        <v>290</v>
       </c>
       <c r="B296" t="s" s="0">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="C296" t="s" s="0">
-        <v>417</v>
+        <v>388</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s" s="0">
-        <v>54</v>
+        <v>154</v>
       </c>
       <c r="B297" t="s" s="0">
-        <v>66</v>
+        <v>299</v>
       </c>
       <c r="C297" t="s" s="0">
-        <v>414</v>
+        <v>388</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s" s="0">
-        <v>54</v>
+        <v>154</v>
       </c>
       <c r="B298" t="s" s="0">
-        <v>23</v>
+        <v>201</v>
       </c>
       <c r="C298" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s" s="0">
-        <v>303</v>
+        <v>154</v>
       </c>
       <c r="B299" t="s" s="0">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C299" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s" s="0">
-        <v>303</v>
+        <v>154</v>
       </c>
       <c r="B300" t="s" s="0">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C300" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s" s="0">
-        <v>220</v>
+        <v>154</v>
       </c>
       <c r="B301" t="s" s="0">
-        <v>53</v>
+        <v>297</v>
       </c>
       <c r="C301" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s" s="0">
-        <v>220</v>
+        <v>154</v>
       </c>
       <c r="B302" t="s" s="0">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="C302" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s" s="0">
-        <v>220</v>
+        <v>154</v>
       </c>
       <c r="B303" t="s" s="0">
-        <v>224</v>
+        <v>298</v>
       </c>
       <c r="C303" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s" s="0">
-        <v>220</v>
+        <v>154</v>
       </c>
       <c r="B304" t="s" s="0">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="C304" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s" s="0">
-        <v>220</v>
+        <v>154</v>
       </c>
       <c r="B305" t="s" s="0">
-        <v>309</v>
+        <v>198</v>
       </c>
       <c r="C305" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s" s="0">
-        <v>220</v>
+        <v>154</v>
       </c>
       <c r="B306" t="s" s="0">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="C306" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s" s="0">
-        <v>220</v>
+        <v>154</v>
       </c>
       <c r="B307" t="s" s="0">
-        <v>312</v>
+        <v>66</v>
       </c>
       <c r="C307" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s" s="0">
-        <v>220</v>
+        <v>154</v>
       </c>
       <c r="B308" t="s" s="0">
-        <v>314</v>
+        <v>23</v>
       </c>
       <c r="C308" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s" s="0">
-        <v>220</v>
+        <v>54</v>
       </c>
       <c r="B309" t="s" s="0">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="C309" t="s" s="0">
-        <v>414</v>
+        <v>388</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s" s="0">
-        <v>220</v>
+        <v>54</v>
       </c>
       <c r="B310" t="s" s="0">
-        <v>5</v>
+        <v>251</v>
       </c>
       <c r="C310" t="s" s="0">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s" s="0">
-        <v>220</v>
+        <v>54</v>
       </c>
       <c r="B311" t="s" s="0">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="C311" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s" s="0">
-        <v>220</v>
+        <v>54</v>
       </c>
       <c r="B312" t="s" s="0">
-        <v>15</v>
+        <v>252</v>
       </c>
       <c r="C312" t="s" s="0">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s" s="0">
-        <v>220</v>
+        <v>54</v>
       </c>
       <c r="B313" t="s" s="0">
-        <v>23</v>
+        <v>301</v>
       </c>
       <c r="C313" t="s" s="0">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s" s="0">
-        <v>220</v>
+        <v>54</v>
       </c>
       <c r="B314" t="s" s="0">
-        <v>311</v>
+        <v>66</v>
       </c>
       <c r="C314" t="s" s="0">
         <v>413</v>
@@ -19417,101 +19420,288 @@
     </row>
     <row r="315">
       <c r="A315" t="s" s="0">
-        <v>220</v>
+        <v>54</v>
       </c>
       <c r="B315" t="s" s="0">
-        <v>310</v>
+        <v>23</v>
       </c>
       <c r="C315" t="s" s="0">
-        <v>388</v>
+        <v>413</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s" s="0">
-        <v>182</v>
+        <v>303</v>
       </c>
       <c r="B316" t="s" s="0">
-        <v>111</v>
+        <v>304</v>
       </c>
       <c r="C316" t="s" s="0">
-        <v>387</v>
+        <v>413</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s" s="0">
-        <v>182</v>
+        <v>303</v>
       </c>
       <c r="B317" t="s" s="0">
-        <v>106</v>
+        <v>305</v>
       </c>
       <c r="C317" t="s" s="0">
-        <v>387</v>
+        <v>413</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s" s="0">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="B318" t="s" s="0">
-        <v>316</v>
+        <v>53</v>
       </c>
       <c r="C318" t="s" s="0">
-        <v>387</v>
+        <v>413</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s" s="0">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="B319" t="s" s="0">
-        <v>117</v>
+        <v>306</v>
       </c>
       <c r="C319" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s" s="0">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="B320" t="s" s="0">
-        <v>23</v>
+        <v>224</v>
       </c>
       <c r="C320" t="s" s="0">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s" s="0">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="B321" t="s" s="0">
-        <v>116</v>
+        <v>308</v>
       </c>
       <c r="C321" t="s" s="0">
-        <v>387</v>
+        <v>413</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s" s="0">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="B322" t="s" s="0">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C322" t="s" s="0">
-        <v>387</v>
+        <v>413</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="B323" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="C323" t="s" s="0">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="B324" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="C324" t="s" s="0">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="B325" t="s" s="0">
+        <v>314</v>
+      </c>
+      <c r="C325" t="s" s="0">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="B326" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="C326" t="s" s="0">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="B327" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C327" t="s" s="0">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="B328" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C328" t="s" s="0">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="B329" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C329" t="s" s="0">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="B330" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C330" t="s" s="0">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="B331" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="C331" t="s" s="0">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="B332" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="C332" t="s" s="0">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s" s="0">
         <v>182</v>
       </c>
-      <c r="B323" t="s" s="0">
+      <c r="B333" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="C333" t="s" s="0">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="B334" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="C334" t="s" s="0">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="B335" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="C335" t="s" s="0">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="B336" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="C336" t="s" s="0">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="B337" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C337" t="s" s="0">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="B338" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="C338" t="s" s="0">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="B339" t="s" s="0">
+        <v>317</v>
+      </c>
+      <c r="C339" t="s" s="0">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="B340" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="C323" t="s" s="0">
-        <v>387</v>
+      <c r="C340" t="s" s="0">
+        <v>420</v>
       </c>
     </row>
   </sheetData>
